--- a/attendance-files/MR/MR-B (EFGH) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-B (EFGH) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="158">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -877,7 +877,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -976,6 +976,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="25" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -991,7 +994,18 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCD5B4"/>
+          <bgColor rgb="FFFCD5B4"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1607,7 +1621,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1618,9 +1632,15 @@
       <c r="I7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
+      <c r="J7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="M7" s="30"/>
       <c r="N7" s="30"/>
       <c r="O7" s="30"/>
@@ -1657,7 +1677,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>20</v>
@@ -1668,9 +1688,15 @@
       <c r="I8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
+      <c r="J8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M8" s="37"/>
       <c r="N8" s="37"/>
       <c r="O8" s="37"/>
@@ -1707,7 +1733,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>20</v>
@@ -1718,9 +1744,15 @@
       <c r="I9" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
+      <c r="J9" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M9" s="37"/>
       <c r="N9" s="37"/>
       <c r="O9" s="37"/>
@@ -1757,7 +1789,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>21</v>
@@ -1768,9 +1800,15 @@
       <c r="I10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
+      <c r="J10" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M10" s="37"/>
       <c r="N10" s="37"/>
       <c r="O10" s="37"/>
@@ -1807,7 +1845,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>21</v>
@@ -1818,9 +1856,15 @@
       <c r="I11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
+      <c r="J11" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M11" s="37"/>
       <c r="N11" s="37"/>
       <c r="O11" s="37"/>
@@ -1857,7 +1901,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>20</v>
@@ -1865,12 +1909,18 @@
       <c r="H12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
+      <c r="I12" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M12" s="37"/>
       <c r="N12" s="37"/>
       <c r="O12" s="37"/>
@@ -1907,7 +1957,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>20</v>
@@ -1918,9 +1968,15 @@
       <c r="I13" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
+      <c r="J13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M13" s="37"/>
       <c r="N13" s="37"/>
       <c r="O13" s="37"/>
@@ -1957,7 +2013,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>21</v>
@@ -1968,9 +2024,15 @@
       <c r="I14" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
+      <c r="J14" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M14" s="37"/>
       <c r="N14" s="37"/>
       <c r="O14" s="37"/>
@@ -2007,7 +2069,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G15" s="35" t="s">
         <v>20</v>
@@ -2018,9 +2080,15 @@
       <c r="I15" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
+      <c r="J15" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M15" s="37"/>
       <c r="N15" s="37"/>
       <c r="O15" s="37"/>
@@ -2057,7 +2125,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>20</v>
@@ -2068,9 +2136,15 @@
       <c r="I16" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
+      <c r="J16" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M16" s="37"/>
       <c r="N16" s="37"/>
       <c r="O16" s="37"/>
@@ -2107,7 +2181,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>20</v>
@@ -2118,9 +2192,15 @@
       <c r="I17" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
+      <c r="J17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M17" s="37"/>
       <c r="N17" s="37"/>
       <c r="O17" s="37"/>
@@ -2157,7 +2237,7 @@
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>20</v>
@@ -2168,9 +2248,15 @@
       <c r="I18" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
+      <c r="J18" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M18" s="37"/>
       <c r="N18" s="37"/>
       <c r="O18" s="37"/>
@@ -2203,11 +2289,11 @@
       </c>
       <c r="E19" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G19" s="35" t="s">
         <v>21</v>
@@ -2218,9 +2304,15 @@
       <c r="I19" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
+      <c r="J19" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M19" s="37"/>
       <c r="N19" s="37"/>
       <c r="O19" s="37"/>
@@ -2253,11 +2345,11 @@
       </c>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>20</v>
@@ -2268,9 +2360,15 @@
       <c r="I20" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
+      <c r="J20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M20" s="37"/>
       <c r="N20" s="37"/>
       <c r="O20" s="37"/>
@@ -2303,11 +2401,11 @@
       </c>
       <c r="E21" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G21" s="35" t="s">
         <v>21</v>
@@ -2318,9 +2416,15 @@
       <c r="I21" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
+      <c r="J21" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M21" s="37"/>
       <c r="N21" s="37"/>
       <c r="O21" s="37"/>
@@ -2357,7 +2461,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>20</v>
@@ -2368,9 +2472,15 @@
       <c r="I22" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
+      <c r="J22" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M22" s="37"/>
       <c r="N22" s="37"/>
       <c r="O22" s="37"/>
@@ -2407,7 +2517,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G23" s="35" t="s">
         <v>20</v>
@@ -2418,9 +2528,15 @@
       <c r="I23" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
+      <c r="J23" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M23" s="37"/>
       <c r="N23" s="37"/>
       <c r="O23" s="37"/>
@@ -2457,7 +2573,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>20</v>
@@ -2468,9 +2584,15 @@
       <c r="I24" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
+      <c r="J24" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M24" s="37"/>
       <c r="N24" s="37"/>
       <c r="O24" s="37"/>
@@ -2507,7 +2629,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>21</v>
@@ -2518,9 +2640,15 @@
       <c r="I25" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
+      <c r="J25" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M25" s="37"/>
       <c r="N25" s="37"/>
       <c r="O25" s="37"/>
@@ -2557,7 +2685,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>20</v>
@@ -2568,9 +2696,15 @@
       <c r="I26" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
+      <c r="J26" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M26" s="37"/>
       <c r="N26" s="37"/>
       <c r="O26" s="37"/>
@@ -2607,7 +2741,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G27" s="35" t="s">
         <v>20</v>
@@ -2618,9 +2752,15 @@
       <c r="I27" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
+      <c r="J27" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M27" s="37"/>
       <c r="N27" s="37"/>
       <c r="O27" s="37"/>
@@ -2653,11 +2793,11 @@
       </c>
       <c r="E28" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>20</v>
@@ -2668,9 +2808,15 @@
       <c r="I28" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
+      <c r="J28" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M28" s="37"/>
       <c r="N28" s="37"/>
       <c r="O28" s="37"/>
@@ -2707,7 +2853,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G29" s="35" t="s">
         <v>20</v>
@@ -2718,9 +2864,15 @@
       <c r="I29" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
+      <c r="J29" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M29" s="37"/>
       <c r="N29" s="37"/>
       <c r="O29" s="37"/>
@@ -2757,7 +2909,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>21</v>
@@ -2768,9 +2920,15 @@
       <c r="I30" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
+      <c r="J30" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M30" s="37"/>
       <c r="N30" s="37"/>
       <c r="O30" s="37"/>
@@ -2807,7 +2965,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>20</v>
@@ -2818,9 +2976,15 @@
       <c r="I31" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
+      <c r="J31" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M31" s="37"/>
       <c r="N31" s="37"/>
       <c r="O31" s="37"/>
@@ -2857,7 +3021,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>21</v>
@@ -2868,9 +3032,15 @@
       <c r="I32" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
+      <c r="J32" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M32" s="37"/>
       <c r="N32" s="37"/>
       <c r="O32" s="37"/>
@@ -2903,11 +3073,11 @@
       </c>
       <c r="E33" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>20</v>
@@ -2918,9 +3088,15 @@
       <c r="I33" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
+      <c r="J33" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M33" s="37"/>
       <c r="N33" s="37"/>
       <c r="O33" s="37"/>
@@ -2957,7 +3133,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>20</v>
@@ -2968,9 +3144,15 @@
       <c r="I34" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
+      <c r="J34" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M34" s="37"/>
       <c r="N34" s="37"/>
       <c r="O34" s="37"/>
@@ -3003,11 +3185,11 @@
       </c>
       <c r="E35" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>20</v>
@@ -3018,9 +3200,15 @@
       <c r="I35" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
+      <c r="J35" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M35" s="37"/>
       <c r="N35" s="37"/>
       <c r="O35" s="37"/>
@@ -3057,7 +3245,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>20</v>
@@ -3068,9 +3256,15 @@
       <c r="I36" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
+      <c r="J36" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M36" s="37"/>
       <c r="N36" s="37"/>
       <c r="O36" s="37"/>
@@ -3107,7 +3301,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G37" s="35" t="s">
         <v>20</v>
@@ -3118,9 +3312,15 @@
       <c r="I37" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
+      <c r="J37" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M37" s="37"/>
       <c r="N37" s="37"/>
       <c r="O37" s="37"/>
@@ -3153,12 +3353,12 @@
       </c>
       <c r="E38" s="26">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F38" s="34">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F38" s="34">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
       <c r="G38" s="35" t="s">
         <v>21</v>
       </c>
@@ -3168,9 +3368,15 @@
       <c r="I38" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
+      <c r="J38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M38" s="37"/>
       <c r="N38" s="37"/>
       <c r="O38" s="37"/>
@@ -3203,11 +3409,11 @@
       </c>
       <c r="E39" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>20</v>
@@ -3218,9 +3424,15 @@
       <c r="I39" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
+      <c r="J39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M39" s="37"/>
       <c r="N39" s="37"/>
       <c r="O39" s="37"/>
@@ -3257,7 +3469,7 @@
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>20</v>
@@ -3268,9 +3480,15 @@
       <c r="I40" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
+      <c r="J40" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M40" s="37"/>
       <c r="N40" s="37"/>
       <c r="O40" s="37"/>
@@ -3307,7 +3525,7 @@
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G41" s="35" t="s">
         <v>20</v>
@@ -3318,9 +3536,15 @@
       <c r="I41" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
+      <c r="J41" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M41" s="37"/>
       <c r="N41" s="37"/>
       <c r="O41" s="37"/>
@@ -3357,7 +3581,7 @@
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G42" s="35" t="s">
         <v>20</v>
@@ -3368,9 +3592,15 @@
       <c r="I42" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
+      <c r="J42" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L42" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M42" s="37"/>
       <c r="N42" s="37"/>
       <c r="O42" s="37"/>
@@ -3407,7 +3637,7 @@
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>20</v>
@@ -3418,9 +3648,15 @@
       <c r="I43" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
+      <c r="J43" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M43" s="37"/>
       <c r="N43" s="37"/>
       <c r="O43" s="37"/>
@@ -3457,7 +3693,7 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G44" s="35" t="s">
         <v>20</v>
@@ -3468,9 +3704,15 @@
       <c r="I44" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
+      <c r="J44" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M44" s="37"/>
       <c r="N44" s="37"/>
       <c r="O44" s="37"/>
@@ -3507,7 +3749,7 @@
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G45" s="35" t="s">
         <v>20</v>
@@ -3518,9 +3760,15 @@
       <c r="I45" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
+      <c r="J45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M45" s="37"/>
       <c r="N45" s="37"/>
       <c r="O45" s="37"/>
@@ -3557,7 +3805,7 @@
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G46" s="35" t="s">
         <v>20</v>
@@ -3568,9 +3816,15 @@
       <c r="I46" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
+      <c r="J46" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M46" s="37"/>
       <c r="N46" s="37"/>
       <c r="O46" s="37"/>
@@ -3607,7 +3861,7 @@
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G47" s="35" t="s">
         <v>20</v>
@@ -3618,9 +3872,15 @@
       <c r="I47" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
+      <c r="J47" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L47" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M47" s="37"/>
       <c r="N47" s="37"/>
       <c r="O47" s="37"/>
@@ -3657,7 +3917,7 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G48" s="35" t="s">
         <v>20</v>
@@ -3668,9 +3928,15 @@
       <c r="I48" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
+      <c r="J48" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K48" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L48" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M48" s="37"/>
       <c r="N48" s="37"/>
       <c r="O48" s="37"/>
@@ -3703,11 +3969,11 @@
       </c>
       <c r="E49" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G49" s="35" t="s">
         <v>20</v>
@@ -3718,9 +3984,15 @@
       <c r="I49" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
+      <c r="J49" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K49" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M49" s="37"/>
       <c r="N49" s="37"/>
       <c r="O49" s="37"/>
@@ -3753,11 +4025,11 @@
       </c>
       <c r="E50" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G50" s="35" t="s">
         <v>20</v>
@@ -3768,9 +4040,15 @@
       <c r="I50" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
+      <c r="J50" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K50" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M50" s="37"/>
       <c r="N50" s="37"/>
       <c r="O50" s="37"/>
@@ -3803,11 +4081,11 @@
       </c>
       <c r="E51" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G51" s="35" t="s">
         <v>20</v>
@@ -3818,9 +4096,15 @@
       <c r="I51" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
+      <c r="J51" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L51" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M51" s="37"/>
       <c r="N51" s="37"/>
       <c r="O51" s="37"/>
@@ -3853,11 +4137,11 @@
       </c>
       <c r="E52" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G52" s="35" t="s">
         <v>20</v>
@@ -3868,9 +4152,15 @@
       <c r="I52" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
+      <c r="J52" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K52" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M52" s="37"/>
       <c r="N52" s="37"/>
       <c r="O52" s="37"/>
@@ -3907,7 +4197,7 @@
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G53" s="35" t="s">
         <v>20</v>
@@ -3918,9 +4208,15 @@
       <c r="I53" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
+      <c r="J53" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M53" s="37"/>
       <c r="N53" s="37"/>
       <c r="O53" s="37"/>
@@ -3953,11 +4249,11 @@
       </c>
       <c r="E54" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G54" s="35" t="s">
         <v>20</v>
@@ -3968,9 +4264,15 @@
       <c r="I54" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="37"/>
+      <c r="J54" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L54" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M54" s="37"/>
       <c r="N54" s="37"/>
       <c r="O54" s="37"/>
@@ -4003,11 +4305,11 @@
       </c>
       <c r="E55" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G55" s="35" t="s">
         <v>20</v>
@@ -4018,9 +4320,15 @@
       <c r="I55" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
+      <c r="J55" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L55" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M55" s="37"/>
       <c r="N55" s="37"/>
       <c r="O55" s="37"/>
@@ -4057,7 +4365,7 @@
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G56" s="35" t="s">
         <v>20</v>
@@ -4068,9 +4376,15 @@
       <c r="I56" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
+      <c r="J56" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K56" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L56" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M56" s="37"/>
       <c r="N56" s="37"/>
       <c r="O56" s="37"/>
@@ -4107,7 +4421,7 @@
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G57" s="35" t="s">
         <v>20</v>
@@ -4118,9 +4432,15 @@
       <c r="I57" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
+      <c r="J57" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K57" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L57" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M57" s="37"/>
       <c r="N57" s="37"/>
       <c r="O57" s="37"/>
@@ -4157,7 +4477,7 @@
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>20</v>
@@ -4168,9 +4488,15 @@
       <c r="I58" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="37"/>
+      <c r="J58" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K58" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L58" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M58" s="37"/>
       <c r="N58" s="37"/>
       <c r="O58" s="37"/>
@@ -4207,7 +4533,7 @@
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G59" s="35" t="s">
         <v>21</v>
@@ -4218,9 +4544,15 @@
       <c r="I59" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J59" s="37"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="37"/>
+      <c r="J59" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K59" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L59" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M59" s="37"/>
       <c r="N59" s="37"/>
       <c r="O59" s="37"/>
@@ -4253,11 +4585,11 @@
       </c>
       <c r="E60" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G60" s="35" t="s">
         <v>20</v>
@@ -4268,9 +4600,15 @@
       <c r="I60" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
+      <c r="J60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K60" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L60" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M60" s="37"/>
       <c r="N60" s="37"/>
       <c r="O60" s="37"/>
@@ -4307,7 +4645,7 @@
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G61" s="35" t="s">
         <v>20</v>
@@ -4318,9 +4656,15 @@
       <c r="I61" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
+      <c r="J61" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K61" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L61" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M61" s="37"/>
       <c r="N61" s="37"/>
       <c r="O61" s="37"/>
@@ -4357,7 +4701,7 @@
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G62" s="35" t="s">
         <v>20</v>
@@ -4368,9 +4712,15 @@
       <c r="I62" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
-      <c r="L62" s="37"/>
+      <c r="J62" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K62" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L62" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M62" s="37"/>
       <c r="N62" s="37"/>
       <c r="O62" s="37"/>
@@ -4407,7 +4757,7 @@
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G63" s="35" t="s">
         <v>20</v>
@@ -4418,9 +4768,15 @@
       <c r="I63" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J63" s="37"/>
-      <c r="K63" s="37"/>
-      <c r="L63" s="37"/>
+      <c r="J63" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K63" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L63" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M63" s="37"/>
       <c r="N63" s="37"/>
       <c r="O63" s="37"/>
@@ -4457,7 +4813,7 @@
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G64" s="35" t="s">
         <v>21</v>
@@ -4468,9 +4824,15 @@
       <c r="I64" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J64" s="37"/>
-      <c r="K64" s="37"/>
-      <c r="L64" s="37"/>
+      <c r="J64" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K64" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L64" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M64" s="37"/>
       <c r="N64" s="37"/>
       <c r="O64" s="37"/>
@@ -4507,7 +4869,7 @@
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G65" s="35" t="s">
         <v>20</v>
@@ -4518,9 +4880,15 @@
       <c r="I65" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J65" s="37"/>
-      <c r="K65" s="37"/>
-      <c r="L65" s="37"/>
+      <c r="J65" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K65" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L65" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M65" s="37"/>
       <c r="N65" s="37"/>
       <c r="O65" s="37"/>
@@ -4557,7 +4925,7 @@
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G66" s="35" t="s">
         <v>20</v>
@@ -4568,9 +4936,15 @@
       <c r="I66" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J66" s="37"/>
-      <c r="K66" s="37"/>
-      <c r="L66" s="37"/>
+      <c r="J66" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K66" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L66" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M66" s="37"/>
       <c r="N66" s="37"/>
       <c r="O66" s="37"/>
@@ -4607,7 +4981,7 @@
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G67" s="35" t="s">
         <v>20</v>
@@ -4618,9 +4992,15 @@
       <c r="I67" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J67" s="37"/>
-      <c r="K67" s="37"/>
-      <c r="L67" s="37"/>
+      <c r="J67" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K67" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L67" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M67" s="37"/>
       <c r="N67" s="37"/>
       <c r="O67" s="37"/>
@@ -4657,7 +5037,7 @@
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G68" s="35" t="s">
         <v>20</v>
@@ -4668,9 +5048,15 @@
       <c r="I68" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
-      <c r="L68" s="37"/>
+      <c r="J68" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K68" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L68" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M68" s="37"/>
       <c r="N68" s="37"/>
       <c r="O68" s="37"/>
@@ -4703,12 +5089,12 @@
       </c>
       <c r="E69" s="26">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F69" s="34">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F69" s="34">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
       <c r="G69" s="35" t="s">
         <v>20</v>
       </c>
@@ -4718,9 +5104,15 @@
       <c r="I69" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J69" s="37"/>
-      <c r="K69" s="37"/>
-      <c r="L69" s="37"/>
+      <c r="J69" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K69" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M69" s="37"/>
       <c r="N69" s="37"/>
       <c r="O69" s="37"/>
@@ -4753,11 +5145,11 @@
       </c>
       <c r="E70" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G70" s="35" t="s">
         <v>20</v>
@@ -4768,9 +5160,15 @@
       <c r="I70" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J70" s="37"/>
-      <c r="K70" s="37"/>
-      <c r="L70" s="37"/>
+      <c r="J70" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K70" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M70" s="37"/>
       <c r="N70" s="37"/>
       <c r="O70" s="37"/>
@@ -4807,7 +5205,7 @@
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G71" s="35" t="s">
         <v>20</v>
@@ -4818,9 +5216,15 @@
       <c r="I71" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J71" s="37"/>
-      <c r="K71" s="37"/>
-      <c r="L71" s="37"/>
+      <c r="J71" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K71" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L71" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M71" s="37"/>
       <c r="N71" s="37"/>
       <c r="O71" s="37"/>
@@ -4853,11 +5257,11 @@
       </c>
       <c r="E72" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G72" s="35" t="s">
         <v>20</v>
@@ -4868,9 +5272,15 @@
       <c r="I72" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J72" s="37"/>
-      <c r="K72" s="37"/>
-      <c r="L72" s="37"/>
+      <c r="J72" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K72" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L72" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M72" s="37"/>
       <c r="N72" s="37"/>
       <c r="O72" s="37"/>
@@ -4903,12 +5313,12 @@
       </c>
       <c r="E73" s="26">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F73" s="34">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F73" s="34">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
       <c r="G73" s="35" t="s">
         <v>20</v>
       </c>
@@ -4918,9 +5328,15 @@
       <c r="I73" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J73" s="37"/>
-      <c r="K73" s="37"/>
-      <c r="L73" s="37"/>
+      <c r="J73" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K73" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L73" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="M73" s="37"/>
       <c r="N73" s="37"/>
       <c r="O73" s="37"/>
@@ -4957,7 +5373,7 @@
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G74" s="35" t="s">
         <v>20</v>
@@ -4968,9 +5384,15 @@
       <c r="I74" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J74" s="37"/>
-      <c r="K74" s="37"/>
-      <c r="L74" s="37"/>
+      <c r="J74" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K74" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L74" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M74" s="37"/>
       <c r="N74" s="37"/>
       <c r="O74" s="37"/>
@@ -5007,7 +5429,7 @@
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G75" s="35" t="s">
         <v>20</v>
@@ -5018,9 +5440,15 @@
       <c r="I75" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J75" s="37"/>
-      <c r="K75" s="37"/>
-      <c r="L75" s="37"/>
+      <c r="J75" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K75" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L75" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="M75" s="37"/>
       <c r="N75" s="37"/>
       <c r="O75" s="37"/>
@@ -5043,7 +5471,7 @@
         <v/>
       </c>
       <c r="B76" s="32"/>
-      <c r="C76" s="38"/>
+      <c r="C76" s="39"/>
       <c r="D76" s="25"/>
       <c r="E76" s="26" t="str">
         <f t="shared" si="1"/>
@@ -5053,7 +5481,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G76" s="39"/>
+      <c r="G76" s="40"/>
       <c r="H76" s="36"/>
       <c r="I76" s="36"/>
       <c r="J76" s="37"/>
@@ -5081,7 +5509,7 @@
         <v/>
       </c>
       <c r="B77" s="32"/>
-      <c r="C77" s="38"/>
+      <c r="C77" s="39"/>
       <c r="D77" s="25"/>
       <c r="E77" s="26" t="str">
         <f t="shared" si="1"/>
@@ -5091,7 +5519,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G77" s="39"/>
+      <c r="G77" s="40"/>
       <c r="H77" s="36"/>
       <c r="I77" s="36"/>
       <c r="J77" s="37"/>
@@ -5121,7 +5549,7 @@
       <c r="B78" s="32"/>
       <c r="C78" s="33"/>
       <c r="D78" s="25"/>
-      <c r="E78" s="40" t="str">
+      <c r="E78" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5129,7 +5557,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G78" s="39"/>
+      <c r="G78" s="40"/>
       <c r="H78" s="37"/>
       <c r="I78" s="37"/>
       <c r="J78" s="37"/>
@@ -5158,8 +5586,8 @@
       </c>
       <c r="B79" s="32"/>
       <c r="C79" s="33"/>
-      <c r="D79" s="41"/>
-      <c r="E79" s="40" t="str">
+      <c r="D79" s="42"/>
+      <c r="E79" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5167,7 +5595,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G79" s="39"/>
+      <c r="G79" s="40"/>
       <c r="H79" s="37"/>
       <c r="I79" s="37"/>
       <c r="J79" s="37"/>
@@ -5196,8 +5624,8 @@
       </c>
       <c r="B80" s="32"/>
       <c r="C80" s="33"/>
-      <c r="D80" s="41"/>
-      <c r="E80" s="40" t="str">
+      <c r="D80" s="42"/>
+      <c r="E80" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5205,7 +5633,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G80" s="39"/>
+      <c r="G80" s="40"/>
       <c r="H80" s="37"/>
       <c r="I80" s="37"/>
       <c r="J80" s="37"/>
@@ -5234,8 +5662,8 @@
       </c>
       <c r="B81" s="32"/>
       <c r="C81" s="33"/>
-      <c r="D81" s="41"/>
-      <c r="E81" s="40" t="str">
+      <c r="D81" s="42"/>
+      <c r="E81" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5243,7 +5671,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G81" s="39"/>
+      <c r="G81" s="40"/>
       <c r="H81" s="37"/>
       <c r="I81" s="37"/>
       <c r="J81" s="37"/>
@@ -5272,8 +5700,8 @@
       </c>
       <c r="B82" s="32"/>
       <c r="C82" s="33"/>
-      <c r="D82" s="41"/>
-      <c r="E82" s="40" t="str">
+      <c r="D82" s="42"/>
+      <c r="E82" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5281,7 +5709,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G82" s="39"/>
+      <c r="G82" s="40"/>
       <c r="H82" s="37"/>
       <c r="I82" s="37"/>
       <c r="J82" s="37"/>
@@ -5310,8 +5738,8 @@
       </c>
       <c r="B83" s="32"/>
       <c r="C83" s="33"/>
-      <c r="D83" s="41"/>
-      <c r="E83" s="40" t="str">
+      <c r="D83" s="42"/>
+      <c r="E83" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5319,7 +5747,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G83" s="39"/>
+      <c r="G83" s="40"/>
       <c r="H83" s="37"/>
       <c r="I83" s="37"/>
       <c r="J83" s="37"/>
@@ -5348,8 +5776,8 @@
       </c>
       <c r="B84" s="32"/>
       <c r="C84" s="33"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="40" t="str">
+      <c r="D84" s="42"/>
+      <c r="E84" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5357,7 +5785,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G84" s="39"/>
+      <c r="G84" s="40"/>
       <c r="H84" s="37"/>
       <c r="I84" s="37"/>
       <c r="J84" s="37"/>
@@ -5386,8 +5814,8 @@
       </c>
       <c r="B85" s="32"/>
       <c r="C85" s="33"/>
-      <c r="D85" s="41"/>
-      <c r="E85" s="40" t="str">
+      <c r="D85" s="42"/>
+      <c r="E85" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5395,7 +5823,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G85" s="39"/>
+      <c r="G85" s="40"/>
       <c r="H85" s="37"/>
       <c r="I85" s="37"/>
       <c r="J85" s="37"/>
@@ -5424,8 +5852,8 @@
       </c>
       <c r="B86" s="32"/>
       <c r="C86" s="33"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="40" t="str">
+      <c r="D86" s="42"/>
+      <c r="E86" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5433,7 +5861,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G86" s="39"/>
+      <c r="G86" s="40"/>
       <c r="H86" s="37"/>
       <c r="I86" s="37"/>
       <c r="J86" s="37"/>
@@ -5460,10 +5888,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B87" s="42"/>
-      <c r="C87" s="42"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="40" t="str">
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5471,7 +5899,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G87" s="39"/>
+      <c r="G87" s="40"/>
       <c r="H87" s="37"/>
       <c r="I87" s="37"/>
       <c r="J87" s="37"/>
@@ -5498,10 +5926,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B88" s="42"/>
-      <c r="C88" s="42"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="40" t="str">
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5509,7 +5937,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G88" s="39"/>
+      <c r="G88" s="40"/>
       <c r="H88" s="37"/>
       <c r="I88" s="37"/>
       <c r="J88" s="37"/>
@@ -5536,10 +5964,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B89" s="42"/>
-      <c r="C89" s="42"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="40" t="str">
+      <c r="B89" s="43"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5547,7 +5975,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G89" s="39"/>
+      <c r="G89" s="40"/>
       <c r="H89" s="37"/>
       <c r="I89" s="37"/>
       <c r="J89" s="37"/>
@@ -5574,10 +6002,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B90" s="42"/>
-      <c r="C90" s="42"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="40" t="str">
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="41"/>
+      <c r="E90" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5585,7 +6013,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G90" s="39"/>
+      <c r="G90" s="40"/>
       <c r="H90" s="37"/>
       <c r="I90" s="37"/>
       <c r="J90" s="37"/>
@@ -5612,10 +6040,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B91" s="42"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="40"/>
-      <c r="E91" s="40" t="str">
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5623,7 +6051,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G91" s="39"/>
+      <c r="G91" s="40"/>
       <c r="H91" s="37"/>
       <c r="I91" s="37"/>
       <c r="J91" s="37"/>
@@ -5650,10 +6078,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B92" s="42"/>
-      <c r="C92" s="42"/>
-      <c r="D92" s="40"/>
-      <c r="E92" s="40" t="str">
+      <c r="B92" s="43"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5661,7 +6089,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G92" s="39"/>
+      <c r="G92" s="40"/>
       <c r="H92" s="37"/>
       <c r="I92" s="37"/>
       <c r="J92" s="37"/>
@@ -5688,10 +6116,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B93" s="42"/>
-      <c r="C93" s="42"/>
-      <c r="D93" s="40"/>
-      <c r="E93" s="40" t="str">
+      <c r="B93" s="43"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5699,7 +6127,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G93" s="39"/>
+      <c r="G93" s="40"/>
       <c r="H93" s="37"/>
       <c r="I93" s="37"/>
       <c r="J93" s="37"/>
@@ -5726,10 +6154,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B94" s="42"/>
-      <c r="C94" s="42"/>
-      <c r="D94" s="40"/>
-      <c r="E94" s="40" t="str">
+      <c r="B94" s="43"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5737,7 +6165,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G94" s="39"/>
+      <c r="G94" s="40"/>
       <c r="H94" s="37"/>
       <c r="I94" s="37"/>
       <c r="J94" s="37"/>
@@ -5764,10 +6192,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B95" s="42"/>
-      <c r="C95" s="42"/>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40" t="str">
+      <c r="B95" s="43"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="41"/>
+      <c r="E95" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5775,7 +6203,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G95" s="39"/>
+      <c r="G95" s="40"/>
       <c r="H95" s="37"/>
       <c r="I95" s="37"/>
       <c r="J95" s="37"/>
@@ -6712,6 +7140,11 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="D5:E5"/>
   </mergeCells>
+  <conditionalFormatting sqref="G1:Z1000">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/attendance-files/MR/MR-B (EFGH) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-B (EFGH) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="158">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1617,11 +1617,11 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1641,10 +1641,18 @@
       <c r="L7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
+      <c r="M7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="Q7" s="30"/>
       <c r="R7" s="30"/>
       <c r="S7" s="30"/>
@@ -1673,11 +1681,11 @@
       </c>
       <c r="E8" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>20</v>
@@ -1697,10 +1705,18 @@
       <c r="L8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
+      <c r="M8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q8" s="37"/>
       <c r="R8" s="37"/>
       <c r="S8" s="37"/>
@@ -1729,11 +1745,11 @@
       </c>
       <c r="E9" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>20</v>
@@ -1753,10 +1769,18 @@
       <c r="L9" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
+      <c r="M9" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q9" s="37"/>
       <c r="R9" s="37"/>
       <c r="S9" s="37"/>
@@ -1785,11 +1809,11 @@
       </c>
       <c r="E10" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>21</v>
@@ -1809,10 +1833,18 @@
       <c r="L10" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
+      <c r="M10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q10" s="37"/>
       <c r="R10" s="37"/>
       <c r="S10" s="37"/>
@@ -1841,11 +1873,11 @@
       </c>
       <c r="E11" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>21</v>
@@ -1865,10 +1897,18 @@
       <c r="L11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
+      <c r="M11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q11" s="37"/>
       <c r="R11" s="37"/>
       <c r="S11" s="37"/>
@@ -1901,7 +1941,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>20</v>
@@ -1921,10 +1961,18 @@
       <c r="L12" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
+      <c r="M12" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q12" s="37"/>
       <c r="R12" s="37"/>
       <c r="S12" s="37"/>
@@ -1957,7 +2005,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>20</v>
@@ -1977,10 +2025,18 @@
       <c r="L13" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
+      <c r="M13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q13" s="37"/>
       <c r="R13" s="37"/>
       <c r="S13" s="37"/>
@@ -2013,7 +2069,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>21</v>
@@ -2033,10 +2089,18 @@
       <c r="L14" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
+      <c r="M14" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q14" s="37"/>
       <c r="R14" s="37"/>
       <c r="S14" s="37"/>
@@ -2069,7 +2133,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G15" s="35" t="s">
         <v>20</v>
@@ -2089,10 +2153,18 @@
       <c r="L15" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
+      <c r="M15" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q15" s="37"/>
       <c r="R15" s="37"/>
       <c r="S15" s="37"/>
@@ -2125,7 +2197,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>20</v>
@@ -2145,10 +2217,18 @@
       <c r="L16" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
+      <c r="M16" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q16" s="37"/>
       <c r="R16" s="37"/>
       <c r="S16" s="37"/>
@@ -2181,7 +2261,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>20</v>
@@ -2201,10 +2281,18 @@
       <c r="L17" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
+      <c r="M17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q17" s="37"/>
       <c r="R17" s="37"/>
       <c r="S17" s="37"/>
@@ -2233,11 +2321,11 @@
       </c>
       <c r="E18" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>20</v>
@@ -2257,10 +2345,18 @@
       <c r="L18" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
+      <c r="M18" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q18" s="37"/>
       <c r="R18" s="37"/>
       <c r="S18" s="37"/>
@@ -2289,11 +2385,11 @@
       </c>
       <c r="E19" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G19" s="35" t="s">
         <v>21</v>
@@ -2313,10 +2409,18 @@
       <c r="L19" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
+      <c r="M19" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P19" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q19" s="37"/>
       <c r="R19" s="37"/>
       <c r="S19" s="37"/>
@@ -2349,7 +2453,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>20</v>
@@ -2369,10 +2473,18 @@
       <c r="L20" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
+      <c r="M20" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P20" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q20" s="37"/>
       <c r="R20" s="37"/>
       <c r="S20" s="37"/>
@@ -2401,11 +2513,11 @@
       </c>
       <c r="E21" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G21" s="35" t="s">
         <v>21</v>
@@ -2425,10 +2537,18 @@
       <c r="L21" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
+      <c r="M21" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q21" s="37"/>
       <c r="R21" s="37"/>
       <c r="S21" s="37"/>
@@ -2457,11 +2577,11 @@
       </c>
       <c r="E22" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>20</v>
@@ -2481,10 +2601,18 @@
       <c r="L22" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
+      <c r="M22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P22" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q22" s="37"/>
       <c r="R22" s="37"/>
       <c r="S22" s="37"/>
@@ -2517,7 +2645,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G23" s="35" t="s">
         <v>20</v>
@@ -2537,10 +2665,18 @@
       <c r="L23" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
+      <c r="M23" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q23" s="37"/>
       <c r="R23" s="37"/>
       <c r="S23" s="37"/>
@@ -2569,11 +2705,11 @@
       </c>
       <c r="E24" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>20</v>
@@ -2593,10 +2729,18 @@
       <c r="L24" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
+      <c r="M24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q24" s="37"/>
       <c r="R24" s="37"/>
       <c r="S24" s="37"/>
@@ -2625,11 +2769,11 @@
       </c>
       <c r="E25" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>21</v>
@@ -2649,10 +2793,18 @@
       <c r="L25" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
+      <c r="M25" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q25" s="37"/>
       <c r="R25" s="37"/>
       <c r="S25" s="37"/>
@@ -2685,7 +2837,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>20</v>
@@ -2705,10 +2857,18 @@
       <c r="L26" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
+      <c r="M26" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q26" s="37"/>
       <c r="R26" s="37"/>
       <c r="S26" s="37"/>
@@ -2741,7 +2901,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G27" s="35" t="s">
         <v>20</v>
@@ -2761,10 +2921,18 @@
       <c r="L27" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
+      <c r="M27" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q27" s="37"/>
       <c r="R27" s="37"/>
       <c r="S27" s="37"/>
@@ -2793,11 +2961,11 @@
       </c>
       <c r="E28" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>20</v>
@@ -2817,10 +2985,18 @@
       <c r="L28" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
+      <c r="M28" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O28" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P28" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q28" s="37"/>
       <c r="R28" s="37"/>
       <c r="S28" s="37"/>
@@ -2853,7 +3029,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G29" s="35" t="s">
         <v>20</v>
@@ -2873,10 +3049,18 @@
       <c r="L29" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
+      <c r="M29" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P29" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q29" s="37"/>
       <c r="R29" s="37"/>
       <c r="S29" s="37"/>
@@ -2909,7 +3093,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>21</v>
@@ -2929,10 +3113,18 @@
       <c r="L30" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
+      <c r="M30" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P30" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q30" s="37"/>
       <c r="R30" s="37"/>
       <c r="S30" s="37"/>
@@ -2961,11 +3153,11 @@
       </c>
       <c r="E31" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>20</v>
@@ -2985,10 +3177,18 @@
       <c r="L31" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
+      <c r="M31" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P31" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q31" s="37"/>
       <c r="R31" s="37"/>
       <c r="S31" s="37"/>
@@ -3017,11 +3217,11 @@
       </c>
       <c r="E32" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>21</v>
@@ -3041,10 +3241,18 @@
       <c r="L32" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
+      <c r="M32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O32" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P32" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q32" s="37"/>
       <c r="R32" s="37"/>
       <c r="S32" s="37"/>
@@ -3077,7 +3285,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>20</v>
@@ -3097,10 +3305,18 @@
       <c r="L33" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
+      <c r="M33" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O33" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P33" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q33" s="37"/>
       <c r="R33" s="37"/>
       <c r="S33" s="37"/>
@@ -3129,11 +3345,11 @@
       </c>
       <c r="E34" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>20</v>
@@ -3153,10 +3369,18 @@
       <c r="L34" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
+      <c r="M34" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P34" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q34" s="37"/>
       <c r="R34" s="37"/>
       <c r="S34" s="37"/>
@@ -3189,7 +3413,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>20</v>
@@ -3209,10 +3433,18 @@
       <c r="L35" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
+      <c r="M35" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O35" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P35" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q35" s="37"/>
       <c r="R35" s="37"/>
       <c r="S35" s="37"/>
@@ -3245,7 +3477,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>20</v>
@@ -3265,10 +3497,18 @@
       <c r="L36" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
+      <c r="M36" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O36" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P36" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q36" s="37"/>
       <c r="R36" s="37"/>
       <c r="S36" s="37"/>
@@ -3301,7 +3541,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G37" s="35" t="s">
         <v>20</v>
@@ -3321,10 +3561,18 @@
       <c r="L37" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
+      <c r="M37" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N37" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O37" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P37" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q37" s="37"/>
       <c r="R37" s="37"/>
       <c r="S37" s="37"/>
@@ -3357,7 +3605,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>21</v>
@@ -3377,10 +3625,18 @@
       <c r="L38" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
+      <c r="M38" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N38" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O38" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P38" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q38" s="37"/>
       <c r="R38" s="37"/>
       <c r="S38" s="37"/>
@@ -3413,7 +3669,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>20</v>
@@ -3433,10 +3689,18 @@
       <c r="L39" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
+      <c r="M39" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N39" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O39" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P39" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q39" s="37"/>
       <c r="R39" s="37"/>
       <c r="S39" s="37"/>
@@ -3469,7 +3733,7 @@
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>20</v>
@@ -3489,10 +3753,18 @@
       <c r="L40" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
+      <c r="M40" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N40" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O40" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P40" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q40" s="37"/>
       <c r="R40" s="37"/>
       <c r="S40" s="37"/>
@@ -3525,7 +3797,7 @@
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G41" s="35" t="s">
         <v>20</v>
@@ -3545,10 +3817,18 @@
       <c r="L41" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
+      <c r="M41" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N41" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O41" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P41" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q41" s="37"/>
       <c r="R41" s="37"/>
       <c r="S41" s="37"/>
@@ -3581,7 +3861,7 @@
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G42" s="35" t="s">
         <v>20</v>
@@ -3601,10 +3881,18 @@
       <c r="L42" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
+      <c r="M42" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N42" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O42" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P42" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q42" s="37"/>
       <c r="R42" s="37"/>
       <c r="S42" s="37"/>
@@ -3637,7 +3925,7 @@
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>20</v>
@@ -3657,10 +3945,18 @@
       <c r="L43" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
+      <c r="M43" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N43" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O43" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P43" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q43" s="37"/>
       <c r="R43" s="37"/>
       <c r="S43" s="37"/>
@@ -3689,11 +3985,11 @@
       </c>
       <c r="E44" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G44" s="35" t="s">
         <v>20</v>
@@ -3713,10 +4009,18 @@
       <c r="L44" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
+      <c r="M44" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P44" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q44" s="37"/>
       <c r="R44" s="37"/>
       <c r="S44" s="37"/>
@@ -3749,7 +4053,7 @@
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G45" s="35" t="s">
         <v>20</v>
@@ -3769,10 +4073,18 @@
       <c r="L45" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M45" s="37"/>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
+      <c r="M45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P45" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q45" s="37"/>
       <c r="R45" s="37"/>
       <c r="S45" s="37"/>
@@ -3801,11 +4113,11 @@
       </c>
       <c r="E46" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G46" s="35" t="s">
         <v>20</v>
@@ -3825,10 +4137,18 @@
       <c r="L46" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
+      <c r="M46" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O46" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P46" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q46" s="37"/>
       <c r="R46" s="37"/>
       <c r="S46" s="37"/>
@@ -3861,7 +4181,7 @@
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G47" s="35" t="s">
         <v>20</v>
@@ -3881,10 +4201,18 @@
       <c r="L47" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="37"/>
-      <c r="P47" s="37"/>
+      <c r="M47" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N47" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O47" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P47" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q47" s="37"/>
       <c r="R47" s="37"/>
       <c r="S47" s="37"/>
@@ -3917,7 +4245,7 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G48" s="35" t="s">
         <v>20</v>
@@ -3937,10 +4265,18 @@
       <c r="L48" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="37"/>
-      <c r="P48" s="37"/>
+      <c r="M48" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N48" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O48" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P48" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q48" s="37"/>
       <c r="R48" s="37"/>
       <c r="S48" s="37"/>
@@ -3973,7 +4309,7 @@
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G49" s="35" t="s">
         <v>20</v>
@@ -3993,10 +4329,18 @@
       <c r="L49" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M49" s="37"/>
-      <c r="N49" s="37"/>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
+      <c r="M49" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N49" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O49" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P49" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q49" s="37"/>
       <c r="R49" s="37"/>
       <c r="S49" s="37"/>
@@ -4029,7 +4373,7 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G50" s="35" t="s">
         <v>20</v>
@@ -4049,10 +4393,18 @@
       <c r="L50" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="37"/>
+      <c r="M50" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N50" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O50" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P50" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q50" s="37"/>
       <c r="R50" s="37"/>
       <c r="S50" s="37"/>
@@ -4085,7 +4437,7 @@
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G51" s="35" t="s">
         <v>20</v>
@@ -4105,10 +4457,18 @@
       <c r="L51" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M51" s="37"/>
-      <c r="N51" s="37"/>
-      <c r="O51" s="37"/>
-      <c r="P51" s="37"/>
+      <c r="M51" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N51" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O51" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P51" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q51" s="37"/>
       <c r="R51" s="37"/>
       <c r="S51" s="37"/>
@@ -4137,11 +4497,11 @@
       </c>
       <c r="E52" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G52" s="35" t="s">
         <v>20</v>
@@ -4161,10 +4521,18 @@
       <c r="L52" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
+      <c r="M52" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N52" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O52" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P52" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q52" s="37"/>
       <c r="R52" s="37"/>
       <c r="S52" s="37"/>
@@ -4193,11 +4561,11 @@
       </c>
       <c r="E53" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G53" s="35" t="s">
         <v>20</v>
@@ -4217,10 +4585,18 @@
       <c r="L53" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M53" s="37"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
+      <c r="M53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N53" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O53" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P53" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q53" s="37"/>
       <c r="R53" s="37"/>
       <c r="S53" s="37"/>
@@ -4253,7 +4629,7 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G54" s="35" t="s">
         <v>20</v>
@@ -4273,10 +4649,18 @@
       <c r="L54" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M54" s="37"/>
-      <c r="N54" s="37"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="37"/>
+      <c r="M54" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N54" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O54" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P54" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q54" s="37"/>
       <c r="R54" s="37"/>
       <c r="S54" s="37"/>
@@ -4309,7 +4693,7 @@
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G55" s="35" t="s">
         <v>20</v>
@@ -4329,10 +4713,18 @@
       <c r="L55" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M55" s="37"/>
-      <c r="N55" s="37"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="37"/>
+      <c r="M55" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N55" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O55" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P55" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q55" s="37"/>
       <c r="R55" s="37"/>
       <c r="S55" s="37"/>
@@ -4365,7 +4757,7 @@
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G56" s="35" t="s">
         <v>20</v>
@@ -4385,10 +4777,18 @@
       <c r="L56" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M56" s="37"/>
-      <c r="N56" s="37"/>
-      <c r="O56" s="37"/>
-      <c r="P56" s="37"/>
+      <c r="M56" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N56" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O56" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P56" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q56" s="37"/>
       <c r="R56" s="37"/>
       <c r="S56" s="37"/>
@@ -4421,7 +4821,7 @@
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G57" s="35" t="s">
         <v>20</v>
@@ -4441,10 +4841,18 @@
       <c r="L57" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M57" s="37"/>
-      <c r="N57" s="37"/>
-      <c r="O57" s="37"/>
-      <c r="P57" s="37"/>
+      <c r="M57" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N57" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O57" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P57" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q57" s="37"/>
       <c r="R57" s="37"/>
       <c r="S57" s="37"/>
@@ -4473,11 +4881,11 @@
       </c>
       <c r="E58" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>20</v>
@@ -4497,10 +4905,18 @@
       <c r="L58" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M58" s="37"/>
-      <c r="N58" s="37"/>
-      <c r="O58" s="37"/>
-      <c r="P58" s="37"/>
+      <c r="M58" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N58" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O58" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P58" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q58" s="37"/>
       <c r="R58" s="37"/>
       <c r="S58" s="37"/>
@@ -4533,7 +4949,7 @@
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G59" s="35" t="s">
         <v>21</v>
@@ -4553,10 +4969,18 @@
       <c r="L59" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M59" s="37"/>
-      <c r="N59" s="37"/>
-      <c r="O59" s="37"/>
-      <c r="P59" s="37"/>
+      <c r="M59" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N59" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O59" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P59" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q59" s="37"/>
       <c r="R59" s="37"/>
       <c r="S59" s="37"/>
@@ -4585,11 +5009,11 @@
       </c>
       <c r="E60" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G60" s="35" t="s">
         <v>20</v>
@@ -4609,10 +5033,18 @@
       <c r="L60" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M60" s="37"/>
-      <c r="N60" s="37"/>
-      <c r="O60" s="37"/>
-      <c r="P60" s="37"/>
+      <c r="M60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N60" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P60" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q60" s="37"/>
       <c r="R60" s="37"/>
       <c r="S60" s="37"/>
@@ -4641,11 +5073,11 @@
       </c>
       <c r="E61" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G61" s="35" t="s">
         <v>20</v>
@@ -4665,10 +5097,18 @@
       <c r="L61" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M61" s="37"/>
-      <c r="N61" s="37"/>
-      <c r="O61" s="37"/>
-      <c r="P61" s="37"/>
+      <c r="M61" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N61" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O61" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P61" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q61" s="37"/>
       <c r="R61" s="37"/>
       <c r="S61" s="37"/>
@@ -4697,11 +5137,11 @@
       </c>
       <c r="E62" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G62" s="35" t="s">
         <v>20</v>
@@ -4721,10 +5161,18 @@
       <c r="L62" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="37"/>
+      <c r="M62" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N62" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O62" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P62" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q62" s="37"/>
       <c r="R62" s="37"/>
       <c r="S62" s="37"/>
@@ -4757,7 +5205,7 @@
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G63" s="35" t="s">
         <v>20</v>
@@ -4777,10 +5225,18 @@
       <c r="L63" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M63" s="37"/>
-      <c r="N63" s="37"/>
-      <c r="O63" s="37"/>
-      <c r="P63" s="37"/>
+      <c r="M63" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N63" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O63" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P63" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q63" s="37"/>
       <c r="R63" s="37"/>
       <c r="S63" s="37"/>
@@ -4809,11 +5265,11 @@
       </c>
       <c r="E64" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G64" s="35" t="s">
         <v>21</v>
@@ -4833,10 +5289,18 @@
       <c r="L64" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M64" s="37"/>
-      <c r="N64" s="37"/>
-      <c r="O64" s="37"/>
-      <c r="P64" s="37"/>
+      <c r="M64" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N64" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O64" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P64" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q64" s="37"/>
       <c r="R64" s="37"/>
       <c r="S64" s="37"/>
@@ -4865,11 +5329,11 @@
       </c>
       <c r="E65" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G65" s="35" t="s">
         <v>20</v>
@@ -4889,10 +5353,18 @@
       <c r="L65" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M65" s="37"/>
-      <c r="N65" s="37"/>
-      <c r="O65" s="37"/>
-      <c r="P65" s="37"/>
+      <c r="M65" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N65" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O65" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P65" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q65" s="37"/>
       <c r="R65" s="37"/>
       <c r="S65" s="37"/>
@@ -4925,7 +5397,7 @@
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G66" s="35" t="s">
         <v>20</v>
@@ -4945,10 +5417,18 @@
       <c r="L66" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M66" s="37"/>
-      <c r="N66" s="37"/>
-      <c r="O66" s="37"/>
-      <c r="P66" s="37"/>
+      <c r="M66" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N66" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O66" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P66" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q66" s="37"/>
       <c r="R66" s="37"/>
       <c r="S66" s="37"/>
@@ -4981,7 +5461,7 @@
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G67" s="35" t="s">
         <v>20</v>
@@ -5001,10 +5481,18 @@
       <c r="L67" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M67" s="37"/>
-      <c r="N67" s="37"/>
-      <c r="O67" s="37"/>
-      <c r="P67" s="37"/>
+      <c r="M67" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N67" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O67" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P67" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q67" s="37"/>
       <c r="R67" s="37"/>
       <c r="S67" s="37"/>
@@ -5033,11 +5521,11 @@
       </c>
       <c r="E68" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G68" s="35" t="s">
         <v>20</v>
@@ -5057,10 +5545,18 @@
       <c r="L68" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M68" s="37"/>
-      <c r="N68" s="37"/>
-      <c r="O68" s="37"/>
-      <c r="P68" s="37"/>
+      <c r="M68" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N68" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O68" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P68" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q68" s="37"/>
       <c r="R68" s="37"/>
       <c r="S68" s="37"/>
@@ -5093,7 +5589,7 @@
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G69" s="35" t="s">
         <v>20</v>
@@ -5113,10 +5609,18 @@
       <c r="L69" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M69" s="37"/>
-      <c r="N69" s="37"/>
-      <c r="O69" s="37"/>
-      <c r="P69" s="37"/>
+      <c r="M69" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N69" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O69" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P69" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q69" s="37"/>
       <c r="R69" s="37"/>
       <c r="S69" s="37"/>
@@ -5145,11 +5649,11 @@
       </c>
       <c r="E70" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G70" s="35" t="s">
         <v>20</v>
@@ -5169,10 +5673,18 @@
       <c r="L70" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M70" s="37"/>
-      <c r="N70" s="37"/>
-      <c r="O70" s="37"/>
-      <c r="P70" s="37"/>
+      <c r="M70" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N70" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O70" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P70" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q70" s="37"/>
       <c r="R70" s="37"/>
       <c r="S70" s="37"/>
@@ -5205,7 +5717,7 @@
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G71" s="35" t="s">
         <v>20</v>
@@ -5225,10 +5737,18 @@
       <c r="L71" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M71" s="37"/>
-      <c r="N71" s="37"/>
-      <c r="O71" s="37"/>
-      <c r="P71" s="37"/>
+      <c r="M71" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N71" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O71" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P71" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q71" s="37"/>
       <c r="R71" s="37"/>
       <c r="S71" s="37"/>
@@ -5257,11 +5777,11 @@
       </c>
       <c r="E72" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G72" s="35" t="s">
         <v>20</v>
@@ -5281,10 +5801,18 @@
       <c r="L72" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M72" s="37"/>
-      <c r="N72" s="37"/>
-      <c r="O72" s="37"/>
-      <c r="P72" s="37"/>
+      <c r="M72" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N72" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O72" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P72" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q72" s="37"/>
       <c r="R72" s="37"/>
       <c r="S72" s="37"/>
@@ -5317,7 +5845,7 @@
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G73" s="35" t="s">
         <v>20</v>
@@ -5337,10 +5865,18 @@
       <c r="L73" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="M73" s="37"/>
-      <c r="N73" s="37"/>
-      <c r="O73" s="37"/>
-      <c r="P73" s="37"/>
+      <c r="M73" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N73" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O73" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P73" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q73" s="37"/>
       <c r="R73" s="37"/>
       <c r="S73" s="37"/>
@@ -5369,11 +5905,11 @@
       </c>
       <c r="E74" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G74" s="35" t="s">
         <v>20</v>
@@ -5393,10 +5929,18 @@
       <c r="L74" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M74" s="37"/>
-      <c r="N74" s="37"/>
-      <c r="O74" s="37"/>
-      <c r="P74" s="37"/>
+      <c r="M74" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N74" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O74" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P74" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Q74" s="37"/>
       <c r="R74" s="37"/>
       <c r="S74" s="37"/>
@@ -5429,7 +5973,7 @@
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G75" s="35" t="s">
         <v>20</v>
@@ -5449,10 +5993,18 @@
       <c r="L75" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M75" s="37"/>
-      <c r="N75" s="37"/>
-      <c r="O75" s="37"/>
-      <c r="P75" s="37"/>
+      <c r="M75" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N75" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O75" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P75" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Q75" s="37"/>
       <c r="R75" s="37"/>
       <c r="S75" s="37"/>
@@ -5488,7 +6040,7 @@
       <c r="K76" s="37"/>
       <c r="L76" s="37"/>
       <c r="M76" s="37"/>
-      <c r="N76" s="37"/>
+      <c r="N76" s="36"/>
       <c r="O76" s="37"/>
       <c r="P76" s="37"/>
       <c r="Q76" s="37"/>

--- a/attendance-files/MR/MR-B (EFGH) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-B (EFGH) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="159">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>Lokesh Vidyasagar</t>
+  </si>
+  <si>
+    <t>;P</t>
   </si>
   <si>
     <t>2024PGP478</t>
@@ -1621,7 +1624,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1653,8 +1656,12 @@
       <c r="P7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
+      <c r="Q7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="S7" s="30"/>
       <c r="T7" s="30"/>
       <c r="U7" s="30"/>
@@ -1685,7 +1692,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>20</v>
@@ -1717,8 +1724,12 @@
       <c r="P8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
+      <c r="Q8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S8" s="37"/>
       <c r="T8" s="37"/>
       <c r="U8" s="37"/>
@@ -1745,11 +1756,11 @@
       </c>
       <c r="E9" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>20</v>
@@ -1781,8 +1792,12 @@
       <c r="P9" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
+      <c r="Q9" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S9" s="37"/>
       <c r="T9" s="37"/>
       <c r="U9" s="37"/>
@@ -1813,7 +1828,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>21</v>
@@ -1845,8 +1860,12 @@
       <c r="P10" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
+      <c r="Q10" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S10" s="37"/>
       <c r="T10" s="37"/>
       <c r="U10" s="37"/>
@@ -1877,7 +1896,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>21</v>
@@ -1909,8 +1928,12 @@
       <c r="P11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
+      <c r="Q11" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S11" s="37"/>
       <c r="T11" s="37"/>
       <c r="U11" s="37"/>
@@ -1937,11 +1960,11 @@
       </c>
       <c r="E12" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>20</v>
@@ -1973,8 +1996,12 @@
       <c r="P12" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
+      <c r="Q12" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S12" s="37"/>
       <c r="T12" s="37"/>
       <c r="U12" s="37"/>
@@ -2001,11 +2028,11 @@
       </c>
       <c r="E13" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>20</v>
@@ -2037,8 +2064,12 @@
       <c r="P13" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
+      <c r="Q13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S13" s="37"/>
       <c r="T13" s="37"/>
       <c r="U13" s="37"/>
@@ -2069,7 +2100,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>21</v>
@@ -2101,8 +2132,12 @@
       <c r="P14" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
+      <c r="Q14" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R14" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S14" s="37"/>
       <c r="T14" s="37"/>
       <c r="U14" s="37"/>
@@ -2133,7 +2168,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G15" s="35" t="s">
         <v>20</v>
@@ -2165,8 +2200,12 @@
       <c r="P15" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
+      <c r="Q15" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S15" s="37"/>
       <c r="T15" s="37"/>
       <c r="U15" s="37"/>
@@ -2197,7 +2236,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>20</v>
@@ -2229,8 +2268,12 @@
       <c r="P16" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
+      <c r="Q16" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R16" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S16" s="37"/>
       <c r="T16" s="37"/>
       <c r="U16" s="37"/>
@@ -2261,7 +2304,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>20</v>
@@ -2293,8 +2336,12 @@
       <c r="P17" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
+      <c r="Q17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S17" s="37"/>
       <c r="T17" s="37"/>
       <c r="U17" s="37"/>
@@ -2325,7 +2372,7 @@
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>20</v>
@@ -2357,8 +2404,12 @@
       <c r="P18" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
+      <c r="Q18" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S18" s="37"/>
       <c r="T18" s="37"/>
       <c r="U18" s="37"/>
@@ -2385,11 +2436,11 @@
       </c>
       <c r="E19" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G19" s="35" t="s">
         <v>21</v>
@@ -2421,8 +2472,12 @@
       <c r="P19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
+      <c r="Q19" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S19" s="37"/>
       <c r="T19" s="37"/>
       <c r="U19" s="37"/>
@@ -2449,7 +2504,7 @@
       </c>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
@@ -2485,8 +2540,12 @@
       <c r="P20" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
+      <c r="Q20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S20" s="37"/>
       <c r="T20" s="37"/>
       <c r="U20" s="37"/>
@@ -2517,7 +2576,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G21" s="35" t="s">
         <v>21</v>
@@ -2549,8 +2608,12 @@
       <c r="P21" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
+      <c r="Q21" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R21" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S21" s="37"/>
       <c r="T21" s="37"/>
       <c r="U21" s="37"/>
@@ -2581,7 +2644,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>20</v>
@@ -2613,8 +2676,12 @@
       <c r="P22" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
+      <c r="Q22" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R22" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S22" s="37"/>
       <c r="T22" s="37"/>
       <c r="U22" s="37"/>
@@ -2645,7 +2712,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G23" s="35" t="s">
         <v>20</v>
@@ -2677,8 +2744,12 @@
       <c r="P23" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
+      <c r="Q23" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S23" s="37"/>
       <c r="T23" s="37"/>
       <c r="U23" s="37"/>
@@ -2709,7 +2780,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>20</v>
@@ -2741,8 +2812,12 @@
       <c r="P24" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
+      <c r="Q24" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S24" s="37"/>
       <c r="T24" s="37"/>
       <c r="U24" s="37"/>
@@ -2773,7 +2848,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>21</v>
@@ -2805,8 +2880,12 @@
       <c r="P25" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
+      <c r="Q25" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S25" s="37"/>
       <c r="T25" s="37"/>
       <c r="U25" s="37"/>
@@ -2833,11 +2912,11 @@
       </c>
       <c r="E26" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>20</v>
@@ -2869,8 +2948,12 @@
       <c r="P26" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
+      <c r="Q26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R26" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S26" s="37"/>
       <c r="T26" s="37"/>
       <c r="U26" s="37"/>
@@ -2901,7 +2984,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G27" s="35" t="s">
         <v>20</v>
@@ -2933,8 +3016,12 @@
       <c r="P27" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
+      <c r="Q27" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R27" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S27" s="37"/>
       <c r="T27" s="37"/>
       <c r="U27" s="37"/>
@@ -2965,7 +3052,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>20</v>
@@ -2997,8 +3084,12 @@
       <c r="P28" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
+      <c r="Q28" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R28" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S28" s="37"/>
       <c r="T28" s="37"/>
       <c r="U28" s="37"/>
@@ -3029,7 +3120,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G29" s="35" t="s">
         <v>20</v>
@@ -3061,8 +3152,12 @@
       <c r="P29" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
+      <c r="Q29" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R29" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S29" s="37"/>
       <c r="T29" s="37"/>
       <c r="U29" s="37"/>
@@ -3093,7 +3188,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>21</v>
@@ -3125,8 +3220,12 @@
       <c r="P30" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
+      <c r="Q30" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R30" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S30" s="37"/>
       <c r="T30" s="37"/>
       <c r="U30" s="37"/>
@@ -3153,11 +3252,11 @@
       </c>
       <c r="E31" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>20</v>
@@ -3189,8 +3288,12 @@
       <c r="P31" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
+      <c r="Q31" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R31" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S31" s="37"/>
       <c r="T31" s="37"/>
       <c r="U31" s="37"/>
@@ -3221,7 +3324,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>21</v>
@@ -3253,8 +3356,12 @@
       <c r="P32" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
+      <c r="Q32" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R32" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S32" s="37"/>
       <c r="T32" s="37"/>
       <c r="U32" s="37"/>
@@ -3285,7 +3392,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>20</v>
@@ -3317,8 +3424,12 @@
       <c r="P33" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
+      <c r="Q33" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R33" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S33" s="37"/>
       <c r="T33" s="37"/>
       <c r="U33" s="37"/>
@@ -3345,11 +3456,11 @@
       </c>
       <c r="E34" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>20</v>
@@ -3381,8 +3492,12 @@
       <c r="P34" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
+      <c r="Q34" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R34" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S34" s="37"/>
       <c r="T34" s="37"/>
       <c r="U34" s="37"/>
@@ -3413,7 +3528,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>20</v>
@@ -3445,8 +3560,12 @@
       <c r="P35" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
+      <c r="Q35" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R35" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S35" s="37"/>
       <c r="T35" s="37"/>
       <c r="U35" s="37"/>
@@ -3477,7 +3596,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>20</v>
@@ -3509,8 +3628,12 @@
       <c r="P36" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
+      <c r="Q36" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R36" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S36" s="37"/>
       <c r="T36" s="37"/>
       <c r="U36" s="37"/>
@@ -3541,7 +3664,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G37" s="35" t="s">
         <v>20</v>
@@ -3573,8 +3696,12 @@
       <c r="P37" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
+      <c r="Q37" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R37" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S37" s="37"/>
       <c r="T37" s="37"/>
       <c r="U37" s="37"/>
@@ -3605,7 +3732,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>21</v>
@@ -3637,8 +3764,12 @@
       <c r="P38" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
+      <c r="Q38" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R38" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S38" s="37"/>
       <c r="T38" s="37"/>
       <c r="U38" s="37"/>
@@ -3665,11 +3796,11 @@
       </c>
       <c r="E39" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>20</v>
@@ -3701,8 +3832,12 @@
       <c r="P39" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
+      <c r="Q39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R39" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S39" s="37"/>
       <c r="T39" s="37"/>
       <c r="U39" s="37"/>
@@ -3729,11 +3864,11 @@
       </c>
       <c r="E40" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>20</v>
@@ -3765,8 +3900,12 @@
       <c r="P40" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
+      <c r="Q40" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R40" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S40" s="37"/>
       <c r="T40" s="37"/>
       <c r="U40" s="37"/>
@@ -3797,7 +3936,7 @@
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G41" s="35" t="s">
         <v>20</v>
@@ -3829,8 +3968,12 @@
       <c r="P41" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
+      <c r="Q41" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R41" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S41" s="37"/>
       <c r="T41" s="37"/>
       <c r="U41" s="37"/>
@@ -3861,7 +4004,7 @@
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G42" s="35" t="s">
         <v>20</v>
@@ -3893,8 +4036,12 @@
       <c r="P42" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="37"/>
+      <c r="Q42" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R42" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S42" s="37"/>
       <c r="T42" s="37"/>
       <c r="U42" s="37"/>
@@ -3921,11 +4068,11 @@
       </c>
       <c r="E43" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>20</v>
@@ -3957,8 +4104,12 @@
       <c r="P43" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="37"/>
+      <c r="Q43" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R43" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S43" s="37"/>
       <c r="T43" s="37"/>
       <c r="U43" s="37"/>
@@ -3989,7 +4140,7 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G44" s="35" t="s">
         <v>20</v>
@@ -4021,8 +4172,12 @@
       <c r="P44" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37"/>
+      <c r="Q44" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R44" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S44" s="37"/>
       <c r="T44" s="37"/>
       <c r="U44" s="37"/>
@@ -4049,11 +4204,11 @@
       </c>
       <c r="E45" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G45" s="35" t="s">
         <v>20</v>
@@ -4085,8 +4240,12 @@
       <c r="P45" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
+      <c r="Q45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R45" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S45" s="37"/>
       <c r="T45" s="37"/>
       <c r="U45" s="37"/>
@@ -4117,7 +4276,7 @@
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G46" s="35" t="s">
         <v>20</v>
@@ -4149,8 +4308,12 @@
       <c r="P46" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="37"/>
+      <c r="Q46" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="R46" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S46" s="37"/>
       <c r="T46" s="37"/>
       <c r="U46" s="37"/>
@@ -4167,21 +4330,21 @@
         <v>41</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G47" s="35" t="s">
         <v>20</v>
@@ -4213,8 +4376,12 @@
       <c r="P47" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="37"/>
+      <c r="Q47" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R47" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S47" s="37"/>
       <c r="T47" s="37"/>
       <c r="U47" s="37"/>
@@ -4231,10 +4398,10 @@
         <v>42</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D48" s="25" t="s">
         <v>9</v>
@@ -4245,7 +4412,7 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G48" s="35" t="s">
         <v>20</v>
@@ -4277,8 +4444,12 @@
       <c r="P48" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="37"/>
+      <c r="Q48" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R48" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S48" s="37"/>
       <c r="T48" s="37"/>
       <c r="U48" s="37"/>
@@ -4295,10 +4466,10 @@
         <v>43</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D49" s="25" t="s">
         <v>9</v>
@@ -4309,7 +4480,7 @@
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G49" s="35" t="s">
         <v>20</v>
@@ -4341,8 +4512,12 @@
       <c r="P49" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q49" s="37"/>
-      <c r="R49" s="37"/>
+      <c r="Q49" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R49" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S49" s="37"/>
       <c r="T49" s="37"/>
       <c r="U49" s="37"/>
@@ -4359,10 +4534,10 @@
         <v>44</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D50" s="25" t="s">
         <v>9</v>
@@ -4373,7 +4548,7 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G50" s="35" t="s">
         <v>20</v>
@@ -4405,8 +4580,12 @@
       <c r="P50" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="37"/>
+      <c r="Q50" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R50" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S50" s="37"/>
       <c r="T50" s="37"/>
       <c r="U50" s="37"/>
@@ -4423,10 +4602,10 @@
         <v>45</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C51" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D51" s="25" t="s">
         <v>9</v>
@@ -4437,7 +4616,7 @@
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G51" s="35" t="s">
         <v>20</v>
@@ -4469,8 +4648,12 @@
       <c r="P51" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q51" s="37"/>
-      <c r="R51" s="37"/>
+      <c r="Q51" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R51" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S51" s="37"/>
       <c r="T51" s="37"/>
       <c r="U51" s="37"/>
@@ -4487,10 +4670,10 @@
         <v>46</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C52" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>9</v>
@@ -4501,7 +4684,7 @@
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G52" s="35" t="s">
         <v>20</v>
@@ -4533,8 +4716,12 @@
       <c r="P52" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="37"/>
+      <c r="Q52" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R52" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S52" s="37"/>
       <c r="T52" s="37"/>
       <c r="U52" s="37"/>
@@ -4551,10 +4738,10 @@
         <v>47</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D53" s="25" t="s">
         <v>9</v>
@@ -4565,7 +4752,7 @@
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G53" s="35" t="s">
         <v>20</v>
@@ -4597,8 +4784,12 @@
       <c r="P53" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="37"/>
+      <c r="Q53" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R53" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S53" s="37"/>
       <c r="T53" s="37"/>
       <c r="U53" s="37"/>
@@ -4615,10 +4806,10 @@
         <v>48</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D54" s="25" t="s">
         <v>9</v>
@@ -4629,7 +4820,7 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G54" s="35" t="s">
         <v>20</v>
@@ -4661,8 +4852,12 @@
       <c r="P54" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="37"/>
+      <c r="Q54" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R54" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S54" s="37"/>
       <c r="T54" s="37"/>
       <c r="U54" s="37"/>
@@ -4679,10 +4874,10 @@
         <v>49</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C55" s="33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D55" s="25" t="s">
         <v>9</v>
@@ -4693,7 +4888,7 @@
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G55" s="35" t="s">
         <v>20</v>
@@ -4725,8 +4920,12 @@
       <c r="P55" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="37"/>
+      <c r="Q55" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R55" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S55" s="37"/>
       <c r="T55" s="37"/>
       <c r="U55" s="37"/>
@@ -4743,10 +4942,10 @@
         <v>50</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D56" s="25" t="s">
         <v>9</v>
@@ -4757,7 +4956,7 @@
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G56" s="35" t="s">
         <v>20</v>
@@ -4789,8 +4988,12 @@
       <c r="P56" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="37"/>
+      <c r="Q56" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R56" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S56" s="37"/>
       <c r="T56" s="37"/>
       <c r="U56" s="37"/>
@@ -4807,10 +5010,10 @@
         <v>51</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C57" s="33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D57" s="25" t="s">
         <v>9</v>
@@ -4821,7 +5024,7 @@
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G57" s="35" t="s">
         <v>20</v>
@@ -4853,8 +5056,12 @@
       <c r="P57" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q57" s="37"/>
-      <c r="R57" s="37"/>
+      <c r="Q57" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R57" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S57" s="37"/>
       <c r="T57" s="37"/>
       <c r="U57" s="37"/>
@@ -4871,10 +5078,10 @@
         <v>52</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D58" s="25" t="s">
         <v>9</v>
@@ -4885,7 +5092,7 @@
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>20</v>
@@ -4917,8 +5124,12 @@
       <c r="P58" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="37"/>
+      <c r="Q58" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R58" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S58" s="37"/>
       <c r="T58" s="37"/>
       <c r="U58" s="37"/>
@@ -4935,10 +5146,10 @@
         <v>53</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D59" s="25" t="s">
         <v>9</v>
@@ -4949,7 +5160,7 @@
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G59" s="35" t="s">
         <v>21</v>
@@ -4981,8 +5192,12 @@
       <c r="P59" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q59" s="37"/>
-      <c r="R59" s="37"/>
+      <c r="Q59" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R59" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S59" s="37"/>
       <c r="T59" s="37"/>
       <c r="U59" s="37"/>
@@ -4999,21 +5214,21 @@
         <v>54</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D60" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E60" s="26">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G60" s="35" t="s">
         <v>20</v>
@@ -5045,8 +5260,12 @@
       <c r="P60" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q60" s="37"/>
-      <c r="R60" s="37"/>
+      <c r="Q60" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R60" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="S60" s="37"/>
       <c r="T60" s="37"/>
       <c r="U60" s="37"/>
@@ -5063,10 +5282,10 @@
         <v>55</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D61" s="25" t="s">
         <v>9</v>
@@ -5077,7 +5296,7 @@
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G61" s="35" t="s">
         <v>20</v>
@@ -5109,8 +5328,12 @@
       <c r="P61" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q61" s="37"/>
-      <c r="R61" s="37"/>
+      <c r="Q61" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R61" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S61" s="37"/>
       <c r="T61" s="37"/>
       <c r="U61" s="37"/>
@@ -5127,10 +5350,10 @@
         <v>56</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C62" s="33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D62" s="25" t="s">
         <v>9</v>
@@ -5141,7 +5364,7 @@
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G62" s="35" t="s">
         <v>20</v>
@@ -5173,8 +5396,12 @@
       <c r="P62" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q62" s="37"/>
-      <c r="R62" s="37"/>
+      <c r="Q62" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R62" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S62" s="37"/>
       <c r="T62" s="37"/>
       <c r="U62" s="37"/>
@@ -5191,10 +5418,10 @@
         <v>57</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C63" s="33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D63" s="25" t="s">
         <v>9</v>
@@ -5205,7 +5432,7 @@
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G63" s="35" t="s">
         <v>20</v>
@@ -5237,8 +5464,12 @@
       <c r="P63" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q63" s="37"/>
-      <c r="R63" s="37"/>
+      <c r="Q63" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R63" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S63" s="37"/>
       <c r="T63" s="37"/>
       <c r="U63" s="37"/>
@@ -5255,10 +5486,10 @@
         <v>58</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C64" s="33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D64" s="25" t="s">
         <v>9</v>
@@ -5269,7 +5500,7 @@
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G64" s="35" t="s">
         <v>21</v>
@@ -5301,8 +5532,12 @@
       <c r="P64" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q64" s="37"/>
-      <c r="R64" s="37"/>
+      <c r="Q64" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R64" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S64" s="37"/>
       <c r="T64" s="37"/>
       <c r="U64" s="37"/>
@@ -5319,10 +5554,10 @@
         <v>59</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C65" s="33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D65" s="25" t="s">
         <v>9</v>
@@ -5333,7 +5568,7 @@
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G65" s="35" t="s">
         <v>20</v>
@@ -5365,8 +5600,12 @@
       <c r="P65" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q65" s="37"/>
-      <c r="R65" s="37"/>
+      <c r="Q65" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R65" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S65" s="37"/>
       <c r="T65" s="37"/>
       <c r="U65" s="37"/>
@@ -5383,10 +5622,10 @@
         <v>60</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C66" s="33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D66" s="25" t="s">
         <v>9</v>
@@ -5397,7 +5636,7 @@
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G66" s="35" t="s">
         <v>20</v>
@@ -5429,8 +5668,12 @@
       <c r="P66" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q66" s="37"/>
-      <c r="R66" s="37"/>
+      <c r="Q66" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R66" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S66" s="37"/>
       <c r="T66" s="37"/>
       <c r="U66" s="37"/>
@@ -5447,10 +5690,10 @@
         <v>61</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C67" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D67" s="25" t="s">
         <v>9</v>
@@ -5461,7 +5704,7 @@
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G67" s="35" t="s">
         <v>20</v>
@@ -5493,8 +5736,12 @@
       <c r="P67" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q67" s="37"/>
-      <c r="R67" s="37"/>
+      <c r="Q67" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R67" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S67" s="37"/>
       <c r="T67" s="37"/>
       <c r="U67" s="37"/>
@@ -5511,10 +5758,10 @@
         <v>62</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C68" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D68" s="25" t="s">
         <v>9</v>
@@ -5525,7 +5772,7 @@
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G68" s="35" t="s">
         <v>20</v>
@@ -5557,8 +5804,12 @@
       <c r="P68" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q68" s="37"/>
-      <c r="R68" s="37"/>
+      <c r="Q68" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R68" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S68" s="37"/>
       <c r="T68" s="37"/>
       <c r="U68" s="37"/>
@@ -5575,10 +5826,10 @@
         <v>63</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C69" s="33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D69" s="25" t="s">
         <v>9</v>
@@ -5589,7 +5840,7 @@
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G69" s="35" t="s">
         <v>20</v>
@@ -5621,8 +5872,12 @@
       <c r="P69" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q69" s="37"/>
-      <c r="R69" s="37"/>
+      <c r="Q69" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R69" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S69" s="37"/>
       <c r="T69" s="37"/>
       <c r="U69" s="37"/>
@@ -5639,10 +5894,10 @@
         <v>64</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C70" s="33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D70" s="25" t="s">
         <v>9</v>
@@ -5653,7 +5908,7 @@
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G70" s="35" t="s">
         <v>20</v>
@@ -5685,8 +5940,12 @@
       <c r="P70" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q70" s="37"/>
-      <c r="R70" s="37"/>
+      <c r="Q70" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R70" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S70" s="37"/>
       <c r="T70" s="37"/>
       <c r="U70" s="37"/>
@@ -5703,21 +5962,21 @@
         <v>65</v>
       </c>
       <c r="B71" s="32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D71" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E71" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G71" s="35" t="s">
         <v>20</v>
@@ -5749,8 +6008,12 @@
       <c r="P71" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q71" s="37"/>
-      <c r="R71" s="37"/>
+      <c r="Q71" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R71" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S71" s="37"/>
       <c r="T71" s="37"/>
       <c r="U71" s="37"/>
@@ -5767,10 +6030,10 @@
         <v>66</v>
       </c>
       <c r="B72" s="32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D72" s="25" t="s">
         <v>9</v>
@@ -5781,7 +6044,7 @@
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G72" s="35" t="s">
         <v>20</v>
@@ -5813,8 +6076,12 @@
       <c r="P72" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q72" s="37"/>
-      <c r="R72" s="37"/>
+      <c r="Q72" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R72" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S72" s="37"/>
       <c r="T72" s="37"/>
       <c r="U72" s="37"/>
@@ -5831,10 +6098,10 @@
         <v>67</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D73" s="25" t="s">
         <v>9</v>
@@ -5845,7 +6112,7 @@
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G73" s="35" t="s">
         <v>20</v>
@@ -5877,8 +6144,12 @@
       <c r="P73" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q73" s="37"/>
-      <c r="R73" s="37"/>
+      <c r="Q73" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R73" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S73" s="37"/>
       <c r="T73" s="37"/>
       <c r="U73" s="37"/>
@@ -5895,10 +6166,10 @@
         <v>68</v>
       </c>
       <c r="B74" s="32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D74" s="25" t="s">
         <v>9</v>
@@ -5909,7 +6180,7 @@
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G74" s="35" t="s">
         <v>20</v>
@@ -5941,8 +6212,12 @@
       <c r="P74" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q74" s="37"/>
-      <c r="R74" s="37"/>
+      <c r="Q74" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R74" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S74" s="37"/>
       <c r="T74" s="37"/>
       <c r="U74" s="37"/>
@@ -5959,10 +6234,10 @@
         <v>69</v>
       </c>
       <c r="B75" s="32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D75" s="25" t="s">
         <v>9</v>
@@ -5973,7 +6248,7 @@
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G75" s="35" t="s">
         <v>20</v>
@@ -6005,8 +6280,12 @@
       <c r="P75" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Q75" s="37"/>
-      <c r="R75" s="37"/>
+      <c r="Q75" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R75" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="S75" s="37"/>
       <c r="T75" s="37"/>
       <c r="U75" s="37"/>

--- a/attendance-files/MR/MR-B (EFGH) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-B (EFGH) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="159">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1620,11 +1620,11 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1662,8 +1662,12 @@
       <c r="R7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
+      <c r="S7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="U7" s="30"/>
       <c r="V7" s="30"/>
       <c r="W7" s="30"/>
@@ -1692,7 +1696,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>20</v>
@@ -1730,8 +1734,12 @@
       <c r="R8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
+      <c r="S8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T8" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U8" s="37"/>
       <c r="V8" s="37"/>
       <c r="W8" s="37"/>
@@ -1760,7 +1768,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>20</v>
@@ -1798,8 +1806,12 @@
       <c r="R9" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
+      <c r="S9" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T9" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U9" s="37"/>
       <c r="V9" s="37"/>
       <c r="W9" s="37"/>
@@ -1824,7 +1836,7 @@
       </c>
       <c r="E10" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
@@ -1866,8 +1878,12 @@
       <c r="R10" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
+      <c r="S10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U10" s="37"/>
       <c r="V10" s="37"/>
       <c r="W10" s="37"/>
@@ -1896,7 +1912,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>21</v>
@@ -1934,8 +1950,12 @@
       <c r="R11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
+      <c r="S11" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T11" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U11" s="37"/>
       <c r="V11" s="37"/>
       <c r="W11" s="37"/>
@@ -1960,7 +1980,7 @@
       </c>
       <c r="E12" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
@@ -2002,8 +2022,12 @@
       <c r="R12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
+      <c r="S12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U12" s="37"/>
       <c r="V12" s="37"/>
       <c r="W12" s="37"/>
@@ -2032,7 +2056,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>20</v>
@@ -2070,8 +2094,12 @@
       <c r="R13" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
+      <c r="S13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T13" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U13" s="37"/>
       <c r="V13" s="37"/>
       <c r="W13" s="37"/>
@@ -2100,7 +2128,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>21</v>
@@ -2138,8 +2166,12 @@
       <c r="R14" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
+      <c r="S14" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T14" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U14" s="37"/>
       <c r="V14" s="37"/>
       <c r="W14" s="37"/>
@@ -2168,7 +2200,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G15" s="35" t="s">
         <v>20</v>
@@ -2206,8 +2238,12 @@
       <c r="R15" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
+      <c r="S15" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T15" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U15" s="37"/>
       <c r="V15" s="37"/>
       <c r="W15" s="37"/>
@@ -2236,7 +2272,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>20</v>
@@ -2274,8 +2310,12 @@
       <c r="R16" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
+      <c r="S16" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T16" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U16" s="37"/>
       <c r="V16" s="37"/>
       <c r="W16" s="37"/>
@@ -2304,7 +2344,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>20</v>
@@ -2342,8 +2382,12 @@
       <c r="R17" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
+      <c r="S17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T17" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U17" s="37"/>
       <c r="V17" s="37"/>
       <c r="W17" s="37"/>
@@ -2372,7 +2416,7 @@
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>20</v>
@@ -2410,8 +2454,12 @@
       <c r="R18" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
+      <c r="S18" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T18" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U18" s="37"/>
       <c r="V18" s="37"/>
       <c r="W18" s="37"/>
@@ -2436,7 +2484,7 @@
       </c>
       <c r="E19" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
@@ -2478,8 +2526,12 @@
       <c r="R19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
+      <c r="S19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T19" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U19" s="37"/>
       <c r="V19" s="37"/>
       <c r="W19" s="37"/>
@@ -2504,7 +2556,7 @@
       </c>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
@@ -2546,8 +2598,12 @@
       <c r="R20" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
+      <c r="S20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T20" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U20" s="37"/>
       <c r="V20" s="37"/>
       <c r="W20" s="37"/>
@@ -2576,7 +2632,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G21" s="35" t="s">
         <v>21</v>
@@ -2614,8 +2670,12 @@
       <c r="R21" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
+      <c r="S21" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T21" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U21" s="37"/>
       <c r="V21" s="37"/>
       <c r="W21" s="37"/>
@@ -2640,11 +2700,11 @@
       </c>
       <c r="E22" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>20</v>
@@ -2682,8 +2742,12 @@
       <c r="R22" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
+      <c r="S22" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T22" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U22" s="37"/>
       <c r="V22" s="37"/>
       <c r="W22" s="37"/>
@@ -2712,7 +2776,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G23" s="35" t="s">
         <v>20</v>
@@ -2750,8 +2814,12 @@
       <c r="R23" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
+      <c r="S23" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T23" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U23" s="37"/>
       <c r="V23" s="37"/>
       <c r="W23" s="37"/>
@@ -2780,7 +2848,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>20</v>
@@ -2818,8 +2886,12 @@
       <c r="R24" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
+      <c r="S24" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T24" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U24" s="37"/>
       <c r="V24" s="37"/>
       <c r="W24" s="37"/>
@@ -2844,11 +2916,11 @@
       </c>
       <c r="E25" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>21</v>
@@ -2886,8 +2958,12 @@
       <c r="R25" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
+      <c r="S25" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T25" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U25" s="37"/>
       <c r="V25" s="37"/>
       <c r="W25" s="37"/>
@@ -2916,7 +2992,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>20</v>
@@ -2954,8 +3030,12 @@
       <c r="R26" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
+      <c r="S26" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T26" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U26" s="37"/>
       <c r="V26" s="37"/>
       <c r="W26" s="37"/>
@@ -2984,7 +3064,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G27" s="35" t="s">
         <v>20</v>
@@ -3022,8 +3102,12 @@
       <c r="R27" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
+      <c r="S27" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T27" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U27" s="37"/>
       <c r="V27" s="37"/>
       <c r="W27" s="37"/>
@@ -3052,7 +3136,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>20</v>
@@ -3090,8 +3174,12 @@
       <c r="R28" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
+      <c r="S28" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T28" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U28" s="37"/>
       <c r="V28" s="37"/>
       <c r="W28" s="37"/>
@@ -3120,7 +3208,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G29" s="35" t="s">
         <v>20</v>
@@ -3158,8 +3246,12 @@
       <c r="R29" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
+      <c r="S29" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T29" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U29" s="37"/>
       <c r="V29" s="37"/>
       <c r="W29" s="37"/>
@@ -3188,7 +3280,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>21</v>
@@ -3226,8 +3318,12 @@
       <c r="R30" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
+      <c r="S30" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T30" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U30" s="37"/>
       <c r="V30" s="37"/>
       <c r="W30" s="37"/>
@@ -3256,7 +3352,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>20</v>
@@ -3294,8 +3390,12 @@
       <c r="R31" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
+      <c r="S31" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T31" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U31" s="37"/>
       <c r="V31" s="37"/>
       <c r="W31" s="37"/>
@@ -3320,11 +3420,11 @@
       </c>
       <c r="E32" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>21</v>
@@ -3362,8 +3462,12 @@
       <c r="R32" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
+      <c r="S32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T32" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U32" s="37"/>
       <c r="V32" s="37"/>
       <c r="W32" s="37"/>
@@ -3392,7 +3496,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>20</v>
@@ -3430,8 +3534,12 @@
       <c r="R33" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
+      <c r="S33" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T33" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U33" s="37"/>
       <c r="V33" s="37"/>
       <c r="W33" s="37"/>
@@ -3460,7 +3568,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>20</v>
@@ -3498,8 +3606,12 @@
       <c r="R34" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
+      <c r="S34" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T34" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U34" s="37"/>
       <c r="V34" s="37"/>
       <c r="W34" s="37"/>
@@ -3528,7 +3640,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>20</v>
@@ -3566,8 +3678,12 @@
       <c r="R35" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
+      <c r="S35" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T35" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U35" s="37"/>
       <c r="V35" s="37"/>
       <c r="W35" s="37"/>
@@ -3596,7 +3712,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>20</v>
@@ -3634,8 +3750,12 @@
       <c r="R36" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
+      <c r="S36" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T36" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U36" s="37"/>
       <c r="V36" s="37"/>
       <c r="W36" s="37"/>
@@ -3664,7 +3784,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G37" s="35" t="s">
         <v>20</v>
@@ -3702,8 +3822,12 @@
       <c r="R37" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
+      <c r="S37" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T37" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U37" s="37"/>
       <c r="V37" s="37"/>
       <c r="W37" s="37"/>
@@ -3728,11 +3852,11 @@
       </c>
       <c r="E38" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>21</v>
@@ -3770,8 +3894,12 @@
       <c r="R38" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
+      <c r="S38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T38" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U38" s="37"/>
       <c r="V38" s="37"/>
       <c r="W38" s="37"/>
@@ -3800,7 +3928,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>20</v>
@@ -3838,8 +3966,12 @@
       <c r="R39" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
+      <c r="S39" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T39" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U39" s="37"/>
       <c r="V39" s="37"/>
       <c r="W39" s="37"/>
@@ -3868,7 +4000,7 @@
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>20</v>
@@ -3906,8 +4038,12 @@
       <c r="R40" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S40" s="37"/>
-      <c r="T40" s="37"/>
+      <c r="S40" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T40" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U40" s="37"/>
       <c r="V40" s="37"/>
       <c r="W40" s="37"/>
@@ -3936,7 +4072,7 @@
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G41" s="35" t="s">
         <v>20</v>
@@ -3974,8 +4110,12 @@
       <c r="R41" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S41" s="37"/>
-      <c r="T41" s="37"/>
+      <c r="S41" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T41" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U41" s="37"/>
       <c r="V41" s="37"/>
       <c r="W41" s="37"/>
@@ -4004,7 +4144,7 @@
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G42" s="35" t="s">
         <v>20</v>
@@ -4042,8 +4182,12 @@
       <c r="R42" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S42" s="37"/>
-      <c r="T42" s="37"/>
+      <c r="S42" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T42" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U42" s="37"/>
       <c r="V42" s="37"/>
       <c r="W42" s="37"/>
@@ -4072,7 +4216,7 @@
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>20</v>
@@ -4110,8 +4254,12 @@
       <c r="R43" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S43" s="37"/>
-      <c r="T43" s="37"/>
+      <c r="S43" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T43" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U43" s="37"/>
       <c r="V43" s="37"/>
       <c r="W43" s="37"/>
@@ -4140,7 +4288,7 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G44" s="35" t="s">
         <v>20</v>
@@ -4178,8 +4326,12 @@
       <c r="R44" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S44" s="37"/>
-      <c r="T44" s="37"/>
+      <c r="S44" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T44" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U44" s="37"/>
       <c r="V44" s="37"/>
       <c r="W44" s="37"/>
@@ -4208,7 +4360,7 @@
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G45" s="35" t="s">
         <v>20</v>
@@ -4246,8 +4398,12 @@
       <c r="R45" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S45" s="37"/>
-      <c r="T45" s="37"/>
+      <c r="S45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T45" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U45" s="37"/>
       <c r="V45" s="37"/>
       <c r="W45" s="37"/>
@@ -4276,7 +4432,7 @@
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G46" s="35" t="s">
         <v>20</v>
@@ -4314,8 +4470,12 @@
       <c r="R46" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S46" s="37"/>
-      <c r="T46" s="37"/>
+      <c r="S46" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T46" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U46" s="37"/>
       <c r="V46" s="37"/>
       <c r="W46" s="37"/>
@@ -4340,11 +4500,11 @@
       </c>
       <c r="E47" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G47" s="35" t="s">
         <v>20</v>
@@ -4382,8 +4542,12 @@
       <c r="R47" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S47" s="37"/>
-      <c r="T47" s="37"/>
+      <c r="S47" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T47" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U47" s="37"/>
       <c r="V47" s="37"/>
       <c r="W47" s="37"/>
@@ -4412,7 +4576,7 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G48" s="35" t="s">
         <v>20</v>
@@ -4450,8 +4614,12 @@
       <c r="R48" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S48" s="37"/>
-      <c r="T48" s="37"/>
+      <c r="S48" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T48" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U48" s="37"/>
       <c r="V48" s="37"/>
       <c r="W48" s="37"/>
@@ -4476,11 +4644,11 @@
       </c>
       <c r="E49" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G49" s="35" t="s">
         <v>20</v>
@@ -4518,8 +4686,12 @@
       <c r="R49" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S49" s="37"/>
-      <c r="T49" s="37"/>
+      <c r="S49" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T49" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U49" s="37"/>
       <c r="V49" s="37"/>
       <c r="W49" s="37"/>
@@ -4548,7 +4720,7 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G50" s="35" t="s">
         <v>20</v>
@@ -4586,8 +4758,12 @@
       <c r="R50" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S50" s="37"/>
-      <c r="T50" s="37"/>
+      <c r="S50" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T50" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U50" s="37"/>
       <c r="V50" s="37"/>
       <c r="W50" s="37"/>
@@ -4616,7 +4792,7 @@
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G51" s="35" t="s">
         <v>20</v>
@@ -4654,8 +4830,12 @@
       <c r="R51" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S51" s="37"/>
-      <c r="T51" s="37"/>
+      <c r="S51" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T51" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U51" s="37"/>
       <c r="V51" s="37"/>
       <c r="W51" s="37"/>
@@ -4684,7 +4864,7 @@
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G52" s="35" t="s">
         <v>20</v>
@@ -4722,8 +4902,12 @@
       <c r="R52" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S52" s="37"/>
-      <c r="T52" s="37"/>
+      <c r="S52" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T52" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U52" s="37"/>
       <c r="V52" s="37"/>
       <c r="W52" s="37"/>
@@ -4752,7 +4936,7 @@
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G53" s="35" t="s">
         <v>20</v>
@@ -4790,8 +4974,12 @@
       <c r="R53" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S53" s="37"/>
-      <c r="T53" s="37"/>
+      <c r="S53" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T53" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U53" s="37"/>
       <c r="V53" s="37"/>
       <c r="W53" s="37"/>
@@ -4820,7 +5008,7 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G54" s="35" t="s">
         <v>20</v>
@@ -4858,8 +5046,12 @@
       <c r="R54" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S54" s="37"/>
-      <c r="T54" s="37"/>
+      <c r="S54" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T54" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U54" s="37"/>
       <c r="V54" s="37"/>
       <c r="W54" s="37"/>
@@ -4888,7 +5080,7 @@
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G55" s="35" t="s">
         <v>20</v>
@@ -4926,8 +5118,12 @@
       <c r="R55" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S55" s="37"/>
-      <c r="T55" s="37"/>
+      <c r="S55" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T55" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U55" s="37"/>
       <c r="V55" s="37"/>
       <c r="W55" s="37"/>
@@ -4952,7 +5148,7 @@
       </c>
       <c r="E56" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
@@ -4994,8 +5190,12 @@
       <c r="R56" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S56" s="37"/>
-      <c r="T56" s="37"/>
+      <c r="S56" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T56" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U56" s="37"/>
       <c r="V56" s="37"/>
       <c r="W56" s="37"/>
@@ -5024,7 +5224,7 @@
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G57" s="35" t="s">
         <v>20</v>
@@ -5062,8 +5262,12 @@
       <c r="R57" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S57" s="37"/>
-      <c r="T57" s="37"/>
+      <c r="S57" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T57" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U57" s="37"/>
       <c r="V57" s="37"/>
       <c r="W57" s="37"/>
@@ -5092,7 +5296,7 @@
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>20</v>
@@ -5130,8 +5334,12 @@
       <c r="R58" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S58" s="37"/>
-      <c r="T58" s="37"/>
+      <c r="S58" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T58" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U58" s="37"/>
       <c r="V58" s="37"/>
       <c r="W58" s="37"/>
@@ -5160,7 +5368,7 @@
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G59" s="35" t="s">
         <v>21</v>
@@ -5198,8 +5406,12 @@
       <c r="R59" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S59" s="37"/>
-      <c r="T59" s="37"/>
+      <c r="S59" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T59" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U59" s="37"/>
       <c r="V59" s="37"/>
       <c r="W59" s="37"/>
@@ -5228,7 +5440,7 @@
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G60" s="35" t="s">
         <v>20</v>
@@ -5266,8 +5478,12 @@
       <c r="R60" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S60" s="37"/>
-      <c r="T60" s="37"/>
+      <c r="S60" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T60" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U60" s="37"/>
       <c r="V60" s="37"/>
       <c r="W60" s="37"/>
@@ -5296,7 +5512,7 @@
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G61" s="35" t="s">
         <v>20</v>
@@ -5334,8 +5550,12 @@
       <c r="R61" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S61" s="37"/>
-      <c r="T61" s="37"/>
+      <c r="S61" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T61" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U61" s="37"/>
       <c r="V61" s="37"/>
       <c r="W61" s="37"/>
@@ -5364,7 +5584,7 @@
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G62" s="35" t="s">
         <v>20</v>
@@ -5402,8 +5622,12 @@
       <c r="R62" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S62" s="37"/>
-      <c r="T62" s="37"/>
+      <c r="S62" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T62" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U62" s="37"/>
       <c r="V62" s="37"/>
       <c r="W62" s="37"/>
@@ -5432,7 +5656,7 @@
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G63" s="35" t="s">
         <v>20</v>
@@ -5470,8 +5694,12 @@
       <c r="R63" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S63" s="37"/>
-      <c r="T63" s="37"/>
+      <c r="S63" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T63" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U63" s="37"/>
       <c r="V63" s="37"/>
       <c r="W63" s="37"/>
@@ -5500,7 +5728,7 @@
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G64" s="35" t="s">
         <v>21</v>
@@ -5538,8 +5766,12 @@
       <c r="R64" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S64" s="37"/>
-      <c r="T64" s="37"/>
+      <c r="S64" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T64" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U64" s="37"/>
       <c r="V64" s="37"/>
       <c r="W64" s="37"/>
@@ -5568,7 +5800,7 @@
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G65" s="35" t="s">
         <v>20</v>
@@ -5606,8 +5838,12 @@
       <c r="R65" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S65" s="37"/>
-      <c r="T65" s="37"/>
+      <c r="S65" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T65" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U65" s="37"/>
       <c r="V65" s="37"/>
       <c r="W65" s="37"/>
@@ -5636,7 +5872,7 @@
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G66" s="35" t="s">
         <v>20</v>
@@ -5674,8 +5910,12 @@
       <c r="R66" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S66" s="37"/>
-      <c r="T66" s="37"/>
+      <c r="S66" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T66" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U66" s="37"/>
       <c r="V66" s="37"/>
       <c r="W66" s="37"/>
@@ -5704,7 +5944,7 @@
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G67" s="35" t="s">
         <v>20</v>
@@ -5742,8 +5982,12 @@
       <c r="R67" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S67" s="37"/>
-      <c r="T67" s="37"/>
+      <c r="S67" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T67" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U67" s="37"/>
       <c r="V67" s="37"/>
       <c r="W67" s="37"/>
@@ -5768,11 +6012,11 @@
       </c>
       <c r="E68" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G68" s="35" t="s">
         <v>20</v>
@@ -5810,8 +6054,12 @@
       <c r="R68" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S68" s="37"/>
-      <c r="T68" s="37"/>
+      <c r="S68" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T68" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="U68" s="37"/>
       <c r="V68" s="37"/>
       <c r="W68" s="37"/>
@@ -5840,7 +6088,7 @@
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G69" s="35" t="s">
         <v>20</v>
@@ -5878,8 +6126,12 @@
       <c r="R69" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S69" s="37"/>
-      <c r="T69" s="37"/>
+      <c r="S69" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T69" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U69" s="37"/>
       <c r="V69" s="37"/>
       <c r="W69" s="37"/>
@@ -5908,7 +6160,7 @@
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G70" s="35" t="s">
         <v>20</v>
@@ -5946,8 +6198,12 @@
       <c r="R70" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S70" s="37"/>
-      <c r="T70" s="37"/>
+      <c r="S70" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T70" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U70" s="37"/>
       <c r="V70" s="37"/>
       <c r="W70" s="37"/>
@@ -5976,7 +6232,7 @@
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G71" s="35" t="s">
         <v>20</v>
@@ -6014,8 +6270,12 @@
       <c r="R71" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S71" s="37"/>
-      <c r="T71" s="37"/>
+      <c r="S71" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T71" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U71" s="37"/>
       <c r="V71" s="37"/>
       <c r="W71" s="37"/>
@@ -6044,7 +6304,7 @@
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G72" s="35" t="s">
         <v>20</v>
@@ -6082,8 +6342,12 @@
       <c r="R72" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S72" s="37"/>
-      <c r="T72" s="37"/>
+      <c r="S72" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T72" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U72" s="37"/>
       <c r="V72" s="37"/>
       <c r="W72" s="37"/>
@@ -6112,7 +6376,7 @@
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G73" s="35" t="s">
         <v>20</v>
@@ -6150,8 +6414,12 @@
       <c r="R73" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S73" s="37"/>
-      <c r="T73" s="37"/>
+      <c r="S73" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T73" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U73" s="37"/>
       <c r="V73" s="37"/>
       <c r="W73" s="37"/>
@@ -6176,11 +6444,11 @@
       </c>
       <c r="E74" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G74" s="35" t="s">
         <v>20</v>
@@ -6218,8 +6486,12 @@
       <c r="R74" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S74" s="37"/>
-      <c r="T74" s="37"/>
+      <c r="S74" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T74" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U74" s="37"/>
       <c r="V74" s="37"/>
       <c r="W74" s="37"/>
@@ -6248,7 +6520,7 @@
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G75" s="35" t="s">
         <v>20</v>
@@ -6286,8 +6558,12 @@
       <c r="R75" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S75" s="37"/>
-      <c r="T75" s="37"/>
+      <c r="S75" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T75" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="U75" s="37"/>
       <c r="V75" s="37"/>
       <c r="W75" s="37"/>

--- a/attendance-files/MR/MR-B (EFGH) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-B (EFGH) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="159">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1668,8 +1668,12 @@
       <c r="T7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
+      <c r="U7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="V7" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="W7" s="30"/>
       <c r="X7" s="30"/>
       <c r="Y7" s="30"/>
@@ -1696,7 +1700,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>20</v>
@@ -1740,8 +1744,12 @@
       <c r="T8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
+      <c r="U8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V8" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W8" s="37"/>
       <c r="X8" s="37"/>
       <c r="Y8" s="37"/>
@@ -1768,7 +1776,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>20</v>
@@ -1812,8 +1820,12 @@
       <c r="T9" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
+      <c r="U9" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V9" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W9" s="37"/>
       <c r="X9" s="37"/>
       <c r="Y9" s="37"/>
@@ -1836,11 +1848,11 @@
       </c>
       <c r="E10" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>21</v>
@@ -1884,8 +1896,12 @@
       <c r="T10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
+      <c r="U10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V10" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W10" s="37"/>
       <c r="X10" s="37"/>
       <c r="Y10" s="37"/>
@@ -1908,11 +1924,11 @@
       </c>
       <c r="E11" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>21</v>
@@ -1956,8 +1972,12 @@
       <c r="T11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
+      <c r="U11" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V11" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W11" s="37"/>
       <c r="X11" s="37"/>
       <c r="Y11" s="37"/>
@@ -1980,11 +2000,11 @@
       </c>
       <c r="E12" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>20</v>
@@ -2028,8 +2048,12 @@
       <c r="T12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
+      <c r="U12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V12" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W12" s="37"/>
       <c r="X12" s="37"/>
       <c r="Y12" s="37"/>
@@ -2052,11 +2076,11 @@
       </c>
       <c r="E13" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>20</v>
@@ -2100,8 +2124,12 @@
       <c r="T13" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
+      <c r="U13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V13" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W13" s="37"/>
       <c r="X13" s="37"/>
       <c r="Y13" s="37"/>
@@ -2128,7 +2156,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>21</v>
@@ -2172,8 +2200,12 @@
       <c r="T14" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
+      <c r="U14" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V14" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W14" s="37"/>
       <c r="X14" s="37"/>
       <c r="Y14" s="37"/>
@@ -2200,7 +2232,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G15" s="35" t="s">
         <v>20</v>
@@ -2244,8 +2276,12 @@
       <c r="T15" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
+      <c r="U15" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V15" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W15" s="37"/>
       <c r="X15" s="37"/>
       <c r="Y15" s="37"/>
@@ -2272,7 +2308,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>20</v>
@@ -2316,8 +2352,12 @@
       <c r="T16" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
+      <c r="U16" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V16" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W16" s="37"/>
       <c r="X16" s="37"/>
       <c r="Y16" s="37"/>
@@ -2340,11 +2380,11 @@
       </c>
       <c r="E17" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>20</v>
@@ -2388,8 +2428,12 @@
       <c r="T17" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
+      <c r="U17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V17" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W17" s="37"/>
       <c r="X17" s="37"/>
       <c r="Y17" s="37"/>
@@ -2412,11 +2456,11 @@
       </c>
       <c r="E18" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>20</v>
@@ -2460,8 +2504,12 @@
       <c r="T18" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
+      <c r="U18" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V18" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W18" s="37"/>
       <c r="X18" s="37"/>
       <c r="Y18" s="37"/>
@@ -2488,7 +2536,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G19" s="35" t="s">
         <v>21</v>
@@ -2532,8 +2580,12 @@
       <c r="T19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
+      <c r="U19" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V19" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W19" s="37"/>
       <c r="X19" s="37"/>
       <c r="Y19" s="37"/>
@@ -2556,11 +2608,11 @@
       </c>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>20</v>
@@ -2604,8 +2656,12 @@
       <c r="T20" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
+      <c r="U20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V20" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W20" s="37"/>
       <c r="X20" s="37"/>
       <c r="Y20" s="37"/>
@@ -2632,7 +2688,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G21" s="35" t="s">
         <v>21</v>
@@ -2676,8 +2732,12 @@
       <c r="T21" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
+      <c r="U21" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V21" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W21" s="37"/>
       <c r="X21" s="37"/>
       <c r="Y21" s="37"/>
@@ -2704,7 +2764,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>20</v>
@@ -2748,8 +2808,12 @@
       <c r="T22" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
+      <c r="U22" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V22" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W22" s="37"/>
       <c r="X22" s="37"/>
       <c r="Y22" s="37"/>
@@ -2776,7 +2840,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G23" s="35" t="s">
         <v>20</v>
@@ -2820,8 +2884,12 @@
       <c r="T23" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
+      <c r="U23" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V23" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W23" s="37"/>
       <c r="X23" s="37"/>
       <c r="Y23" s="37"/>
@@ -2844,11 +2912,11 @@
       </c>
       <c r="E24" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>20</v>
@@ -2892,8 +2960,12 @@
       <c r="T24" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
+      <c r="U24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V24" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W24" s="37"/>
       <c r="X24" s="37"/>
       <c r="Y24" s="37"/>
@@ -2916,11 +2988,11 @@
       </c>
       <c r="E25" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>21</v>
@@ -2964,8 +3036,12 @@
       <c r="T25" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
+      <c r="U25" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V25" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W25" s="37"/>
       <c r="X25" s="37"/>
       <c r="Y25" s="37"/>
@@ -2992,7 +3068,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>20</v>
@@ -3036,8 +3112,12 @@
       <c r="T26" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
+      <c r="U26" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V26" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W26" s="37"/>
       <c r="X26" s="37"/>
       <c r="Y26" s="37"/>
@@ -3064,7 +3144,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G27" s="35" t="s">
         <v>20</v>
@@ -3108,8 +3188,12 @@
       <c r="T27" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
+      <c r="U27" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V27" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W27" s="37"/>
       <c r="X27" s="37"/>
       <c r="Y27" s="37"/>
@@ -3136,7 +3220,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>20</v>
@@ -3180,8 +3264,12 @@
       <c r="T28" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
+      <c r="U28" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V28" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W28" s="37"/>
       <c r="X28" s="37"/>
       <c r="Y28" s="37"/>
@@ -3208,7 +3296,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G29" s="35" t="s">
         <v>20</v>
@@ -3252,8 +3340,12 @@
       <c r="T29" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
+      <c r="U29" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V29" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W29" s="37"/>
       <c r="X29" s="37"/>
       <c r="Y29" s="37"/>
@@ -3280,7 +3372,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>21</v>
@@ -3324,8 +3416,12 @@
       <c r="T30" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37"/>
+      <c r="U30" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V30" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W30" s="37"/>
       <c r="X30" s="37"/>
       <c r="Y30" s="37"/>
@@ -3352,7 +3448,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>20</v>
@@ -3396,8 +3492,12 @@
       <c r="T31" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
+      <c r="U31" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V31" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W31" s="37"/>
       <c r="X31" s="37"/>
       <c r="Y31" s="37"/>
@@ -3420,11 +3520,11 @@
       </c>
       <c r="E32" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>21</v>
@@ -3468,8 +3568,12 @@
       <c r="T32" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
+      <c r="U32" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V32" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W32" s="37"/>
       <c r="X32" s="37"/>
       <c r="Y32" s="37"/>
@@ -3496,7 +3600,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>20</v>
@@ -3540,8 +3644,12 @@
       <c r="T33" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
+      <c r="U33" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V33" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W33" s="37"/>
       <c r="X33" s="37"/>
       <c r="Y33" s="37"/>
@@ -3568,7 +3676,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>20</v>
@@ -3612,8 +3720,12 @@
       <c r="T34" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
+      <c r="U34" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V34" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W34" s="37"/>
       <c r="X34" s="37"/>
       <c r="Y34" s="37"/>
@@ -3636,11 +3748,11 @@
       </c>
       <c r="E35" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>20</v>
@@ -3684,8 +3796,12 @@
       <c r="T35" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
+      <c r="U35" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V35" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W35" s="37"/>
       <c r="X35" s="37"/>
       <c r="Y35" s="37"/>
@@ -3708,11 +3824,11 @@
       </c>
       <c r="E36" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>20</v>
@@ -3756,8 +3872,12 @@
       <c r="T36" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
+      <c r="U36" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V36" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W36" s="37"/>
       <c r="X36" s="37"/>
       <c r="Y36" s="37"/>
@@ -3784,7 +3904,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G37" s="35" t="s">
         <v>20</v>
@@ -3828,8 +3948,12 @@
       <c r="T37" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
+      <c r="U37" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V37" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W37" s="37"/>
       <c r="X37" s="37"/>
       <c r="Y37" s="37"/>
@@ -3856,7 +3980,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>21</v>
@@ -3900,8 +4024,12 @@
       <c r="T38" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
+      <c r="U38" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V38" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W38" s="37"/>
       <c r="X38" s="37"/>
       <c r="Y38" s="37"/>
@@ -3928,7 +4056,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>20</v>
@@ -3972,8 +4100,12 @@
       <c r="T39" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U39" s="37"/>
-      <c r="V39" s="37"/>
+      <c r="U39" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V39" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W39" s="37"/>
       <c r="X39" s="37"/>
       <c r="Y39" s="37"/>
@@ -4000,7 +4132,7 @@
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>20</v>
@@ -4044,8 +4176,12 @@
       <c r="T40" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U40" s="37"/>
-      <c r="V40" s="37"/>
+      <c r="U40" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V40" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W40" s="37"/>
       <c r="X40" s="37"/>
       <c r="Y40" s="37"/>
@@ -4068,11 +4204,11 @@
       </c>
       <c r="E41" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" s="35" t="s">
         <v>20</v>
@@ -4116,8 +4252,12 @@
       <c r="T41" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U41" s="37"/>
-      <c r="V41" s="37"/>
+      <c r="U41" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V41" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W41" s="37"/>
       <c r="X41" s="37"/>
       <c r="Y41" s="37"/>
@@ -4144,7 +4284,7 @@
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G42" s="35" t="s">
         <v>20</v>
@@ -4188,8 +4328,12 @@
       <c r="T42" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U42" s="37"/>
-      <c r="V42" s="37"/>
+      <c r="U42" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V42" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W42" s="37"/>
       <c r="X42" s="37"/>
       <c r="Y42" s="37"/>
@@ -4216,7 +4360,7 @@
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>20</v>
@@ -4260,8 +4404,12 @@
       <c r="T43" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U43" s="37"/>
-      <c r="V43" s="37"/>
+      <c r="U43" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V43" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W43" s="37"/>
       <c r="X43" s="37"/>
       <c r="Y43" s="37"/>
@@ -4288,7 +4436,7 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G44" s="35" t="s">
         <v>20</v>
@@ -4332,8 +4480,12 @@
       <c r="T44" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U44" s="37"/>
-      <c r="V44" s="37"/>
+      <c r="U44" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V44" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W44" s="37"/>
       <c r="X44" s="37"/>
       <c r="Y44" s="37"/>
@@ -4356,11 +4508,11 @@
       </c>
       <c r="E45" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G45" s="35" t="s">
         <v>20</v>
@@ -4404,8 +4556,12 @@
       <c r="T45" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U45" s="37"/>
-      <c r="V45" s="37"/>
+      <c r="U45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V45" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W45" s="37"/>
       <c r="X45" s="37"/>
       <c r="Y45" s="37"/>
@@ -4428,11 +4584,11 @@
       </c>
       <c r="E46" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G46" s="35" t="s">
         <v>20</v>
@@ -4476,8 +4632,12 @@
       <c r="T46" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U46" s="37"/>
-      <c r="V46" s="37"/>
+      <c r="U46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V46" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W46" s="37"/>
       <c r="X46" s="37"/>
       <c r="Y46" s="37"/>
@@ -4504,7 +4664,7 @@
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G47" s="35" t="s">
         <v>20</v>
@@ -4548,8 +4708,12 @@
       <c r="T47" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U47" s="37"/>
-      <c r="V47" s="37"/>
+      <c r="U47" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V47" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W47" s="37"/>
       <c r="X47" s="37"/>
       <c r="Y47" s="37"/>
@@ -4572,11 +4736,11 @@
       </c>
       <c r="E48" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" s="35" t="s">
         <v>20</v>
@@ -4620,8 +4784,12 @@
       <c r="T48" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U48" s="37"/>
-      <c r="V48" s="37"/>
+      <c r="U48" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V48" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W48" s="37"/>
       <c r="X48" s="37"/>
       <c r="Y48" s="37"/>
@@ -4648,7 +4816,7 @@
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G49" s="35" t="s">
         <v>20</v>
@@ -4692,8 +4860,12 @@
       <c r="T49" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U49" s="37"/>
-      <c r="V49" s="37"/>
+      <c r="U49" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V49" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W49" s="37"/>
       <c r="X49" s="37"/>
       <c r="Y49" s="37"/>
@@ -4720,7 +4892,7 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G50" s="35" t="s">
         <v>20</v>
@@ -4764,8 +4936,12 @@
       <c r="T50" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U50" s="37"/>
-      <c r="V50" s="37"/>
+      <c r="U50" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V50" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W50" s="37"/>
       <c r="X50" s="37"/>
       <c r="Y50" s="37"/>
@@ -4792,7 +4968,7 @@
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G51" s="35" t="s">
         <v>20</v>
@@ -4836,8 +5012,12 @@
       <c r="T51" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U51" s="37"/>
-      <c r="V51" s="37"/>
+      <c r="U51" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V51" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W51" s="37"/>
       <c r="X51" s="37"/>
       <c r="Y51" s="37"/>
@@ -4864,7 +5044,7 @@
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G52" s="35" t="s">
         <v>20</v>
@@ -4908,8 +5088,12 @@
       <c r="T52" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U52" s="37"/>
-      <c r="V52" s="37"/>
+      <c r="U52" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V52" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W52" s="37"/>
       <c r="X52" s="37"/>
       <c r="Y52" s="37"/>
@@ -4936,7 +5120,7 @@
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G53" s="35" t="s">
         <v>20</v>
@@ -4980,8 +5164,12 @@
       <c r="T53" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U53" s="37"/>
-      <c r="V53" s="37"/>
+      <c r="U53" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V53" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W53" s="37"/>
       <c r="X53" s="37"/>
       <c r="Y53" s="37"/>
@@ -5004,11 +5192,11 @@
       </c>
       <c r="E54" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G54" s="35" t="s">
         <v>20</v>
@@ -5052,8 +5240,12 @@
       <c r="T54" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U54" s="37"/>
-      <c r="V54" s="37"/>
+      <c r="U54" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V54" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W54" s="37"/>
       <c r="X54" s="37"/>
       <c r="Y54" s="37"/>
@@ -5076,11 +5268,11 @@
       </c>
       <c r="E55" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G55" s="35" t="s">
         <v>20</v>
@@ -5124,8 +5316,12 @@
       <c r="T55" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U55" s="37"/>
-      <c r="V55" s="37"/>
+      <c r="U55" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V55" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W55" s="37"/>
       <c r="X55" s="37"/>
       <c r="Y55" s="37"/>
@@ -5148,11 +5344,11 @@
       </c>
       <c r="E56" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G56" s="35" t="s">
         <v>20</v>
@@ -5196,8 +5392,12 @@
       <c r="T56" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U56" s="37"/>
-      <c r="V56" s="37"/>
+      <c r="U56" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V56" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W56" s="37"/>
       <c r="X56" s="37"/>
       <c r="Y56" s="37"/>
@@ -5224,7 +5424,7 @@
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G57" s="35" t="s">
         <v>20</v>
@@ -5268,8 +5468,12 @@
       <c r="T57" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U57" s="37"/>
-      <c r="V57" s="37"/>
+      <c r="U57" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V57" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W57" s="37"/>
       <c r="X57" s="37"/>
       <c r="Y57" s="37"/>
@@ -5292,11 +5496,11 @@
       </c>
       <c r="E58" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>20</v>
@@ -5340,8 +5544,12 @@
       <c r="T58" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U58" s="37"/>
-      <c r="V58" s="37"/>
+      <c r="U58" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V58" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W58" s="37"/>
       <c r="X58" s="37"/>
       <c r="Y58" s="37"/>
@@ -5368,7 +5576,7 @@
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G59" s="35" t="s">
         <v>21</v>
@@ -5412,8 +5620,12 @@
       <c r="T59" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U59" s="37"/>
-      <c r="V59" s="37"/>
+      <c r="U59" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V59" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W59" s="37"/>
       <c r="X59" s="37"/>
       <c r="Y59" s="37"/>
@@ -5440,7 +5652,7 @@
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G60" s="35" t="s">
         <v>20</v>
@@ -5484,8 +5696,12 @@
       <c r="T60" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U60" s="37"/>
-      <c r="V60" s="37"/>
+      <c r="U60" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V60" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W60" s="37"/>
       <c r="X60" s="37"/>
       <c r="Y60" s="37"/>
@@ -5512,7 +5728,7 @@
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G61" s="35" t="s">
         <v>20</v>
@@ -5556,8 +5772,12 @@
       <c r="T61" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U61" s="37"/>
-      <c r="V61" s="37"/>
+      <c r="U61" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V61" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W61" s="37"/>
       <c r="X61" s="37"/>
       <c r="Y61" s="37"/>
@@ -5584,7 +5804,7 @@
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G62" s="35" t="s">
         <v>20</v>
@@ -5628,8 +5848,12 @@
       <c r="T62" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U62" s="37"/>
-      <c r="V62" s="37"/>
+      <c r="U62" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V62" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W62" s="37"/>
       <c r="X62" s="37"/>
       <c r="Y62" s="37"/>
@@ -5652,11 +5876,11 @@
       </c>
       <c r="E63" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" s="35" t="s">
         <v>20</v>
@@ -5700,8 +5924,12 @@
       <c r="T63" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U63" s="37"/>
-      <c r="V63" s="37"/>
+      <c r="U63" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V63" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W63" s="37"/>
       <c r="X63" s="37"/>
       <c r="Y63" s="37"/>
@@ -5724,7 +5952,7 @@
       </c>
       <c r="E64" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
@@ -5772,8 +6000,12 @@
       <c r="T64" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U64" s="37"/>
-      <c r="V64" s="37"/>
+      <c r="U64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V64" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W64" s="37"/>
       <c r="X64" s="37"/>
       <c r="Y64" s="37"/>
@@ -5800,7 +6032,7 @@
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G65" s="35" t="s">
         <v>20</v>
@@ -5844,8 +6076,12 @@
       <c r="T65" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U65" s="37"/>
-      <c r="V65" s="37"/>
+      <c r="U65" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V65" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W65" s="37"/>
       <c r="X65" s="37"/>
       <c r="Y65" s="37"/>
@@ -5872,7 +6108,7 @@
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G66" s="35" t="s">
         <v>20</v>
@@ -5916,8 +6152,12 @@
       <c r="T66" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U66" s="37"/>
-      <c r="V66" s="37"/>
+      <c r="U66" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V66" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W66" s="37"/>
       <c r="X66" s="37"/>
       <c r="Y66" s="37"/>
@@ -5940,11 +6180,11 @@
       </c>
       <c r="E67" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" s="35" t="s">
         <v>20</v>
@@ -5988,8 +6228,12 @@
       <c r="T67" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U67" s="37"/>
-      <c r="V67" s="37"/>
+      <c r="U67" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V67" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W67" s="37"/>
       <c r="X67" s="37"/>
       <c r="Y67" s="37"/>
@@ -6016,7 +6260,7 @@
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G68" s="35" t="s">
         <v>20</v>
@@ -6060,8 +6304,12 @@
       <c r="T68" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U68" s="37"/>
-      <c r="V68" s="37"/>
+      <c r="U68" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V68" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W68" s="37"/>
       <c r="X68" s="37"/>
       <c r="Y68" s="37"/>
@@ -6088,7 +6336,7 @@
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G69" s="35" t="s">
         <v>20</v>
@@ -6132,8 +6380,12 @@
       <c r="T69" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U69" s="37"/>
-      <c r="V69" s="37"/>
+      <c r="U69" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V69" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W69" s="37"/>
       <c r="X69" s="37"/>
       <c r="Y69" s="37"/>
@@ -6160,7 +6412,7 @@
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G70" s="35" t="s">
         <v>20</v>
@@ -6204,8 +6456,12 @@
       <c r="T70" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U70" s="37"/>
-      <c r="V70" s="37"/>
+      <c r="U70" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V70" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W70" s="37"/>
       <c r="X70" s="37"/>
       <c r="Y70" s="37"/>
@@ -6232,7 +6488,7 @@
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G71" s="35" t="s">
         <v>20</v>
@@ -6276,8 +6532,12 @@
       <c r="T71" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U71" s="37"/>
-      <c r="V71" s="37"/>
+      <c r="U71" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V71" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W71" s="37"/>
       <c r="X71" s="37"/>
       <c r="Y71" s="37"/>
@@ -6300,11 +6560,11 @@
       </c>
       <c r="E72" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G72" s="35" t="s">
         <v>20</v>
@@ -6348,8 +6608,12 @@
       <c r="T72" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U72" s="37"/>
-      <c r="V72" s="37"/>
+      <c r="U72" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V72" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="W72" s="37"/>
       <c r="X72" s="37"/>
       <c r="Y72" s="37"/>
@@ -6376,7 +6640,7 @@
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G73" s="35" t="s">
         <v>20</v>
@@ -6420,8 +6684,12 @@
       <c r="T73" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U73" s="37"/>
-      <c r="V73" s="37"/>
+      <c r="U73" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V73" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W73" s="37"/>
       <c r="X73" s="37"/>
       <c r="Y73" s="37"/>
@@ -6448,7 +6716,7 @@
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G74" s="35" t="s">
         <v>20</v>
@@ -6492,8 +6760,12 @@
       <c r="T74" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U74" s="37"/>
-      <c r="V74" s="37"/>
+      <c r="U74" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V74" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W74" s="37"/>
       <c r="X74" s="37"/>
       <c r="Y74" s="37"/>
@@ -6520,7 +6792,7 @@
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G75" s="35" t="s">
         <v>20</v>
@@ -6564,8 +6836,12 @@
       <c r="T75" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="U75" s="37"/>
-      <c r="V75" s="37"/>
+      <c r="U75" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V75" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="W75" s="37"/>
       <c r="X75" s="37"/>
       <c r="Y75" s="37"/>

--- a/attendance-files/MR/MR-B (EFGH) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-B (EFGH) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="159">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1229,7 +1229,7 @@
     <col customWidth="1" min="3" max="3" width="30.25"/>
     <col customWidth="1" min="4" max="4" width="10.13"/>
     <col customWidth="1" min="5" max="6" width="12.75"/>
-    <col customWidth="1" min="7" max="26" width="10.75"/>
+    <col customWidth="1" min="7" max="26" width="4.38"/>
     <col customWidth="1" min="27" max="27" width="9.0"/>
   </cols>
   <sheetData>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1674,8 +1674,12 @@
       <c r="V7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
+      <c r="W7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="X7" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="Y7" s="30"/>
       <c r="Z7" s="30"/>
       <c r="AA7" s="30"/>
@@ -1700,7 +1704,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>20</v>
@@ -1750,8 +1754,12 @@
       <c r="V8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
+      <c r="W8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X8" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y8" s="37"/>
       <c r="Z8" s="37"/>
       <c r="AA8" s="37"/>
@@ -1776,7 +1784,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>20</v>
@@ -1826,8 +1834,12 @@
       <c r="V9" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
+      <c r="W9" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X9" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y9" s="37"/>
       <c r="Z9" s="37"/>
       <c r="AA9" s="37"/>
@@ -1848,11 +1860,11 @@
       </c>
       <c r="E10" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>21</v>
@@ -1902,8 +1914,12 @@
       <c r="V10" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
+      <c r="W10" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X10" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y10" s="37"/>
       <c r="Z10" s="37"/>
       <c r="AA10" s="37"/>
@@ -1928,7 +1944,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>21</v>
@@ -1978,8 +1994,12 @@
       <c r="V11" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
+      <c r="W11" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X11" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y11" s="37"/>
       <c r="Z11" s="37"/>
       <c r="AA11" s="37"/>
@@ -2004,7 +2024,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>20</v>
@@ -2054,8 +2074,12 @@
       <c r="V12" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
+      <c r="W12" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X12" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y12" s="37"/>
       <c r="Z12" s="37"/>
       <c r="AA12" s="37"/>
@@ -2080,7 +2104,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>20</v>
@@ -2130,8 +2154,12 @@
       <c r="V13" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
+      <c r="W13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X13" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y13" s="37"/>
       <c r="Z13" s="37"/>
       <c r="AA13" s="37"/>
@@ -2156,7 +2184,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>21</v>
@@ -2206,8 +2234,12 @@
       <c r="V14" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
+      <c r="W14" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X14" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y14" s="37"/>
       <c r="Z14" s="37"/>
       <c r="AA14" s="37"/>
@@ -2232,7 +2264,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G15" s="35" t="s">
         <v>20</v>
@@ -2282,8 +2314,12 @@
       <c r="V15" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
+      <c r="W15" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X15" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y15" s="37"/>
       <c r="Z15" s="37"/>
       <c r="AA15" s="37"/>
@@ -2308,7 +2344,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>20</v>
@@ -2358,8 +2394,12 @@
       <c r="V16" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
+      <c r="W16" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X16" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y16" s="37"/>
       <c r="Z16" s="37"/>
       <c r="AA16" s="37"/>
@@ -2384,7 +2424,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>20</v>
@@ -2434,8 +2474,12 @@
       <c r="V17" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
+      <c r="W17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X17" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y17" s="37"/>
       <c r="Z17" s="37"/>
       <c r="AA17" s="37"/>
@@ -2456,11 +2500,11 @@
       </c>
       <c r="E18" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>20</v>
@@ -2510,8 +2554,12 @@
       <c r="V18" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
+      <c r="W18" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X18" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y18" s="37"/>
       <c r="Z18" s="37"/>
       <c r="AA18" s="37"/>
@@ -2536,7 +2584,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G19" s="35" t="s">
         <v>21</v>
@@ -2586,8 +2634,12 @@
       <c r="V19" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
+      <c r="W19" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X19" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y19" s="37"/>
       <c r="Z19" s="37"/>
       <c r="AA19" s="37"/>
@@ -2608,11 +2660,11 @@
       </c>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>20</v>
@@ -2662,8 +2714,12 @@
       <c r="V20" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
+      <c r="W20" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X20" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y20" s="37"/>
       <c r="Z20" s="37"/>
       <c r="AA20" s="37"/>
@@ -2684,11 +2740,11 @@
       </c>
       <c r="E21" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G21" s="35" t="s">
         <v>21</v>
@@ -2738,8 +2794,12 @@
       <c r="V21" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
+      <c r="W21" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X21" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y21" s="37"/>
       <c r="Z21" s="37"/>
       <c r="AA21" s="37"/>
@@ -2764,7 +2824,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>20</v>
@@ -2814,8 +2874,12 @@
       <c r="V22" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
+      <c r="W22" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X22" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y22" s="37"/>
       <c r="Z22" s="37"/>
       <c r="AA22" s="37"/>
@@ -2840,7 +2904,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G23" s="35" t="s">
         <v>20</v>
@@ -2890,8 +2954,12 @@
       <c r="V23" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
+      <c r="W23" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X23" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y23" s="37"/>
       <c r="Z23" s="37"/>
       <c r="AA23" s="37"/>
@@ -2916,7 +2984,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>20</v>
@@ -2966,8 +3034,12 @@
       <c r="V24" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
+      <c r="W24" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X24" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y24" s="37"/>
       <c r="Z24" s="37"/>
       <c r="AA24" s="37"/>
@@ -2988,11 +3060,11 @@
       </c>
       <c r="E25" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>21</v>
@@ -3042,8 +3114,12 @@
       <c r="V25" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W25" s="37"/>
-      <c r="X25" s="37"/>
+      <c r="W25" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X25" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y25" s="37"/>
       <c r="Z25" s="37"/>
       <c r="AA25" s="37"/>
@@ -3064,11 +3140,11 @@
       </c>
       <c r="E26" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>20</v>
@@ -3118,8 +3194,12 @@
       <c r="V26" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
+      <c r="W26" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X26" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y26" s="37"/>
       <c r="Z26" s="37"/>
       <c r="AA26" s="37"/>
@@ -3140,11 +3220,11 @@
       </c>
       <c r="E27" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G27" s="35" t="s">
         <v>20</v>
@@ -3194,8 +3274,12 @@
       <c r="V27" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
+      <c r="W27" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X27" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y27" s="37"/>
       <c r="Z27" s="37"/>
       <c r="AA27" s="37"/>
@@ -3220,7 +3304,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>20</v>
@@ -3270,8 +3354,12 @@
       <c r="V28" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
+      <c r="W28" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X28" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y28" s="37"/>
       <c r="Z28" s="37"/>
       <c r="AA28" s="37"/>
@@ -3296,7 +3384,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G29" s="35" t="s">
         <v>20</v>
@@ -3346,8 +3434,12 @@
       <c r="V29" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
+      <c r="W29" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X29" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y29" s="37"/>
       <c r="Z29" s="37"/>
       <c r="AA29" s="37"/>
@@ -3372,7 +3464,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>21</v>
@@ -3422,8 +3514,12 @@
       <c r="V30" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W30" s="37"/>
-      <c r="X30" s="37"/>
+      <c r="W30" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X30" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y30" s="37"/>
       <c r="Z30" s="37"/>
       <c r="AA30" s="37"/>
@@ -3448,7 +3544,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>20</v>
@@ -3498,8 +3594,12 @@
       <c r="V31" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
+      <c r="W31" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X31" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y31" s="37"/>
       <c r="Z31" s="37"/>
       <c r="AA31" s="37"/>
@@ -3524,7 +3624,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>21</v>
@@ -3574,8 +3674,12 @@
       <c r="V32" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
+      <c r="W32" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X32" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y32" s="37"/>
       <c r="Z32" s="37"/>
       <c r="AA32" s="37"/>
@@ -3600,7 +3704,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>20</v>
@@ -3650,8 +3754,12 @@
       <c r="V33" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
+      <c r="W33" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X33" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y33" s="37"/>
       <c r="Z33" s="37"/>
       <c r="AA33" s="37"/>
@@ -3672,11 +3780,11 @@
       </c>
       <c r="E34" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>20</v>
@@ -3726,8 +3834,12 @@
       <c r="V34" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
+      <c r="W34" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X34" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y34" s="37"/>
       <c r="Z34" s="37"/>
       <c r="AA34" s="37"/>
@@ -3752,7 +3864,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>20</v>
@@ -3802,8 +3914,12 @@
       <c r="V35" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
+      <c r="W35" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X35" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y35" s="37"/>
       <c r="Z35" s="37"/>
       <c r="AA35" s="37"/>
@@ -3828,7 +3944,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>20</v>
@@ -3878,8 +3994,12 @@
       <c r="V36" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
+      <c r="W36" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X36" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y36" s="37"/>
       <c r="Z36" s="37"/>
       <c r="AA36" s="37"/>
@@ -3904,7 +4024,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G37" s="35" t="s">
         <v>20</v>
@@ -3954,8 +4074,12 @@
       <c r="V37" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
+      <c r="W37" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X37" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y37" s="37"/>
       <c r="Z37" s="37"/>
       <c r="AA37" s="37"/>
@@ -3980,7 +4104,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>21</v>
@@ -4030,8 +4154,12 @@
       <c r="V38" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
+      <c r="W38" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X38" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y38" s="37"/>
       <c r="Z38" s="37"/>
       <c r="AA38" s="37"/>
@@ -4056,7 +4184,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>20</v>
@@ -4106,8 +4234,12 @@
       <c r="V39" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W39" s="37"/>
-      <c r="X39" s="37"/>
+      <c r="W39" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X39" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y39" s="37"/>
       <c r="Z39" s="37"/>
       <c r="AA39" s="37"/>
@@ -4132,7 +4264,7 @@
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>20</v>
@@ -4182,8 +4314,12 @@
       <c r="V40" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W40" s="37"/>
-      <c r="X40" s="37"/>
+      <c r="W40" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X40" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y40" s="37"/>
       <c r="Z40" s="37"/>
       <c r="AA40" s="37"/>
@@ -4208,7 +4344,7 @@
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G41" s="35" t="s">
         <v>20</v>
@@ -4258,8 +4394,12 @@
       <c r="V41" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W41" s="37"/>
-      <c r="X41" s="37"/>
+      <c r="W41" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X41" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y41" s="37"/>
       <c r="Z41" s="37"/>
       <c r="AA41" s="37"/>
@@ -4284,7 +4424,7 @@
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G42" s="35" t="s">
         <v>20</v>
@@ -4334,8 +4474,12 @@
       <c r="V42" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W42" s="37"/>
-      <c r="X42" s="37"/>
+      <c r="W42" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X42" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y42" s="37"/>
       <c r="Z42" s="37"/>
       <c r="AA42" s="37"/>
@@ -4356,11 +4500,11 @@
       </c>
       <c r="E43" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>20</v>
@@ -4410,8 +4554,12 @@
       <c r="V43" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W43" s="37"/>
-      <c r="X43" s="37"/>
+      <c r="W43" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X43" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y43" s="37"/>
       <c r="Z43" s="37"/>
       <c r="AA43" s="37"/>
@@ -4436,7 +4584,7 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G44" s="35" t="s">
         <v>20</v>
@@ -4486,8 +4634,12 @@
       <c r="V44" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W44" s="37"/>
-      <c r="X44" s="37"/>
+      <c r="W44" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X44" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y44" s="37"/>
       <c r="Z44" s="37"/>
       <c r="AA44" s="37"/>
@@ -4512,7 +4664,7 @@
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G45" s="35" t="s">
         <v>20</v>
@@ -4562,8 +4714,12 @@
       <c r="V45" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W45" s="37"/>
-      <c r="X45" s="37"/>
+      <c r="W45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X45" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y45" s="37"/>
       <c r="Z45" s="37"/>
       <c r="AA45" s="37"/>
@@ -4588,7 +4744,7 @@
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G46" s="35" t="s">
         <v>20</v>
@@ -4638,8 +4794,12 @@
       <c r="V46" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W46" s="37"/>
-      <c r="X46" s="37"/>
+      <c r="W46" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X46" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y46" s="37"/>
       <c r="Z46" s="37"/>
       <c r="AA46" s="37"/>
@@ -4664,7 +4824,7 @@
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G47" s="35" t="s">
         <v>20</v>
@@ -4714,8 +4874,12 @@
       <c r="V47" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W47" s="37"/>
-      <c r="X47" s="37"/>
+      <c r="W47" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X47" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y47" s="37"/>
       <c r="Z47" s="37"/>
       <c r="AA47" s="37"/>
@@ -4740,7 +4904,7 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G48" s="35" t="s">
         <v>20</v>
@@ -4790,8 +4954,12 @@
       <c r="V48" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W48" s="37"/>
-      <c r="X48" s="37"/>
+      <c r="W48" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X48" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y48" s="37"/>
       <c r="Z48" s="37"/>
       <c r="AA48" s="37"/>
@@ -4816,7 +4984,7 @@
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G49" s="35" t="s">
         <v>20</v>
@@ -4866,8 +5034,12 @@
       <c r="V49" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W49" s="37"/>
-      <c r="X49" s="37"/>
+      <c r="W49" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X49" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y49" s="37"/>
       <c r="Z49" s="37"/>
       <c r="AA49" s="37"/>
@@ -4888,11 +5060,11 @@
       </c>
       <c r="E50" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G50" s="35" t="s">
         <v>20</v>
@@ -4942,8 +5114,12 @@
       <c r="V50" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W50" s="37"/>
-      <c r="X50" s="37"/>
+      <c r="W50" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X50" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y50" s="37"/>
       <c r="Z50" s="37"/>
       <c r="AA50" s="37"/>
@@ -4968,7 +5144,7 @@
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G51" s="35" t="s">
         <v>20</v>
@@ -5018,8 +5194,12 @@
       <c r="V51" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W51" s="37"/>
-      <c r="X51" s="37"/>
+      <c r="W51" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X51" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y51" s="37"/>
       <c r="Z51" s="37"/>
       <c r="AA51" s="37"/>
@@ -5044,7 +5224,7 @@
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G52" s="35" t="s">
         <v>20</v>
@@ -5094,8 +5274,12 @@
       <c r="V52" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W52" s="37"/>
-      <c r="X52" s="37"/>
+      <c r="W52" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X52" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y52" s="37"/>
       <c r="Z52" s="37"/>
       <c r="AA52" s="37"/>
@@ -5120,7 +5304,7 @@
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G53" s="35" t="s">
         <v>20</v>
@@ -5170,8 +5354,12 @@
       <c r="V53" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W53" s="37"/>
-      <c r="X53" s="37"/>
+      <c r="W53" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X53" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y53" s="37"/>
       <c r="Z53" s="37"/>
       <c r="AA53" s="37"/>
@@ -5196,7 +5384,7 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G54" s="35" t="s">
         <v>20</v>
@@ -5246,8 +5434,12 @@
       <c r="V54" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W54" s="37"/>
-      <c r="X54" s="37"/>
+      <c r="W54" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X54" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y54" s="37"/>
       <c r="Z54" s="37"/>
       <c r="AA54" s="37"/>
@@ -5272,7 +5464,7 @@
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G55" s="35" t="s">
         <v>20</v>
@@ -5322,8 +5514,12 @@
       <c r="V55" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W55" s="37"/>
-      <c r="X55" s="37"/>
+      <c r="W55" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X55" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y55" s="37"/>
       <c r="Z55" s="37"/>
       <c r="AA55" s="37"/>
@@ -5348,7 +5544,7 @@
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G56" s="35" t="s">
         <v>20</v>
@@ -5398,8 +5594,12 @@
       <c r="V56" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W56" s="37"/>
-      <c r="X56" s="37"/>
+      <c r="W56" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X56" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y56" s="37"/>
       <c r="Z56" s="37"/>
       <c r="AA56" s="37"/>
@@ -5424,7 +5624,7 @@
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G57" s="35" t="s">
         <v>20</v>
@@ -5474,8 +5674,12 @@
       <c r="V57" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W57" s="37"/>
-      <c r="X57" s="37"/>
+      <c r="W57" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X57" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y57" s="37"/>
       <c r="Z57" s="37"/>
       <c r="AA57" s="37"/>
@@ -5500,7 +5704,7 @@
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>20</v>
@@ -5550,8 +5754,12 @@
       <c r="V58" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W58" s="37"/>
-      <c r="X58" s="37"/>
+      <c r="W58" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X58" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y58" s="37"/>
       <c r="Z58" s="37"/>
       <c r="AA58" s="37"/>
@@ -5576,7 +5784,7 @@
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G59" s="35" t="s">
         <v>21</v>
@@ -5626,8 +5834,12 @@
       <c r="V59" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W59" s="37"/>
-      <c r="X59" s="37"/>
+      <c r="W59" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X59" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y59" s="37"/>
       <c r="Z59" s="37"/>
       <c r="AA59" s="37"/>
@@ -5648,7 +5860,7 @@
       </c>
       <c r="E60" s="26">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
@@ -5702,8 +5914,12 @@
       <c r="V60" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W60" s="37"/>
-      <c r="X60" s="37"/>
+      <c r="W60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X60" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y60" s="37"/>
       <c r="Z60" s="37"/>
       <c r="AA60" s="37"/>
@@ -5728,7 +5944,7 @@
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G61" s="35" t="s">
         <v>20</v>
@@ -5778,8 +5994,12 @@
       <c r="V61" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W61" s="37"/>
-      <c r="X61" s="37"/>
+      <c r="W61" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X61" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y61" s="37"/>
       <c r="Z61" s="37"/>
       <c r="AA61" s="37"/>
@@ -5804,7 +6024,7 @@
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G62" s="35" t="s">
         <v>20</v>
@@ -5854,8 +6074,12 @@
       <c r="V62" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W62" s="37"/>
-      <c r="X62" s="37"/>
+      <c r="W62" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X62" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y62" s="37"/>
       <c r="Z62" s="37"/>
       <c r="AA62" s="37"/>
@@ -5880,7 +6104,7 @@
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G63" s="35" t="s">
         <v>20</v>
@@ -5930,8 +6154,12 @@
       <c r="V63" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W63" s="37"/>
-      <c r="X63" s="37"/>
+      <c r="W63" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X63" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y63" s="37"/>
       <c r="Z63" s="37"/>
       <c r="AA63" s="37"/>
@@ -5952,11 +6180,11 @@
       </c>
       <c r="E64" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G64" s="35" t="s">
         <v>21</v>
@@ -6006,8 +6234,12 @@
       <c r="V64" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W64" s="37"/>
-      <c r="X64" s="37"/>
+      <c r="W64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X64" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y64" s="37"/>
       <c r="Z64" s="37"/>
       <c r="AA64" s="37"/>
@@ -6028,11 +6260,11 @@
       </c>
       <c r="E65" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G65" s="35" t="s">
         <v>20</v>
@@ -6082,8 +6314,12 @@
       <c r="V65" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W65" s="37"/>
-      <c r="X65" s="37"/>
+      <c r="W65" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X65" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y65" s="37"/>
       <c r="Z65" s="37"/>
       <c r="AA65" s="37"/>
@@ -6108,7 +6344,7 @@
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G66" s="35" t="s">
         <v>20</v>
@@ -6158,8 +6394,12 @@
       <c r="V66" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W66" s="37"/>
-      <c r="X66" s="37"/>
+      <c r="W66" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X66" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y66" s="37"/>
       <c r="Z66" s="37"/>
       <c r="AA66" s="37"/>
@@ -6184,7 +6424,7 @@
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G67" s="35" t="s">
         <v>20</v>
@@ -6234,8 +6474,12 @@
       <c r="V67" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W67" s="37"/>
-      <c r="X67" s="37"/>
+      <c r="W67" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X67" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y67" s="37"/>
       <c r="Z67" s="37"/>
       <c r="AA67" s="37"/>
@@ -6260,7 +6504,7 @@
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G68" s="35" t="s">
         <v>20</v>
@@ -6310,8 +6554,12 @@
       <c r="V68" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W68" s="37"/>
-      <c r="X68" s="37"/>
+      <c r="W68" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X68" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y68" s="37"/>
       <c r="Z68" s="37"/>
       <c r="AA68" s="37"/>
@@ -6336,7 +6584,7 @@
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G69" s="35" t="s">
         <v>20</v>
@@ -6386,8 +6634,12 @@
       <c r="V69" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W69" s="37"/>
-      <c r="X69" s="37"/>
+      <c r="W69" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X69" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y69" s="37"/>
       <c r="Z69" s="37"/>
       <c r="AA69" s="37"/>
@@ -6408,11 +6660,11 @@
       </c>
       <c r="E70" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" s="35" t="s">
         <v>20</v>
@@ -6462,8 +6714,12 @@
       <c r="V70" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W70" s="37"/>
-      <c r="X70" s="37"/>
+      <c r="W70" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X70" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="Y70" s="37"/>
       <c r="Z70" s="37"/>
       <c r="AA70" s="37"/>
@@ -6488,7 +6744,7 @@
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G71" s="35" t="s">
         <v>20</v>
@@ -6538,8 +6794,12 @@
       <c r="V71" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W71" s="37"/>
-      <c r="X71" s="37"/>
+      <c r="W71" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X71" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y71" s="37"/>
       <c r="Z71" s="37"/>
       <c r="AA71" s="37"/>
@@ -6560,11 +6820,11 @@
       </c>
       <c r="E72" s="26">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G72" s="35" t="s">
         <v>20</v>
@@ -6612,10 +6872,14 @@
         <v>21</v>
       </c>
       <c r="V72" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W72" s="37"/>
-      <c r="X72" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="W72" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X72" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y72" s="37"/>
       <c r="Z72" s="37"/>
       <c r="AA72" s="37"/>
@@ -6636,11 +6900,11 @@
       </c>
       <c r="E73" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" s="35" t="s">
         <v>20</v>
@@ -6690,8 +6954,12 @@
       <c r="V73" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W73" s="37"/>
-      <c r="X73" s="37"/>
+      <c r="W73" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X73" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y73" s="37"/>
       <c r="Z73" s="37"/>
       <c r="AA73" s="37"/>
@@ -6716,7 +6984,7 @@
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G74" s="35" t="s">
         <v>20</v>
@@ -6766,8 +7034,12 @@
       <c r="V74" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W74" s="37"/>
-      <c r="X74" s="37"/>
+      <c r="W74" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X74" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y74" s="37"/>
       <c r="Z74" s="37"/>
       <c r="AA74" s="37"/>
@@ -6792,7 +7064,7 @@
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G75" s="35" t="s">
         <v>20</v>
@@ -6842,8 +7114,12 @@
       <c r="V75" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="W75" s="37"/>
-      <c r="X75" s="37"/>
+      <c r="W75" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X75" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="Y75" s="37"/>
       <c r="Z75" s="37"/>
       <c r="AA75" s="37"/>

--- a/attendance-files/MR/MR-B (EFGH) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-B (EFGH) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="158">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -316,9 +316,6 @@
   </si>
   <si>
     <t>Lokesh Vidyasagar</t>
-  </si>
-  <si>
-    <t>;P</t>
   </si>
   <si>
     <t>2024PGP478</t>
@@ -880,7 +877,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -979,9 +976,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="25" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -997,18 +991,7 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCD5B4"/>
-          <bgColor rgb="FFFCD5B4"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
@@ -1229,7 +1212,7 @@
     <col customWidth="1" min="3" max="3" width="30.25"/>
     <col customWidth="1" min="4" max="4" width="10.13"/>
     <col customWidth="1" min="5" max="6" width="12.75"/>
-    <col customWidth="1" min="7" max="26" width="4.38"/>
+    <col customWidth="1" min="7" max="26" width="10.75"/>
     <col customWidth="1" min="27" max="27" width="9.0"/>
   </cols>
   <sheetData>
@@ -1620,11 +1603,11 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1635,51 +1618,21 @@
       <c r="I7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="R7" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="S7" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="T7" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="U7" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="V7" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="W7" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="X7" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
       <c r="Y7" s="30"/>
       <c r="Z7" s="30"/>
       <c r="AA7" s="30"/>
@@ -1700,11 +1653,11 @@
       </c>
       <c r="E8" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>20</v>
@@ -1715,51 +1668,21 @@
       <c r="I8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R8" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S8" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T8" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U8" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V8" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W8" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X8" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
       <c r="Y8" s="37"/>
       <c r="Z8" s="37"/>
       <c r="AA8" s="37"/>
@@ -1780,11 +1703,11 @@
       </c>
       <c r="E9" s="26">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>20</v>
@@ -1795,51 +1718,21 @@
       <c r="I9" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P9" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R9" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S9" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T9" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U9" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V9" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W9" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X9" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
       <c r="Y9" s="37"/>
       <c r="Z9" s="37"/>
       <c r="AA9" s="37"/>
@@ -1860,11 +1753,11 @@
       </c>
       <c r="E10" s="26">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>21</v>
@@ -1875,51 +1768,21 @@
       <c r="I10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P10" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q10" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R10" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S10" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T10" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U10" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V10" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W10" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X10" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
       <c r="Y10" s="37"/>
       <c r="Z10" s="37"/>
       <c r="AA10" s="37"/>
@@ -1940,11 +1803,11 @@
       </c>
       <c r="E11" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>21</v>
@@ -1955,51 +1818,21 @@
       <c r="I11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O11" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P11" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q11" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R11" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S11" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T11" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U11" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V11" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W11" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X11" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
       <c r="Y11" s="37"/>
       <c r="Z11" s="37"/>
       <c r="AA11" s="37"/>
@@ -2020,11 +1853,11 @@
       </c>
       <c r="E12" s="26">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>20</v>
@@ -2032,54 +1865,24 @@
       <c r="H12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q12" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S12" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T12" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U12" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V12" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W12" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X12" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="I12" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
       <c r="Y12" s="37"/>
       <c r="Z12" s="37"/>
       <c r="AA12" s="37"/>
@@ -2100,11 +1903,11 @@
       </c>
       <c r="E13" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>20</v>
@@ -2115,51 +1918,21 @@
       <c r="I13" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O13" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P13" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q13" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R13" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S13" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T13" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U13" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V13" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W13" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X13" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
       <c r="Y13" s="37"/>
       <c r="Z13" s="37"/>
       <c r="AA13" s="37"/>
@@ -2184,7 +1957,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>21</v>
@@ -2195,51 +1968,21 @@
       <c r="I14" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O14" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P14" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q14" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R14" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S14" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T14" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U14" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V14" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W14" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X14" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
       <c r="Y14" s="37"/>
       <c r="Z14" s="37"/>
       <c r="AA14" s="37"/>
@@ -2264,7 +2007,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G15" s="35" t="s">
         <v>20</v>
@@ -2275,51 +2018,21 @@
       <c r="I15" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O15" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q15" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R15" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S15" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T15" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U15" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V15" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W15" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X15" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
       <c r="Y15" s="37"/>
       <c r="Z15" s="37"/>
       <c r="AA15" s="37"/>
@@ -2344,7 +2057,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>20</v>
@@ -2355,51 +2068,21 @@
       <c r="I16" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O16" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P16" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q16" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R16" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S16" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T16" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U16" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V16" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W16" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X16" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
       <c r="Y16" s="37"/>
       <c r="Z16" s="37"/>
       <c r="AA16" s="37"/>
@@ -2420,11 +2103,11 @@
       </c>
       <c r="E17" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>20</v>
@@ -2435,51 +2118,21 @@
       <c r="I17" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N17" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O17" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P17" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q17" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S17" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T17" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U17" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V17" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W17" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X17" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
       <c r="Y17" s="37"/>
       <c r="Z17" s="37"/>
       <c r="AA17" s="37"/>
@@ -2500,11 +2153,11 @@
       </c>
       <c r="E18" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>20</v>
@@ -2515,51 +2168,21 @@
       <c r="I18" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O18" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P18" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S18" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T18" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U18" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V18" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W18" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X18" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
       <c r="Y18" s="37"/>
       <c r="Z18" s="37"/>
       <c r="AA18" s="37"/>
@@ -2580,11 +2203,11 @@
       </c>
       <c r="E19" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G19" s="35" t="s">
         <v>21</v>
@@ -2595,51 +2218,21 @@
       <c r="I19" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M19" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N19" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O19" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P19" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R19" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S19" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T19" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U19" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V19" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W19" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X19" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
       <c r="Y19" s="37"/>
       <c r="Z19" s="37"/>
       <c r="AA19" s="37"/>
@@ -2660,11 +2253,11 @@
       </c>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>20</v>
@@ -2675,51 +2268,21 @@
       <c r="I20" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M20" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N20" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O20" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P20" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q20" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R20" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S20" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T20" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U20" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V20" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W20" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X20" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
       <c r="Y20" s="37"/>
       <c r="Z20" s="37"/>
       <c r="AA20" s="37"/>
@@ -2740,12 +2303,12 @@
       </c>
       <c r="E21" s="26">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="34">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F21" s="34">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
       <c r="G21" s="35" t="s">
         <v>21</v>
       </c>
@@ -2755,51 +2318,21 @@
       <c r="I21" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N21" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O21" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P21" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R21" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S21" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T21" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U21" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V21" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W21" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X21" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
       <c r="Y21" s="37"/>
       <c r="Z21" s="37"/>
       <c r="AA21" s="37"/>
@@ -2820,11 +2353,11 @@
       </c>
       <c r="E22" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>20</v>
@@ -2835,51 +2368,21 @@
       <c r="I22" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J22" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M22" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N22" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O22" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P22" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R22" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S22" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T22" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U22" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V22" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W22" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X22" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="37"/>
       <c r="Y22" s="37"/>
       <c r="Z22" s="37"/>
       <c r="AA22" s="37"/>
@@ -2904,7 +2407,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G23" s="35" t="s">
         <v>20</v>
@@ -2915,51 +2418,21 @@
       <c r="I23" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M23" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N23" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O23" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P23" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q23" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R23" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S23" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T23" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U23" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V23" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W23" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X23" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="37"/>
       <c r="Y23" s="37"/>
       <c r="Z23" s="37"/>
       <c r="AA23" s="37"/>
@@ -2980,11 +2453,11 @@
       </c>
       <c r="E24" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>20</v>
@@ -2995,51 +2468,21 @@
       <c r="I24" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N24" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O24" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R24" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S24" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T24" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U24" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V24" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W24" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X24" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
       <c r="Y24" s="37"/>
       <c r="Z24" s="37"/>
       <c r="AA24" s="37"/>
@@ -3060,11 +2503,11 @@
       </c>
       <c r="E25" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>21</v>
@@ -3075,51 +2518,21 @@
       <c r="I25" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M25" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O25" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P25" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q25" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R25" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S25" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T25" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U25" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V25" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W25" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X25" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
       <c r="Y25" s="37"/>
       <c r="Z25" s="37"/>
       <c r="AA25" s="37"/>
@@ -3140,11 +2553,11 @@
       </c>
       <c r="E26" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>20</v>
@@ -3155,51 +2568,21 @@
       <c r="I26" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M26" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N26" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O26" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P26" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q26" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R26" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S26" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T26" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U26" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V26" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W26" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X26" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
       <c r="Y26" s="37"/>
       <c r="Z26" s="37"/>
       <c r="AA26" s="37"/>
@@ -3220,11 +2603,11 @@
       </c>
       <c r="E27" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G27" s="35" t="s">
         <v>20</v>
@@ -3235,51 +2618,21 @@
       <c r="I27" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J27" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M27" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N27" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O27" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P27" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q27" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R27" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S27" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T27" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U27" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V27" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W27" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X27" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
       <c r="Y27" s="37"/>
       <c r="Z27" s="37"/>
       <c r="AA27" s="37"/>
@@ -3300,11 +2653,11 @@
       </c>
       <c r="E28" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>20</v>
@@ -3315,51 +2668,21 @@
       <c r="I28" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M28" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N28" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O28" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P28" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q28" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R28" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S28" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T28" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U28" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V28" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W28" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X28" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
       <c r="Y28" s="37"/>
       <c r="Z28" s="37"/>
       <c r="AA28" s="37"/>
@@ -3384,7 +2707,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G29" s="35" t="s">
         <v>20</v>
@@ -3395,51 +2718,21 @@
       <c r="I29" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M29" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N29" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O29" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P29" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q29" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R29" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S29" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T29" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U29" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V29" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W29" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X29" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
       <c r="Y29" s="37"/>
       <c r="Z29" s="37"/>
       <c r="AA29" s="37"/>
@@ -3464,7 +2757,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>21</v>
@@ -3475,51 +2768,21 @@
       <c r="I30" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J30" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M30" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N30" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O30" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P30" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q30" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R30" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S30" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T30" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U30" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V30" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W30" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X30" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
       <c r="Y30" s="37"/>
       <c r="Z30" s="37"/>
       <c r="AA30" s="37"/>
@@ -3540,11 +2803,11 @@
       </c>
       <c r="E31" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>20</v>
@@ -3555,51 +2818,21 @@
       <c r="I31" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J31" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M31" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N31" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O31" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P31" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q31" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R31" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S31" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T31" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U31" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V31" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W31" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X31" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
       <c r="Y31" s="37"/>
       <c r="Z31" s="37"/>
       <c r="AA31" s="37"/>
@@ -3620,11 +2853,11 @@
       </c>
       <c r="E32" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>21</v>
@@ -3635,51 +2868,21 @@
       <c r="I32" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J32" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M32" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N32" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O32" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P32" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q32" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R32" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S32" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T32" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U32" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V32" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W32" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X32" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
       <c r="Y32" s="37"/>
       <c r="Z32" s="37"/>
       <c r="AA32" s="37"/>
@@ -3700,11 +2903,11 @@
       </c>
       <c r="E33" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>20</v>
@@ -3715,51 +2918,21 @@
       <c r="I33" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M33" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N33" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O33" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P33" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q33" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R33" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S33" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T33" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U33" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V33" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W33" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X33" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
       <c r="Y33" s="37"/>
       <c r="Z33" s="37"/>
       <c r="AA33" s="37"/>
@@ -3780,11 +2953,11 @@
       </c>
       <c r="E34" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>20</v>
@@ -3795,51 +2968,21 @@
       <c r="I34" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J34" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K34" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M34" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N34" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O34" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P34" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q34" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R34" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S34" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T34" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U34" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V34" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W34" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X34" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
       <c r="Y34" s="37"/>
       <c r="Z34" s="37"/>
       <c r="AA34" s="37"/>
@@ -3860,11 +3003,11 @@
       </c>
       <c r="E35" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>20</v>
@@ -3875,51 +3018,21 @@
       <c r="I35" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J35" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K35" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M35" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N35" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O35" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P35" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q35" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R35" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S35" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T35" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U35" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V35" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W35" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X35" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="37"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="37"/>
       <c r="Y35" s="37"/>
       <c r="Z35" s="37"/>
       <c r="AA35" s="37"/>
@@ -3940,11 +3053,11 @@
       </c>
       <c r="E36" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>20</v>
@@ -3955,51 +3068,21 @@
       <c r="I36" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J36" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K36" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M36" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N36" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O36" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P36" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q36" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R36" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S36" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T36" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U36" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V36" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W36" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X36" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
       <c r="Y36" s="37"/>
       <c r="Z36" s="37"/>
       <c r="AA36" s="37"/>
@@ -4024,7 +3107,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G37" s="35" t="s">
         <v>20</v>
@@ -4035,51 +3118,21 @@
       <c r="I37" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J37" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K37" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M37" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N37" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O37" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P37" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q37" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R37" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S37" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T37" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U37" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V37" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W37" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X37" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
       <c r="Y37" s="37"/>
       <c r="Z37" s="37"/>
       <c r="AA37" s="37"/>
@@ -4100,11 +3153,11 @@
       </c>
       <c r="E38" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>21</v>
@@ -4115,51 +3168,21 @@
       <c r="I38" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K38" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L38" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M38" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N38" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O38" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P38" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q38" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R38" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S38" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T38" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U38" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V38" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W38" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X38" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
       <c r="Y38" s="37"/>
       <c r="Z38" s="37"/>
       <c r="AA38" s="37"/>
@@ -4180,11 +3203,11 @@
       </c>
       <c r="E39" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>20</v>
@@ -4195,51 +3218,21 @@
       <c r="I39" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J39" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K39" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L39" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M39" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N39" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O39" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P39" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q39" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R39" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S39" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T39" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U39" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V39" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W39" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X39" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="37"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="37"/>
       <c r="Y39" s="37"/>
       <c r="Z39" s="37"/>
       <c r="AA39" s="37"/>
@@ -4260,11 +3253,11 @@
       </c>
       <c r="E40" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>20</v>
@@ -4275,51 +3268,21 @@
       <c r="I40" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J40" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K40" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L40" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M40" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N40" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O40" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P40" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q40" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R40" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S40" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T40" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U40" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V40" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W40" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X40" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="37"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="37"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="37"/>
       <c r="Y40" s="37"/>
       <c r="Z40" s="37"/>
       <c r="AA40" s="37"/>
@@ -4340,11 +3303,11 @@
       </c>
       <c r="E41" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G41" s="35" t="s">
         <v>20</v>
@@ -4355,51 +3318,21 @@
       <c r="I41" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K41" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L41" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M41" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N41" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O41" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P41" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q41" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R41" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S41" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T41" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U41" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V41" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W41" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X41" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="37"/>
       <c r="Y41" s="37"/>
       <c r="Z41" s="37"/>
       <c r="AA41" s="37"/>
@@ -4424,7 +3357,7 @@
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G42" s="35" t="s">
         <v>20</v>
@@ -4435,51 +3368,21 @@
       <c r="I42" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J42" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K42" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L42" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M42" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N42" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O42" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P42" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q42" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R42" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S42" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T42" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U42" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V42" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W42" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X42" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="37"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="37"/>
       <c r="Y42" s="37"/>
       <c r="Z42" s="37"/>
       <c r="AA42" s="37"/>
@@ -4500,11 +3403,11 @@
       </c>
       <c r="E43" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>20</v>
@@ -4515,51 +3418,21 @@
       <c r="I43" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J43" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K43" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L43" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M43" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N43" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O43" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P43" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q43" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R43" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S43" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T43" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U43" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V43" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W43" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X43" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="37"/>
+      <c r="S43" s="37"/>
+      <c r="T43" s="37"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="37"/>
+      <c r="W43" s="37"/>
+      <c r="X43" s="37"/>
       <c r="Y43" s="37"/>
       <c r="Z43" s="37"/>
       <c r="AA43" s="37"/>
@@ -4580,11 +3453,11 @@
       </c>
       <c r="E44" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G44" s="35" t="s">
         <v>20</v>
@@ -4595,51 +3468,21 @@
       <c r="I44" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J44" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K44" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L44" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M44" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N44" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O44" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P44" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q44" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R44" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S44" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T44" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U44" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V44" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W44" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X44" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="37"/>
+      <c r="S44" s="37"/>
+      <c r="T44" s="37"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="37"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="37"/>
       <c r="Y44" s="37"/>
       <c r="Z44" s="37"/>
       <c r="AA44" s="37"/>
@@ -4660,11 +3503,11 @@
       </c>
       <c r="E45" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G45" s="35" t="s">
         <v>20</v>
@@ -4675,51 +3518,21 @@
       <c r="I45" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J45" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K45" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L45" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M45" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N45" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O45" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P45" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q45" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R45" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S45" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T45" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U45" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V45" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W45" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X45" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="37"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="37"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="37"/>
       <c r="Y45" s="37"/>
       <c r="Z45" s="37"/>
       <c r="AA45" s="37"/>
@@ -4740,11 +3553,11 @@
       </c>
       <c r="E46" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G46" s="35" t="s">
         <v>20</v>
@@ -4755,51 +3568,21 @@
       <c r="I46" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J46" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K46" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L46" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M46" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N46" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O46" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P46" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q46" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="R46" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S46" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T46" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U46" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V46" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W46" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X46" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="37"/>
+      <c r="S46" s="37"/>
+      <c r="T46" s="37"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="37"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="37"/>
       <c r="Y46" s="37"/>
       <c r="Z46" s="37"/>
       <c r="AA46" s="37"/>
@@ -4810,21 +3593,21 @@
         <v>41</v>
       </c>
       <c r="B47" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="33" t="s">
-        <v>102</v>
-      </c>
       <c r="D47" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G47" s="35" t="s">
         <v>20</v>
@@ -4835,51 +3618,21 @@
       <c r="I47" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J47" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K47" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L47" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M47" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N47" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O47" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P47" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q47" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R47" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S47" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T47" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U47" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V47" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W47" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X47" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="37"/>
+      <c r="Q47" s="37"/>
+      <c r="R47" s="37"/>
+      <c r="S47" s="37"/>
+      <c r="T47" s="37"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="37"/>
+      <c r="W47" s="37"/>
+      <c r="X47" s="37"/>
       <c r="Y47" s="37"/>
       <c r="Z47" s="37"/>
       <c r="AA47" s="37"/>
@@ -4890,21 +3643,21 @@
         <v>42</v>
       </c>
       <c r="B48" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="33" t="s">
-        <v>104</v>
-      </c>
       <c r="D48" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E48" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G48" s="35" t="s">
         <v>20</v>
@@ -4915,51 +3668,21 @@
       <c r="I48" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J48" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K48" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L48" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M48" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N48" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O48" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P48" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q48" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R48" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S48" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T48" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U48" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V48" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W48" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X48" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="37"/>
+      <c r="R48" s="37"/>
+      <c r="S48" s="37"/>
+      <c r="T48" s="37"/>
+      <c r="U48" s="37"/>
+      <c r="V48" s="37"/>
+      <c r="W48" s="37"/>
+      <c r="X48" s="37"/>
       <c r="Y48" s="37"/>
       <c r="Z48" s="37"/>
       <c r="AA48" s="37"/>
@@ -4970,21 +3693,21 @@
         <v>43</v>
       </c>
       <c r="B49" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="33" t="s">
-        <v>106</v>
-      </c>
       <c r="D49" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G49" s="35" t="s">
         <v>20</v>
@@ -4995,51 +3718,21 @@
       <c r="I49" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J49" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K49" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L49" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M49" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N49" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O49" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P49" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q49" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R49" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S49" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T49" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U49" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V49" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W49" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X49" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="37"/>
+      <c r="R49" s="37"/>
+      <c r="S49" s="37"/>
+      <c r="T49" s="37"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="37"/>
+      <c r="W49" s="37"/>
+      <c r="X49" s="37"/>
       <c r="Y49" s="37"/>
       <c r="Z49" s="37"/>
       <c r="AA49" s="37"/>
@@ -5050,21 +3743,21 @@
         <v>44</v>
       </c>
       <c r="B50" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="33" t="s">
-        <v>108</v>
-      </c>
       <c r="D50" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E50" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G50" s="35" t="s">
         <v>20</v>
@@ -5075,51 +3768,21 @@
       <c r="I50" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J50" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K50" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L50" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M50" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N50" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O50" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P50" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q50" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R50" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S50" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T50" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U50" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V50" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W50" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X50" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="37"/>
+      <c r="R50" s="37"/>
+      <c r="S50" s="37"/>
+      <c r="T50" s="37"/>
+      <c r="U50" s="37"/>
+      <c r="V50" s="37"/>
+      <c r="W50" s="37"/>
+      <c r="X50" s="37"/>
       <c r="Y50" s="37"/>
       <c r="Z50" s="37"/>
       <c r="AA50" s="37"/>
@@ -5130,21 +3793,21 @@
         <v>45</v>
       </c>
       <c r="B51" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="33" t="s">
-        <v>110</v>
-      </c>
       <c r="D51" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G51" s="35" t="s">
         <v>20</v>
@@ -5155,51 +3818,21 @@
       <c r="I51" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J51" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K51" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L51" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M51" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N51" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O51" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P51" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q51" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R51" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S51" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T51" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U51" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V51" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W51" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X51" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="37"/>
+      <c r="P51" s="37"/>
+      <c r="Q51" s="37"/>
+      <c r="R51" s="37"/>
+      <c r="S51" s="37"/>
+      <c r="T51" s="37"/>
+      <c r="U51" s="37"/>
+      <c r="V51" s="37"/>
+      <c r="W51" s="37"/>
+      <c r="X51" s="37"/>
       <c r="Y51" s="37"/>
       <c r="Z51" s="37"/>
       <c r="AA51" s="37"/>
@@ -5210,21 +3843,21 @@
         <v>46</v>
       </c>
       <c r="B52" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="33" t="s">
-        <v>112</v>
-      </c>
       <c r="D52" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E52" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G52" s="35" t="s">
         <v>20</v>
@@ -5235,51 +3868,21 @@
       <c r="I52" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J52" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K52" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L52" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M52" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N52" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O52" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P52" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q52" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R52" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S52" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T52" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U52" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V52" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W52" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X52" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="37"/>
+      <c r="S52" s="37"/>
+      <c r="T52" s="37"/>
+      <c r="U52" s="37"/>
+      <c r="V52" s="37"/>
+      <c r="W52" s="37"/>
+      <c r="X52" s="37"/>
       <c r="Y52" s="37"/>
       <c r="Z52" s="37"/>
       <c r="AA52" s="37"/>
@@ -5290,21 +3893,21 @@
         <v>47</v>
       </c>
       <c r="B53" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="33" t="s">
-        <v>114</v>
-      </c>
       <c r="D53" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G53" s="35" t="s">
         <v>20</v>
@@ -5315,51 +3918,21 @@
       <c r="I53" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J53" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K53" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L53" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M53" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N53" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O53" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P53" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q53" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R53" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S53" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T53" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U53" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V53" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W53" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X53" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="37"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="37"/>
+      <c r="S53" s="37"/>
+      <c r="T53" s="37"/>
+      <c r="U53" s="37"/>
+      <c r="V53" s="37"/>
+      <c r="W53" s="37"/>
+      <c r="X53" s="37"/>
       <c r="Y53" s="37"/>
       <c r="Z53" s="37"/>
       <c r="AA53" s="37"/>
@@ -5370,21 +3943,21 @@
         <v>48</v>
       </c>
       <c r="B54" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="33" t="s">
-        <v>116</v>
-      </c>
       <c r="D54" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G54" s="35" t="s">
         <v>20</v>
@@ -5395,51 +3968,21 @@
       <c r="I54" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J54" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K54" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L54" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M54" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N54" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O54" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P54" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q54" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R54" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S54" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T54" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U54" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V54" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W54" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X54" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="37"/>
+      <c r="Q54" s="37"/>
+      <c r="R54" s="37"/>
+      <c r="S54" s="37"/>
+      <c r="T54" s="37"/>
+      <c r="U54" s="37"/>
+      <c r="V54" s="37"/>
+      <c r="W54" s="37"/>
+      <c r="X54" s="37"/>
       <c r="Y54" s="37"/>
       <c r="Z54" s="37"/>
       <c r="AA54" s="37"/>
@@ -5450,21 +3993,21 @@
         <v>49</v>
       </c>
       <c r="B55" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="33" t="s">
-        <v>118</v>
-      </c>
       <c r="D55" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G55" s="35" t="s">
         <v>20</v>
@@ -5475,51 +4018,21 @@
       <c r="I55" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J55" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K55" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L55" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M55" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N55" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O55" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P55" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q55" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R55" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S55" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T55" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U55" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V55" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W55" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X55" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="37"/>
+      <c r="S55" s="37"/>
+      <c r="T55" s="37"/>
+      <c r="U55" s="37"/>
+      <c r="V55" s="37"/>
+      <c r="W55" s="37"/>
+      <c r="X55" s="37"/>
       <c r="Y55" s="37"/>
       <c r="Z55" s="37"/>
       <c r="AA55" s="37"/>
@@ -5530,21 +4043,21 @@
         <v>50</v>
       </c>
       <c r="B56" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="C56" s="33" t="s">
-        <v>120</v>
-      </c>
       <c r="D56" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E56" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G56" s="35" t="s">
         <v>20</v>
@@ -5555,51 +4068,21 @@
       <c r="I56" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J56" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K56" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L56" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M56" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N56" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O56" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P56" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q56" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R56" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S56" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T56" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U56" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V56" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W56" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X56" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="37"/>
+      <c r="Q56" s="37"/>
+      <c r="R56" s="37"/>
+      <c r="S56" s="37"/>
+      <c r="T56" s="37"/>
+      <c r="U56" s="37"/>
+      <c r="V56" s="37"/>
+      <c r="W56" s="37"/>
+      <c r="X56" s="37"/>
       <c r="Y56" s="37"/>
       <c r="Z56" s="37"/>
       <c r="AA56" s="37"/>
@@ -5610,11 +4093,11 @@
         <v>51</v>
       </c>
       <c r="B57" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="33" t="s">
-        <v>122</v>
-      </c>
       <c r="D57" s="25" t="s">
         <v>9</v>
       </c>
@@ -5624,7 +4107,7 @@
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G57" s="35" t="s">
         <v>20</v>
@@ -5635,51 +4118,21 @@
       <c r="I57" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J57" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K57" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L57" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M57" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N57" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O57" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P57" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q57" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R57" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S57" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T57" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U57" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V57" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W57" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X57" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="37"/>
+      <c r="O57" s="37"/>
+      <c r="P57" s="37"/>
+      <c r="Q57" s="37"/>
+      <c r="R57" s="37"/>
+      <c r="S57" s="37"/>
+      <c r="T57" s="37"/>
+      <c r="U57" s="37"/>
+      <c r="V57" s="37"/>
+      <c r="W57" s="37"/>
+      <c r="X57" s="37"/>
       <c r="Y57" s="37"/>
       <c r="Z57" s="37"/>
       <c r="AA57" s="37"/>
@@ -5690,21 +4143,21 @@
         <v>52</v>
       </c>
       <c r="B58" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="C58" s="33" t="s">
-        <v>124</v>
-      </c>
       <c r="D58" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E58" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>20</v>
@@ -5715,51 +4168,21 @@
       <c r="I58" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J58" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K58" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L58" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M58" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N58" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O58" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P58" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q58" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R58" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S58" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T58" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U58" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V58" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W58" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X58" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="37"/>
+      <c r="R58" s="37"/>
+      <c r="S58" s="37"/>
+      <c r="T58" s="37"/>
+      <c r="U58" s="37"/>
+      <c r="V58" s="37"/>
+      <c r="W58" s="37"/>
+      <c r="X58" s="37"/>
       <c r="Y58" s="37"/>
       <c r="Z58" s="37"/>
       <c r="AA58" s="37"/>
@@ -5770,11 +4193,11 @@
         <v>53</v>
       </c>
       <c r="B59" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="33" t="s">
-        <v>126</v>
-      </c>
       <c r="D59" s="25" t="s">
         <v>9</v>
       </c>
@@ -5784,7 +4207,7 @@
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G59" s="35" t="s">
         <v>21</v>
@@ -5795,51 +4218,21 @@
       <c r="I59" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J59" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K59" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L59" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M59" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N59" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O59" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P59" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q59" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R59" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S59" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T59" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U59" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V59" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W59" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X59" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="37"/>
+      <c r="P59" s="37"/>
+      <c r="Q59" s="37"/>
+      <c r="R59" s="37"/>
+      <c r="S59" s="37"/>
+      <c r="T59" s="37"/>
+      <c r="U59" s="37"/>
+      <c r="V59" s="37"/>
+      <c r="W59" s="37"/>
+      <c r="X59" s="37"/>
       <c r="Y59" s="37"/>
       <c r="Z59" s="37"/>
       <c r="AA59" s="37"/>
@@ -5850,21 +4243,21 @@
         <v>54</v>
       </c>
       <c r="B60" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="C60" s="33" t="s">
-        <v>128</v>
-      </c>
       <c r="D60" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E60" s="26">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G60" s="35" t="s">
         <v>20</v>
@@ -5875,51 +4268,21 @@
       <c r="I60" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J60" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K60" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L60" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M60" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N60" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O60" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P60" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q60" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R60" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="S60" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T60" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U60" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V60" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W60" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X60" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="37"/>
+      <c r="Q60" s="37"/>
+      <c r="R60" s="37"/>
+      <c r="S60" s="37"/>
+      <c r="T60" s="37"/>
+      <c r="U60" s="37"/>
+      <c r="V60" s="37"/>
+      <c r="W60" s="37"/>
+      <c r="X60" s="37"/>
       <c r="Y60" s="37"/>
       <c r="Z60" s="37"/>
       <c r="AA60" s="37"/>
@@ -5930,21 +4293,21 @@
         <v>55</v>
       </c>
       <c r="B61" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="33" t="s">
-        <v>130</v>
-      </c>
       <c r="D61" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E61" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G61" s="35" t="s">
         <v>20</v>
@@ -5955,51 +4318,21 @@
       <c r="I61" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J61" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K61" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L61" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M61" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N61" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O61" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P61" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q61" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R61" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S61" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T61" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U61" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V61" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W61" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X61" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="37"/>
+      <c r="R61" s="37"/>
+      <c r="S61" s="37"/>
+      <c r="T61" s="37"/>
+      <c r="U61" s="37"/>
+      <c r="V61" s="37"/>
+      <c r="W61" s="37"/>
+      <c r="X61" s="37"/>
       <c r="Y61" s="37"/>
       <c r="Z61" s="37"/>
       <c r="AA61" s="37"/>
@@ -6010,21 +4343,21 @@
         <v>56</v>
       </c>
       <c r="B62" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="C62" s="33" t="s">
-        <v>132</v>
-      </c>
       <c r="D62" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E62" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G62" s="35" t="s">
         <v>20</v>
@@ -6035,51 +4368,21 @@
       <c r="I62" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J62" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K62" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L62" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M62" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N62" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O62" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P62" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q62" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R62" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S62" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T62" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U62" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V62" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W62" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X62" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="37"/>
+      <c r="Q62" s="37"/>
+      <c r="R62" s="37"/>
+      <c r="S62" s="37"/>
+      <c r="T62" s="37"/>
+      <c r="U62" s="37"/>
+      <c r="V62" s="37"/>
+      <c r="W62" s="37"/>
+      <c r="X62" s="37"/>
       <c r="Y62" s="37"/>
       <c r="Z62" s="37"/>
       <c r="AA62" s="37"/>
@@ -6090,21 +4393,21 @@
         <v>57</v>
       </c>
       <c r="B63" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="C63" s="33" t="s">
-        <v>134</v>
-      </c>
       <c r="D63" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E63" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G63" s="35" t="s">
         <v>20</v>
@@ -6115,51 +4418,21 @@
       <c r="I63" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J63" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K63" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L63" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M63" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N63" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O63" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P63" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q63" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R63" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S63" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T63" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U63" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V63" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W63" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X63" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J63" s="37"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="37"/>
+      <c r="N63" s="37"/>
+      <c r="O63" s="37"/>
+      <c r="P63" s="37"/>
+      <c r="Q63" s="37"/>
+      <c r="R63" s="37"/>
+      <c r="S63" s="37"/>
+      <c r="T63" s="37"/>
+      <c r="U63" s="37"/>
+      <c r="V63" s="37"/>
+      <c r="W63" s="37"/>
+      <c r="X63" s="37"/>
       <c r="Y63" s="37"/>
       <c r="Z63" s="37"/>
       <c r="AA63" s="37"/>
@@ -6170,21 +4443,21 @@
         <v>58</v>
       </c>
       <c r="B64" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="C64" s="33" t="s">
-        <v>136</v>
-      </c>
       <c r="D64" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E64" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G64" s="35" t="s">
         <v>21</v>
@@ -6195,51 +4468,21 @@
       <c r="I64" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J64" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K64" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L64" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M64" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N64" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O64" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P64" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q64" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R64" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S64" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T64" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U64" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="V64" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W64" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X64" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J64" s="37"/>
+      <c r="K64" s="37"/>
+      <c r="L64" s="37"/>
+      <c r="M64" s="37"/>
+      <c r="N64" s="37"/>
+      <c r="O64" s="37"/>
+      <c r="P64" s="37"/>
+      <c r="Q64" s="37"/>
+      <c r="R64" s="37"/>
+      <c r="S64" s="37"/>
+      <c r="T64" s="37"/>
+      <c r="U64" s="37"/>
+      <c r="V64" s="37"/>
+      <c r="W64" s="37"/>
+      <c r="X64" s="37"/>
       <c r="Y64" s="37"/>
       <c r="Z64" s="37"/>
       <c r="AA64" s="37"/>
@@ -6250,21 +4493,21 @@
         <v>59</v>
       </c>
       <c r="B65" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="C65" s="33" t="s">
-        <v>138</v>
-      </c>
       <c r="D65" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E65" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G65" s="35" t="s">
         <v>20</v>
@@ -6275,51 +4518,21 @@
       <c r="I65" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J65" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K65" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L65" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M65" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N65" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O65" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P65" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q65" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R65" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S65" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T65" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U65" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V65" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W65" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X65" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J65" s="37"/>
+      <c r="K65" s="37"/>
+      <c r="L65" s="37"/>
+      <c r="M65" s="37"/>
+      <c r="N65" s="37"/>
+      <c r="O65" s="37"/>
+      <c r="P65" s="37"/>
+      <c r="Q65" s="37"/>
+      <c r="R65" s="37"/>
+      <c r="S65" s="37"/>
+      <c r="T65" s="37"/>
+      <c r="U65" s="37"/>
+      <c r="V65" s="37"/>
+      <c r="W65" s="37"/>
+      <c r="X65" s="37"/>
       <c r="Y65" s="37"/>
       <c r="Z65" s="37"/>
       <c r="AA65" s="37"/>
@@ -6330,11 +4543,11 @@
         <v>60</v>
       </c>
       <c r="B66" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="C66" s="33" t="s">
-        <v>140</v>
-      </c>
       <c r="D66" s="25" t="s">
         <v>9</v>
       </c>
@@ -6344,7 +4557,7 @@
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G66" s="35" t="s">
         <v>20</v>
@@ -6355,51 +4568,21 @@
       <c r="I66" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J66" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K66" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L66" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M66" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N66" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O66" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P66" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q66" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R66" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S66" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T66" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U66" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V66" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W66" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X66" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J66" s="37"/>
+      <c r="K66" s="37"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="37"/>
+      <c r="N66" s="37"/>
+      <c r="O66" s="37"/>
+      <c r="P66" s="37"/>
+      <c r="Q66" s="37"/>
+      <c r="R66" s="37"/>
+      <c r="S66" s="37"/>
+      <c r="T66" s="37"/>
+      <c r="U66" s="37"/>
+      <c r="V66" s="37"/>
+      <c r="W66" s="37"/>
+      <c r="X66" s="37"/>
       <c r="Y66" s="37"/>
       <c r="Z66" s="37"/>
       <c r="AA66" s="37"/>
@@ -6410,21 +4593,21 @@
         <v>61</v>
       </c>
       <c r="B67" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="C67" s="33" t="s">
-        <v>142</v>
-      </c>
       <c r="D67" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E67" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G67" s="35" t="s">
         <v>20</v>
@@ -6435,51 +4618,21 @@
       <c r="I67" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J67" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K67" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L67" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M67" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N67" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O67" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P67" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q67" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R67" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S67" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T67" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U67" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V67" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W67" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X67" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J67" s="37"/>
+      <c r="K67" s="37"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="37"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="37"/>
+      <c r="R67" s="37"/>
+      <c r="S67" s="37"/>
+      <c r="T67" s="37"/>
+      <c r="U67" s="37"/>
+      <c r="V67" s="37"/>
+      <c r="W67" s="37"/>
+      <c r="X67" s="37"/>
       <c r="Y67" s="37"/>
       <c r="Z67" s="37"/>
       <c r="AA67" s="37"/>
@@ -6490,21 +4643,21 @@
         <v>62</v>
       </c>
       <c r="B68" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="C68" s="33" t="s">
-        <v>144</v>
-      </c>
       <c r="D68" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E68" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G68" s="35" t="s">
         <v>20</v>
@@ -6515,51 +4668,21 @@
       <c r="I68" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J68" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K68" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L68" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M68" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N68" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O68" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P68" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q68" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R68" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S68" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T68" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="U68" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V68" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W68" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X68" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="37"/>
+      <c r="N68" s="37"/>
+      <c r="O68" s="37"/>
+      <c r="P68" s="37"/>
+      <c r="Q68" s="37"/>
+      <c r="R68" s="37"/>
+      <c r="S68" s="37"/>
+      <c r="T68" s="37"/>
+      <c r="U68" s="37"/>
+      <c r="V68" s="37"/>
+      <c r="W68" s="37"/>
+      <c r="X68" s="37"/>
       <c r="Y68" s="37"/>
       <c r="Z68" s="37"/>
       <c r="AA68" s="37"/>
@@ -6570,21 +4693,21 @@
         <v>63</v>
       </c>
       <c r="B69" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="C69" s="33" t="s">
-        <v>146</v>
-      </c>
       <c r="D69" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E69" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G69" s="35" t="s">
         <v>20</v>
@@ -6595,51 +4718,21 @@
       <c r="I69" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J69" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K69" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L69" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M69" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N69" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O69" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P69" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q69" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R69" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S69" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T69" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U69" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V69" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W69" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X69" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J69" s="37"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="37"/>
+      <c r="N69" s="37"/>
+      <c r="O69" s="37"/>
+      <c r="P69" s="37"/>
+      <c r="Q69" s="37"/>
+      <c r="R69" s="37"/>
+      <c r="S69" s="37"/>
+      <c r="T69" s="37"/>
+      <c r="U69" s="37"/>
+      <c r="V69" s="37"/>
+      <c r="W69" s="37"/>
+      <c r="X69" s="37"/>
       <c r="Y69" s="37"/>
       <c r="Z69" s="37"/>
       <c r="AA69" s="37"/>
@@ -6650,21 +4743,21 @@
         <v>64</v>
       </c>
       <c r="B70" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="C70" s="33" t="s">
-        <v>148</v>
-      </c>
       <c r="D70" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E70" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G70" s="35" t="s">
         <v>20</v>
@@ -6675,51 +4768,21 @@
       <c r="I70" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J70" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K70" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L70" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M70" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N70" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O70" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P70" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q70" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R70" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S70" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T70" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U70" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V70" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W70" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X70" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="37"/>
+      <c r="N70" s="37"/>
+      <c r="O70" s="37"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="37"/>
+      <c r="R70" s="37"/>
+      <c r="S70" s="37"/>
+      <c r="T70" s="37"/>
+      <c r="U70" s="37"/>
+      <c r="V70" s="37"/>
+      <c r="W70" s="37"/>
+      <c r="X70" s="37"/>
       <c r="Y70" s="37"/>
       <c r="Z70" s="37"/>
       <c r="AA70" s="37"/>
@@ -6730,21 +4793,21 @@
         <v>65</v>
       </c>
       <c r="B71" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="C71" s="33" t="s">
-        <v>150</v>
-      </c>
       <c r="D71" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E71" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G71" s="35" t="s">
         <v>20</v>
@@ -6755,51 +4818,21 @@
       <c r="I71" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J71" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K71" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L71" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M71" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N71" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O71" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P71" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q71" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R71" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S71" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T71" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U71" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V71" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W71" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X71" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J71" s="37"/>
+      <c r="K71" s="37"/>
+      <c r="L71" s="37"/>
+      <c r="M71" s="37"/>
+      <c r="N71" s="37"/>
+      <c r="O71" s="37"/>
+      <c r="P71" s="37"/>
+      <c r="Q71" s="37"/>
+      <c r="R71" s="37"/>
+      <c r="S71" s="37"/>
+      <c r="T71" s="37"/>
+      <c r="U71" s="37"/>
+      <c r="V71" s="37"/>
+      <c r="W71" s="37"/>
+      <c r="X71" s="37"/>
       <c r="Y71" s="37"/>
       <c r="Z71" s="37"/>
       <c r="AA71" s="37"/>
@@ -6810,21 +4843,21 @@
         <v>66</v>
       </c>
       <c r="B72" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="C72" s="33" t="s">
-        <v>152</v>
-      </c>
       <c r="D72" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E72" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G72" s="35" t="s">
         <v>20</v>
@@ -6835,51 +4868,21 @@
       <c r="I72" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J72" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K72" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L72" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M72" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N72" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O72" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P72" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q72" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R72" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S72" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T72" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U72" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V72" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W72" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X72" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J72" s="37"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="37"/>
+      <c r="N72" s="37"/>
+      <c r="O72" s="37"/>
+      <c r="P72" s="37"/>
+      <c r="Q72" s="37"/>
+      <c r="R72" s="37"/>
+      <c r="S72" s="37"/>
+      <c r="T72" s="37"/>
+      <c r="U72" s="37"/>
+      <c r="V72" s="37"/>
+      <c r="W72" s="37"/>
+      <c r="X72" s="37"/>
       <c r="Y72" s="37"/>
       <c r="Z72" s="37"/>
       <c r="AA72" s="37"/>
@@ -6890,21 +4893,21 @@
         <v>67</v>
       </c>
       <c r="B73" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="C73" s="33" t="s">
-        <v>154</v>
-      </c>
       <c r="D73" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E73" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G73" s="35" t="s">
         <v>20</v>
@@ -6915,51 +4918,21 @@
       <c r="I73" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J73" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K73" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L73" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M73" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N73" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O73" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P73" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q73" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R73" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S73" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T73" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U73" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V73" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W73" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="X73" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J73" s="37"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="37"/>
+      <c r="M73" s="37"/>
+      <c r="N73" s="37"/>
+      <c r="O73" s="37"/>
+      <c r="P73" s="37"/>
+      <c r="Q73" s="37"/>
+      <c r="R73" s="37"/>
+      <c r="S73" s="37"/>
+      <c r="T73" s="37"/>
+      <c r="U73" s="37"/>
+      <c r="V73" s="37"/>
+      <c r="W73" s="37"/>
+      <c r="X73" s="37"/>
       <c r="Y73" s="37"/>
       <c r="Z73" s="37"/>
       <c r="AA73" s="37"/>
@@ -6970,21 +4943,21 @@
         <v>68</v>
       </c>
       <c r="B74" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="C74" s="33" t="s">
-        <v>156</v>
-      </c>
       <c r="D74" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G74" s="35" t="s">
         <v>20</v>
@@ -6995,51 +4968,21 @@
       <c r="I74" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J74" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K74" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L74" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M74" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N74" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O74" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P74" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q74" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R74" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S74" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T74" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U74" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V74" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W74" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X74" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J74" s="37"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="37"/>
+      <c r="N74" s="37"/>
+      <c r="O74" s="37"/>
+      <c r="P74" s="37"/>
+      <c r="Q74" s="37"/>
+      <c r="R74" s="37"/>
+      <c r="S74" s="37"/>
+      <c r="T74" s="37"/>
+      <c r="U74" s="37"/>
+      <c r="V74" s="37"/>
+      <c r="W74" s="37"/>
+      <c r="X74" s="37"/>
       <c r="Y74" s="37"/>
       <c r="Z74" s="37"/>
       <c r="AA74" s="37"/>
@@ -7050,11 +4993,11 @@
         <v>69</v>
       </c>
       <c r="B75" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="C75" s="33" t="s">
-        <v>158</v>
-      </c>
       <c r="D75" s="25" t="s">
         <v>9</v>
       </c>
@@ -7064,7 +5007,7 @@
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G75" s="35" t="s">
         <v>20</v>
@@ -7075,51 +5018,21 @@
       <c r="I75" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J75" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K75" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L75" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="M75" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N75" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="O75" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P75" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q75" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="R75" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="S75" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="T75" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="U75" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V75" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="W75" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X75" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="J75" s="37"/>
+      <c r="K75" s="37"/>
+      <c r="L75" s="37"/>
+      <c r="M75" s="37"/>
+      <c r="N75" s="37"/>
+      <c r="O75" s="37"/>
+      <c r="P75" s="37"/>
+      <c r="Q75" s="37"/>
+      <c r="R75" s="37"/>
+      <c r="S75" s="37"/>
+      <c r="T75" s="37"/>
+      <c r="U75" s="37"/>
+      <c r="V75" s="37"/>
+      <c r="W75" s="37"/>
+      <c r="X75" s="37"/>
       <c r="Y75" s="37"/>
       <c r="Z75" s="37"/>
       <c r="AA75" s="37"/>
@@ -7130,7 +5043,7 @@
         <v/>
       </c>
       <c r="B76" s="32"/>
-      <c r="C76" s="39"/>
+      <c r="C76" s="38"/>
       <c r="D76" s="25"/>
       <c r="E76" s="26" t="str">
         <f t="shared" si="1"/>
@@ -7140,14 +5053,14 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G76" s="40"/>
+      <c r="G76" s="39"/>
       <c r="H76" s="36"/>
       <c r="I76" s="36"/>
       <c r="J76" s="37"/>
       <c r="K76" s="37"/>
       <c r="L76" s="37"/>
       <c r="M76" s="37"/>
-      <c r="N76" s="36"/>
+      <c r="N76" s="37"/>
       <c r="O76" s="37"/>
       <c r="P76" s="37"/>
       <c r="Q76" s="37"/>
@@ -7168,7 +5081,7 @@
         <v/>
       </c>
       <c r="B77" s="32"/>
-      <c r="C77" s="39"/>
+      <c r="C77" s="38"/>
       <c r="D77" s="25"/>
       <c r="E77" s="26" t="str">
         <f t="shared" si="1"/>
@@ -7178,7 +5091,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G77" s="40"/>
+      <c r="G77" s="39"/>
       <c r="H77" s="36"/>
       <c r="I77" s="36"/>
       <c r="J77" s="37"/>
@@ -7208,7 +5121,7 @@
       <c r="B78" s="32"/>
       <c r="C78" s="33"/>
       <c r="D78" s="25"/>
-      <c r="E78" s="41" t="str">
+      <c r="E78" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7216,7 +5129,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G78" s="40"/>
+      <c r="G78" s="39"/>
       <c r="H78" s="37"/>
       <c r="I78" s="37"/>
       <c r="J78" s="37"/>
@@ -7245,8 +5158,8 @@
       </c>
       <c r="B79" s="32"/>
       <c r="C79" s="33"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="41" t="str">
+      <c r="D79" s="41"/>
+      <c r="E79" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7254,7 +5167,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G79" s="40"/>
+      <c r="G79" s="39"/>
       <c r="H79" s="37"/>
       <c r="I79" s="37"/>
       <c r="J79" s="37"/>
@@ -7283,8 +5196,8 @@
       </c>
       <c r="B80" s="32"/>
       <c r="C80" s="33"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="41" t="str">
+      <c r="D80" s="41"/>
+      <c r="E80" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7292,7 +5205,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G80" s="40"/>
+      <c r="G80" s="39"/>
       <c r="H80" s="37"/>
       <c r="I80" s="37"/>
       <c r="J80" s="37"/>
@@ -7321,8 +5234,8 @@
       </c>
       <c r="B81" s="32"/>
       <c r="C81" s="33"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="41" t="str">
+      <c r="D81" s="41"/>
+      <c r="E81" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7330,7 +5243,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G81" s="40"/>
+      <c r="G81" s="39"/>
       <c r="H81" s="37"/>
       <c r="I81" s="37"/>
       <c r="J81" s="37"/>
@@ -7359,8 +5272,8 @@
       </c>
       <c r="B82" s="32"/>
       <c r="C82" s="33"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="41" t="str">
+      <c r="D82" s="41"/>
+      <c r="E82" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7368,7 +5281,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G82" s="40"/>
+      <c r="G82" s="39"/>
       <c r="H82" s="37"/>
       <c r="I82" s="37"/>
       <c r="J82" s="37"/>
@@ -7397,8 +5310,8 @@
       </c>
       <c r="B83" s="32"/>
       <c r="C83" s="33"/>
-      <c r="D83" s="42"/>
-      <c r="E83" s="41" t="str">
+      <c r="D83" s="41"/>
+      <c r="E83" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7406,7 +5319,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G83" s="40"/>
+      <c r="G83" s="39"/>
       <c r="H83" s="37"/>
       <c r="I83" s="37"/>
       <c r="J83" s="37"/>
@@ -7435,8 +5348,8 @@
       </c>
       <c r="B84" s="32"/>
       <c r="C84" s="33"/>
-      <c r="D84" s="42"/>
-      <c r="E84" s="41" t="str">
+      <c r="D84" s="41"/>
+      <c r="E84" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7444,7 +5357,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G84" s="40"/>
+      <c r="G84" s="39"/>
       <c r="H84" s="37"/>
       <c r="I84" s="37"/>
       <c r="J84" s="37"/>
@@ -7473,8 +5386,8 @@
       </c>
       <c r="B85" s="32"/>
       <c r="C85" s="33"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="41" t="str">
+      <c r="D85" s="41"/>
+      <c r="E85" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7482,7 +5395,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G85" s="40"/>
+      <c r="G85" s="39"/>
       <c r="H85" s="37"/>
       <c r="I85" s="37"/>
       <c r="J85" s="37"/>
@@ -7511,8 +5424,8 @@
       </c>
       <c r="B86" s="32"/>
       <c r="C86" s="33"/>
-      <c r="D86" s="42"/>
-      <c r="E86" s="41" t="str">
+      <c r="D86" s="41"/>
+      <c r="E86" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7520,7 +5433,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G86" s="40"/>
+      <c r="G86" s="39"/>
       <c r="H86" s="37"/>
       <c r="I86" s="37"/>
       <c r="J86" s="37"/>
@@ -7547,10 +5460,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B87" s="43"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="41"/>
-      <c r="E87" s="41" t="str">
+      <c r="B87" s="42"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7558,7 +5471,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G87" s="40"/>
+      <c r="G87" s="39"/>
       <c r="H87" s="37"/>
       <c r="I87" s="37"/>
       <c r="J87" s="37"/>
@@ -7585,10 +5498,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B88" s="43"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="41"/>
-      <c r="E88" s="41" t="str">
+      <c r="B88" s="42"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7596,7 +5509,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G88" s="40"/>
+      <c r="G88" s="39"/>
       <c r="H88" s="37"/>
       <c r="I88" s="37"/>
       <c r="J88" s="37"/>
@@ -7623,10 +5536,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B89" s="43"/>
-      <c r="C89" s="43"/>
-      <c r="D89" s="41"/>
-      <c r="E89" s="41" t="str">
+      <c r="B89" s="42"/>
+      <c r="C89" s="42"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7634,7 +5547,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G89" s="40"/>
+      <c r="G89" s="39"/>
       <c r="H89" s="37"/>
       <c r="I89" s="37"/>
       <c r="J89" s="37"/>
@@ -7661,10 +5574,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B90" s="43"/>
-      <c r="C90" s="43"/>
-      <c r="D90" s="41"/>
-      <c r="E90" s="41" t="str">
+      <c r="B90" s="42"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7672,7 +5585,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G90" s="40"/>
+      <c r="G90" s="39"/>
       <c r="H90" s="37"/>
       <c r="I90" s="37"/>
       <c r="J90" s="37"/>
@@ -7699,10 +5612,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B91" s="43"/>
-      <c r="C91" s="43"/>
-      <c r="D91" s="41"/>
-      <c r="E91" s="41" t="str">
+      <c r="B91" s="42"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="40"/>
+      <c r="E91" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7710,7 +5623,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G91" s="40"/>
+      <c r="G91" s="39"/>
       <c r="H91" s="37"/>
       <c r="I91" s="37"/>
       <c r="J91" s="37"/>
@@ -7737,10 +5650,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B92" s="43"/>
-      <c r="C92" s="43"/>
-      <c r="D92" s="41"/>
-      <c r="E92" s="41" t="str">
+      <c r="B92" s="42"/>
+      <c r="C92" s="42"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7748,7 +5661,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G92" s="40"/>
+      <c r="G92" s="39"/>
       <c r="H92" s="37"/>
       <c r="I92" s="37"/>
       <c r="J92" s="37"/>
@@ -7775,10 +5688,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B93" s="43"/>
-      <c r="C93" s="43"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="41" t="str">
+      <c r="B93" s="42"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7786,7 +5699,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G93" s="40"/>
+      <c r="G93" s="39"/>
       <c r="H93" s="37"/>
       <c r="I93" s="37"/>
       <c r="J93" s="37"/>
@@ -7813,10 +5726,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B94" s="43"/>
-      <c r="C94" s="43"/>
-      <c r="D94" s="41"/>
-      <c r="E94" s="41" t="str">
+      <c r="B94" s="42"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7824,7 +5737,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G94" s="40"/>
+      <c r="G94" s="39"/>
       <c r="H94" s="37"/>
       <c r="I94" s="37"/>
       <c r="J94" s="37"/>
@@ -7851,10 +5764,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B95" s="43"/>
-      <c r="C95" s="43"/>
-      <c r="D95" s="41"/>
-      <c r="E95" s="41" t="str">
+      <c r="B95" s="42"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -7862,7 +5775,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G95" s="40"/>
+      <c r="G95" s="39"/>
       <c r="H95" s="37"/>
       <c r="I95" s="37"/>
       <c r="J95" s="37"/>
@@ -8799,11 +6712,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="D5:E5"/>
   </mergeCells>
-  <conditionalFormatting sqref="G1:Z1000">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/attendance-files/MR/MR-B (EFGH) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-B (EFGH) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="159">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>Lokesh Vidyasagar</t>
+  </si>
+  <si>
+    <t>;P</t>
   </si>
   <si>
     <t>2024PGP478</t>
@@ -877,7 +880,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -976,6 +979,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="25" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -991,7 +997,18 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCD5B4"/>
+          <bgColor rgb="FFFCD5B4"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1212,7 +1229,7 @@
     <col customWidth="1" min="3" max="3" width="30.25"/>
     <col customWidth="1" min="4" max="4" width="10.13"/>
     <col customWidth="1" min="5" max="6" width="12.75"/>
-    <col customWidth="1" min="7" max="26" width="10.75"/>
+    <col customWidth="1" min="7" max="26" width="4.38"/>
     <col customWidth="1" min="27" max="27" width="9.0"/>
   </cols>
   <sheetData>
@@ -1603,11 +1620,11 @@
       </c>
       <c r="E7" s="26">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1618,23 +1635,57 @@
       <c r="I7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
+      <c r="J7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="U7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="V7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="W7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="X7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z7" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="AA7" s="30"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -1653,11 +1704,11 @@
       </c>
       <c r="E8" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>20</v>
@@ -1668,23 +1719,57 @@
       <c r="I8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
+      <c r="J8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z8" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA8" s="37"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -1703,11 +1788,11 @@
       </c>
       <c r="E9" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>20</v>
@@ -1718,23 +1803,57 @@
       <c r="I9" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
+      <c r="J9" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T9" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V9" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W9" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X9" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z9" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA9" s="37"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -1753,11 +1872,11 @@
       </c>
       <c r="E10" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>21</v>
@@ -1768,23 +1887,57 @@
       <c r="I10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
+      <c r="J10" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V10" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W10" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z10" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA10" s="37"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -1803,11 +1956,11 @@
       </c>
       <c r="E11" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>21</v>
@@ -1818,23 +1971,57 @@
       <c r="I11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
+      <c r="J11" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T11" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U11" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W11" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X11" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z11" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA11" s="37"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -1853,11 +2040,11 @@
       </c>
       <c r="E12" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>20</v>
@@ -1865,26 +2052,60 @@
       <c r="H12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
+      <c r="I12" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V12" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W12" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X12" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y12" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z12" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA12" s="37"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -1903,11 +2124,11 @@
       </c>
       <c r="E13" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>20</v>
@@ -1918,23 +2139,57 @@
       <c r="I13" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
+      <c r="J13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z13" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA13" s="37"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -1953,11 +2208,11 @@
       </c>
       <c r="E14" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>21</v>
@@ -1968,23 +2223,57 @@
       <c r="I14" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
+      <c r="J14" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R14" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S14" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T14" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U14" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V14" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W14" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X14" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y14" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z14" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA14" s="37"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -2007,7 +2296,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G15" s="35" t="s">
         <v>20</v>
@@ -2018,23 +2307,57 @@
       <c r="I15" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
+      <c r="J15" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T15" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U15" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V15" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W15" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X15" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y15" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z15" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA15" s="37"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -2057,7 +2380,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>20</v>
@@ -2068,23 +2391,57 @@
       <c r="I16" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
+      <c r="J16" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R16" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S16" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T16" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U16" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V16" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W16" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X16" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y16" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z16" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA16" s="37"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -2103,11 +2460,11 @@
       </c>
       <c r="E17" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>20</v>
@@ -2118,23 +2475,57 @@
       <c r="I17" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
+      <c r="J17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z17" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA17" s="37"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
@@ -2153,11 +2544,11 @@
       </c>
       <c r="E18" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>20</v>
@@ -2168,23 +2559,57 @@
       <c r="I18" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
+      <c r="J18" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T18" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W18" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y18" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z18" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA18" s="37"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
@@ -2203,11 +2628,11 @@
       </c>
       <c r="E19" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G19" s="35" t="s">
         <v>21</v>
@@ -2218,23 +2643,57 @@
       <c r="I19" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
+      <c r="J19" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U19" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V19" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W19" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X19" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y19" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z19" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA19" s="37"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
@@ -2253,11 +2712,11 @@
       </c>
       <c r="E20" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>20</v>
@@ -2268,23 +2727,57 @@
       <c r="I20" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
+      <c r="J20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P20" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V20" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W20" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y20" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z20" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA20" s="37"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -2303,11 +2796,11 @@
       </c>
       <c r="E21" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G21" s="35" t="s">
         <v>21</v>
@@ -2318,23 +2811,57 @@
       <c r="I21" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
+      <c r="J21" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q21" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R21" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S21" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T21" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U21" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V21" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W21" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y21" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z21" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA21" s="37"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -2353,11 +2880,11 @@
       </c>
       <c r="E22" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>20</v>
@@ -2368,23 +2895,57 @@
       <c r="I22" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="37"/>
+      <c r="J22" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R22" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S22" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T22" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U22" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V22" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W22" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X22" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y22" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z22" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA22" s="37"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -2403,11 +2964,11 @@
       </c>
       <c r="E23" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G23" s="35" t="s">
         <v>20</v>
@@ -2418,23 +2979,57 @@
       <c r="I23" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="37"/>
+      <c r="J23" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S23" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T23" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U23" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V23" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W23" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X23" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y23" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z23" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA23" s="37"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -2453,11 +3048,11 @@
       </c>
       <c r="E24" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>20</v>
@@ -2468,23 +3063,57 @@
       <c r="I24" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
+      <c r="J24" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S24" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T24" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U24" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V24" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W24" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X24" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y24" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z24" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA24" s="37"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -2503,11 +3132,11 @@
       </c>
       <c r="E25" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>21</v>
@@ -2518,23 +3147,57 @@
       <c r="I25" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="37"/>
-      <c r="Z25" s="37"/>
+      <c r="J25" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T25" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U25" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V25" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W25" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X25" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y25" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z25" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA25" s="37"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -2553,11 +3216,11 @@
       </c>
       <c r="E26" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>20</v>
@@ -2568,23 +3231,57 @@
       <c r="I26" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="37"/>
-      <c r="Z26" s="37"/>
+      <c r="J26" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R26" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S26" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T26" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U26" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V26" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W26" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y26" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z26" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA26" s="37"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -2603,11 +3300,11 @@
       </c>
       <c r="E27" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G27" s="35" t="s">
         <v>20</v>
@@ -2618,23 +3315,57 @@
       <c r="I27" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="37"/>
-      <c r="Z27" s="37"/>
+      <c r="J27" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R27" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S27" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T27" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U27" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V27" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W27" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X27" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y27" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z27" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA27" s="37"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -2653,11 +3384,11 @@
       </c>
       <c r="E28" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>20</v>
@@ -2668,23 +3399,57 @@
       <c r="I28" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="37"/>
+      <c r="J28" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O28" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P28" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R28" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S28" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T28" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U28" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V28" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W28" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X28" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y28" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z28" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA28" s="37"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -2703,11 +3468,11 @@
       </c>
       <c r="E29" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G29" s="35" t="s">
         <v>20</v>
@@ -2718,23 +3483,57 @@
       <c r="I29" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
+      <c r="J29" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P29" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q29" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R29" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S29" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T29" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U29" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V29" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W29" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X29" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y29" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z29" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA29" s="37"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -2757,7 +3556,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>21</v>
@@ -2768,23 +3567,57 @@
       <c r="I30" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="37"/>
-      <c r="Z30" s="37"/>
+      <c r="J30" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P30" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q30" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R30" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S30" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T30" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U30" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V30" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W30" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X30" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y30" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z30" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA30" s="37"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -2803,11 +3636,11 @@
       </c>
       <c r="E31" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>20</v>
@@ -2818,23 +3651,57 @@
       <c r="I31" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="37"/>
-      <c r="Z31" s="37"/>
+      <c r="J31" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P31" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q31" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R31" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S31" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T31" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U31" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V31" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W31" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X31" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y31" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z31" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA31" s="37"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -2853,11 +3720,11 @@
       </c>
       <c r="E32" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>21</v>
@@ -2868,23 +3735,57 @@
       <c r="I32" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="37"/>
+      <c r="J32" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O32" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R32" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T32" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U32" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W32" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X32" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y32" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z32" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA32" s="37"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -2903,11 +3804,11 @@
       </c>
       <c r="E33" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>20</v>
@@ -2918,23 +3819,57 @@
       <c r="I33" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37"/>
-      <c r="Z33" s="37"/>
+      <c r="J33" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O33" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P33" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q33" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R33" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S33" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T33" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U33" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V33" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W33" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X33" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y33" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z33" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA33" s="37"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -2953,11 +3888,11 @@
       </c>
       <c r="E34" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>20</v>
@@ -2968,23 +3903,57 @@
       <c r="I34" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="37"/>
+      <c r="J34" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P34" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q34" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R34" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S34" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T34" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U34" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V34" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W34" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X34" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y34" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z34" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA34" s="37"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -3003,11 +3972,11 @@
       </c>
       <c r="E35" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>20</v>
@@ -3018,23 +3987,57 @@
       <c r="I35" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="37"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
-      <c r="Y35" s="37"/>
-      <c r="Z35" s="37"/>
+      <c r="J35" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O35" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P35" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q35" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R35" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S35" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T35" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U35" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V35" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W35" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X35" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y35" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z35" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA35" s="37"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -3053,11 +4056,11 @@
       </c>
       <c r="E36" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>20</v>
@@ -3068,23 +4071,57 @@
       <c r="I36" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="37"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="37"/>
-      <c r="X36" s="37"/>
-      <c r="Y36" s="37"/>
-      <c r="Z36" s="37"/>
+      <c r="J36" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O36" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P36" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q36" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R36" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S36" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T36" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U36" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V36" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W36" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X36" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y36" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z36" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA36" s="37"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -3103,11 +4140,11 @@
       </c>
       <c r="E37" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G37" s="35" t="s">
         <v>20</v>
@@ -3118,23 +4155,57 @@
       <c r="I37" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="37"/>
-      <c r="Y37" s="37"/>
-      <c r="Z37" s="37"/>
+      <c r="J37" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N37" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O37" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P37" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q37" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R37" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S37" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T37" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U37" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V37" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W37" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X37" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y37" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z37" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA37" s="37"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -3153,11 +4224,11 @@
       </c>
       <c r="E38" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>21</v>
@@ -3168,23 +4239,57 @@
       <c r="I38" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37"/>
+      <c r="J38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N38" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O38" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P38" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q38" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R38" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T38" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U38" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V38" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W38" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X38" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y38" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z38" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA38" s="37"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -3203,11 +4308,11 @@
       </c>
       <c r="E39" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>20</v>
@@ -3218,23 +4323,57 @@
       <c r="I39" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
-      <c r="U39" s="37"/>
-      <c r="V39" s="37"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="37"/>
-      <c r="Y39" s="37"/>
-      <c r="Z39" s="37"/>
+      <c r="J39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N39" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O39" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P39" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R39" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S39" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T39" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U39" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V39" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W39" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X39" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z39" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA39" s="37"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -3253,11 +4392,11 @@
       </c>
       <c r="E40" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>20</v>
@@ -3268,23 +4407,57 @@
       <c r="I40" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="37"/>
-      <c r="U40" s="37"/>
-      <c r="V40" s="37"/>
-      <c r="W40" s="37"/>
-      <c r="X40" s="37"/>
-      <c r="Y40" s="37"/>
-      <c r="Z40" s="37"/>
+      <c r="J40" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N40" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O40" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P40" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q40" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R40" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S40" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T40" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U40" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V40" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W40" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X40" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y40" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z40" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA40" s="37"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -3303,11 +4476,11 @@
       </c>
       <c r="E41" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G41" s="35" t="s">
         <v>20</v>
@@ -3318,23 +4491,57 @@
       <c r="I41" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="37"/>
-      <c r="U41" s="37"/>
-      <c r="V41" s="37"/>
-      <c r="W41" s="37"/>
-      <c r="X41" s="37"/>
-      <c r="Y41" s="37"/>
-      <c r="Z41" s="37"/>
+      <c r="J41" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M41" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N41" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O41" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P41" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q41" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R41" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S41" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T41" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U41" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V41" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W41" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X41" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y41" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z41" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA41" s="37"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -3353,11 +4560,11 @@
       </c>
       <c r="E42" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G42" s="35" t="s">
         <v>20</v>
@@ -3368,23 +4575,57 @@
       <c r="I42" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="37"/>
-      <c r="S42" s="37"/>
-      <c r="T42" s="37"/>
-      <c r="U42" s="37"/>
-      <c r="V42" s="37"/>
-      <c r="W42" s="37"/>
-      <c r="X42" s="37"/>
-      <c r="Y42" s="37"/>
-      <c r="Z42" s="37"/>
+      <c r="J42" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L42" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M42" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N42" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O42" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P42" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q42" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R42" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S42" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T42" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U42" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V42" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W42" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X42" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y42" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z42" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA42" s="37"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -3403,11 +4644,11 @@
       </c>
       <c r="E43" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>20</v>
@@ -3418,23 +4659,57 @@
       <c r="I43" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="37"/>
-      <c r="S43" s="37"/>
-      <c r="T43" s="37"/>
-      <c r="U43" s="37"/>
-      <c r="V43" s="37"/>
-      <c r="W43" s="37"/>
-      <c r="X43" s="37"/>
-      <c r="Y43" s="37"/>
-      <c r="Z43" s="37"/>
+      <c r="J43" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N43" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O43" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P43" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q43" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R43" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S43" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T43" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U43" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V43" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W43" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X43" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y43" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z43" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA43" s="37"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -3453,11 +4728,11 @@
       </c>
       <c r="E44" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G44" s="35" t="s">
         <v>20</v>
@@ -3468,23 +4743,57 @@
       <c r="I44" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37"/>
-      <c r="S44" s="37"/>
-      <c r="T44" s="37"/>
-      <c r="U44" s="37"/>
-      <c r="V44" s="37"/>
-      <c r="W44" s="37"/>
-      <c r="X44" s="37"/>
-      <c r="Y44" s="37"/>
-      <c r="Z44" s="37"/>
+      <c r="J44" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P44" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q44" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R44" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S44" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T44" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U44" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V44" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W44" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X44" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y44" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z44" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA44" s="37"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -3503,11 +4812,11 @@
       </c>
       <c r="E45" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G45" s="35" t="s">
         <v>20</v>
@@ -3518,23 +4827,57 @@
       <c r="I45" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
-      <c r="S45" s="37"/>
-      <c r="T45" s="37"/>
-      <c r="U45" s="37"/>
-      <c r="V45" s="37"/>
-      <c r="W45" s="37"/>
-      <c r="X45" s="37"/>
-      <c r="Y45" s="37"/>
-      <c r="Z45" s="37"/>
+      <c r="J45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R45" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V45" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y45" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z45" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA45" s="37"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -3553,11 +4896,11 @@
       </c>
       <c r="E46" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G46" s="35" t="s">
         <v>20</v>
@@ -3568,23 +4911,55 @@
       <c r="I46" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="37"/>
-      <c r="S46" s="37"/>
-      <c r="T46" s="37"/>
-      <c r="U46" s="37"/>
-      <c r="V46" s="37"/>
-      <c r="W46" s="37"/>
-      <c r="X46" s="37"/>
-      <c r="Y46" s="37"/>
-      <c r="Z46" s="37"/>
+      <c r="J46" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M46" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O46" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P46" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q46" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="R46" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S46" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T46" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V46" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W46" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X46" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y46" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z46" s="36"/>
       <c r="AA46" s="37"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -3593,21 +4968,21 @@
         <v>41</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G47" s="35" t="s">
         <v>20</v>
@@ -3618,23 +4993,57 @@
       <c r="I47" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="37"/>
-      <c r="P47" s="37"/>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="37"/>
-      <c r="S47" s="37"/>
-      <c r="T47" s="37"/>
-      <c r="U47" s="37"/>
-      <c r="V47" s="37"/>
-      <c r="W47" s="37"/>
-      <c r="X47" s="37"/>
-      <c r="Y47" s="37"/>
-      <c r="Z47" s="37"/>
+      <c r="J47" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L47" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N47" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O47" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P47" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q47" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R47" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S47" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T47" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U47" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V47" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W47" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X47" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y47" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z47" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA47" s="37"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -3643,21 +5052,21 @@
         <v>42</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D48" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E48" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G48" s="35" t="s">
         <v>20</v>
@@ -3668,23 +5077,57 @@
       <c r="I48" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="37"/>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="37"/>
-      <c r="S48" s="37"/>
-      <c r="T48" s="37"/>
-      <c r="U48" s="37"/>
-      <c r="V48" s="37"/>
-      <c r="W48" s="37"/>
-      <c r="X48" s="37"/>
-      <c r="Y48" s="37"/>
-      <c r="Z48" s="37"/>
+      <c r="J48" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K48" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L48" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M48" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N48" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O48" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P48" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q48" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R48" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S48" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T48" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U48" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V48" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W48" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X48" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y48" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z48" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA48" s="37"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -3693,21 +5136,21 @@
         <v>43</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D49" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G49" s="35" t="s">
         <v>20</v>
@@ -3718,23 +5161,57 @@
       <c r="I49" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="37"/>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="37"/>
-      <c r="R49" s="37"/>
-      <c r="S49" s="37"/>
-      <c r="T49" s="37"/>
-      <c r="U49" s="37"/>
-      <c r="V49" s="37"/>
-      <c r="W49" s="37"/>
-      <c r="X49" s="37"/>
-      <c r="Y49" s="37"/>
-      <c r="Z49" s="37"/>
+      <c r="J49" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K49" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N49" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O49" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P49" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q49" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R49" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S49" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T49" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U49" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V49" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W49" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X49" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y49" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z49" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA49" s="37"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -3743,21 +5220,21 @@
         <v>44</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D50" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E50" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G50" s="35" t="s">
         <v>20</v>
@@ -3768,23 +5245,57 @@
       <c r="I50" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="37"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="37"/>
-      <c r="S50" s="37"/>
-      <c r="T50" s="37"/>
-      <c r="U50" s="37"/>
-      <c r="V50" s="37"/>
-      <c r="W50" s="37"/>
-      <c r="X50" s="37"/>
-      <c r="Y50" s="37"/>
-      <c r="Z50" s="37"/>
+      <c r="J50" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K50" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N50" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O50" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P50" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q50" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R50" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S50" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T50" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U50" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V50" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W50" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X50" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y50" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z50" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA50" s="37"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -3793,21 +5304,21 @@
         <v>45</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C51" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D51" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G51" s="35" t="s">
         <v>20</v>
@@ -3818,23 +5329,57 @@
       <c r="I51" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
-      <c r="M51" s="37"/>
-      <c r="N51" s="37"/>
-      <c r="O51" s="37"/>
-      <c r="P51" s="37"/>
-      <c r="Q51" s="37"/>
-      <c r="R51" s="37"/>
-      <c r="S51" s="37"/>
-      <c r="T51" s="37"/>
-      <c r="U51" s="37"/>
-      <c r="V51" s="37"/>
-      <c r="W51" s="37"/>
-      <c r="X51" s="37"/>
-      <c r="Y51" s="37"/>
-      <c r="Z51" s="37"/>
+      <c r="J51" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L51" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N51" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O51" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P51" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q51" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R51" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S51" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T51" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U51" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V51" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W51" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X51" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y51" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z51" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA51" s="37"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -3843,21 +5388,21 @@
         <v>46</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C52" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E52" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G52" s="35" t="s">
         <v>20</v>
@@ -3868,23 +5413,57 @@
       <c r="I52" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="37"/>
-      <c r="S52" s="37"/>
-      <c r="T52" s="37"/>
-      <c r="U52" s="37"/>
-      <c r="V52" s="37"/>
-      <c r="W52" s="37"/>
-      <c r="X52" s="37"/>
-      <c r="Y52" s="37"/>
-      <c r="Z52" s="37"/>
+      <c r="J52" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K52" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M52" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N52" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O52" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P52" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q52" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R52" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S52" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T52" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U52" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V52" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W52" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X52" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y52" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z52" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA52" s="37"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -3893,21 +5472,21 @@
         <v>47</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D53" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G53" s="35" t="s">
         <v>20</v>
@@ -3918,23 +5497,57 @@
       <c r="I53" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="37"/>
-      <c r="S53" s="37"/>
-      <c r="T53" s="37"/>
-      <c r="U53" s="37"/>
-      <c r="V53" s="37"/>
-      <c r="W53" s="37"/>
-      <c r="X53" s="37"/>
-      <c r="Y53" s="37"/>
-      <c r="Z53" s="37"/>
+      <c r="J53" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N53" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O53" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P53" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q53" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R53" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S53" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T53" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U53" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V53" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W53" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X53" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y53" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z53" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA53" s="37"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -3943,21 +5556,21 @@
         <v>48</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D54" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G54" s="35" t="s">
         <v>20</v>
@@ -3968,23 +5581,57 @@
       <c r="I54" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="37"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="37"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="37"/>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="37"/>
-      <c r="S54" s="37"/>
-      <c r="T54" s="37"/>
-      <c r="U54" s="37"/>
-      <c r="V54" s="37"/>
-      <c r="W54" s="37"/>
-      <c r="X54" s="37"/>
-      <c r="Y54" s="37"/>
-      <c r="Z54" s="37"/>
+      <c r="J54" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N54" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O54" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P54" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q54" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R54" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S54" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T54" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U54" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W54" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X54" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y54" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z54" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA54" s="37"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -3993,21 +5640,21 @@
         <v>49</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C55" s="33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D55" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G55" s="35" t="s">
         <v>20</v>
@@ -4018,23 +5665,57 @@
       <c r="I55" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="37"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="37"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="37"/>
-      <c r="S55" s="37"/>
-      <c r="T55" s="37"/>
-      <c r="U55" s="37"/>
-      <c r="V55" s="37"/>
-      <c r="W55" s="37"/>
-      <c r="X55" s="37"/>
-      <c r="Y55" s="37"/>
-      <c r="Z55" s="37"/>
+      <c r="J55" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L55" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N55" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O55" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P55" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q55" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R55" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S55" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T55" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U55" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V55" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W55" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X55" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y55" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z55" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA55" s="37"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -4043,21 +5724,21 @@
         <v>50</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D56" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E56" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G56" s="35" t="s">
         <v>20</v>
@@ -4068,23 +5749,57 @@
       <c r="I56" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="37"/>
-      <c r="O56" s="37"/>
-      <c r="P56" s="37"/>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="37"/>
-      <c r="S56" s="37"/>
-      <c r="T56" s="37"/>
-      <c r="U56" s="37"/>
-      <c r="V56" s="37"/>
-      <c r="W56" s="37"/>
-      <c r="X56" s="37"/>
-      <c r="Y56" s="37"/>
-      <c r="Z56" s="37"/>
+      <c r="J56" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K56" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L56" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M56" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N56" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O56" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P56" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q56" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R56" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S56" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T56" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U56" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V56" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W56" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X56" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y56" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z56" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA56" s="37"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -4093,21 +5808,21 @@
         <v>51</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C57" s="33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D57" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E57" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G57" s="35" t="s">
         <v>20</v>
@@ -4118,23 +5833,57 @@
       <c r="I57" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="37"/>
-      <c r="O57" s="37"/>
-      <c r="P57" s="37"/>
-      <c r="Q57" s="37"/>
-      <c r="R57" s="37"/>
-      <c r="S57" s="37"/>
-      <c r="T57" s="37"/>
-      <c r="U57" s="37"/>
-      <c r="V57" s="37"/>
-      <c r="W57" s="37"/>
-      <c r="X57" s="37"/>
-      <c r="Y57" s="37"/>
-      <c r="Z57" s="37"/>
+      <c r="J57" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K57" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L57" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M57" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N57" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O57" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P57" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q57" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R57" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S57" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T57" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U57" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V57" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W57" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X57" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y57" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z57" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA57" s="37"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -4143,21 +5892,21 @@
         <v>52</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D58" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E58" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>20</v>
@@ -4168,23 +5917,57 @@
       <c r="I58" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="37"/>
-      <c r="O58" s="37"/>
-      <c r="P58" s="37"/>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="37"/>
-      <c r="S58" s="37"/>
-      <c r="T58" s="37"/>
-      <c r="U58" s="37"/>
-      <c r="V58" s="37"/>
-      <c r="W58" s="37"/>
-      <c r="X58" s="37"/>
-      <c r="Y58" s="37"/>
-      <c r="Z58" s="37"/>
+      <c r="J58" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K58" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L58" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M58" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N58" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O58" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P58" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q58" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R58" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S58" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T58" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U58" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V58" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W58" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X58" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y58" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z58" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA58" s="37"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -4193,21 +5976,21 @@
         <v>53</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D59" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E59" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G59" s="35" t="s">
         <v>21</v>
@@ -4218,23 +6001,57 @@
       <c r="I59" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J59" s="37"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="37"/>
-      <c r="M59" s="37"/>
-      <c r="N59" s="37"/>
-      <c r="O59" s="37"/>
-      <c r="P59" s="37"/>
-      <c r="Q59" s="37"/>
-      <c r="R59" s="37"/>
-      <c r="S59" s="37"/>
-      <c r="T59" s="37"/>
-      <c r="U59" s="37"/>
-      <c r="V59" s="37"/>
-      <c r="W59" s="37"/>
-      <c r="X59" s="37"/>
-      <c r="Y59" s="37"/>
-      <c r="Z59" s="37"/>
+      <c r="J59" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K59" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L59" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M59" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N59" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O59" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P59" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q59" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R59" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S59" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T59" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U59" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V59" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W59" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X59" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y59" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z59" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA59" s="37"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -4243,21 +6060,21 @@
         <v>54</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D60" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E60" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G60" s="35" t="s">
         <v>20</v>
@@ -4268,23 +6085,57 @@
       <c r="I60" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="37"/>
-      <c r="O60" s="37"/>
-      <c r="P60" s="37"/>
-      <c r="Q60" s="37"/>
-      <c r="R60" s="37"/>
-      <c r="S60" s="37"/>
-      <c r="T60" s="37"/>
-      <c r="U60" s="37"/>
-      <c r="V60" s="37"/>
-      <c r="W60" s="37"/>
-      <c r="X60" s="37"/>
-      <c r="Y60" s="37"/>
-      <c r="Z60" s="37"/>
+      <c r="J60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K60" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L60" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N60" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q60" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="S60" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T60" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U60" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V60" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y60" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z60" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA60" s="37"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -4293,21 +6144,21 @@
         <v>55</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D61" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E61" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G61" s="35" t="s">
         <v>20</v>
@@ -4318,23 +6169,57 @@
       <c r="I61" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="37"/>
-      <c r="O61" s="37"/>
-      <c r="P61" s="37"/>
-      <c r="Q61" s="37"/>
-      <c r="R61" s="37"/>
-      <c r="S61" s="37"/>
-      <c r="T61" s="37"/>
-      <c r="U61" s="37"/>
-      <c r="V61" s="37"/>
-      <c r="W61" s="37"/>
-      <c r="X61" s="37"/>
-      <c r="Y61" s="37"/>
-      <c r="Z61" s="37"/>
+      <c r="J61" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K61" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L61" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M61" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N61" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O61" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P61" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q61" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R61" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S61" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T61" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U61" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V61" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W61" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X61" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y61" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z61" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA61" s="37"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -4343,21 +6228,21 @@
         <v>56</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C62" s="33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D62" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E62" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G62" s="35" t="s">
         <v>20</v>
@@ -4368,23 +6253,57 @@
       <c r="I62" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
-      <c r="L62" s="37"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="37"/>
-      <c r="Q62" s="37"/>
-      <c r="R62" s="37"/>
-      <c r="S62" s="37"/>
-      <c r="T62" s="37"/>
-      <c r="U62" s="37"/>
-      <c r="V62" s="37"/>
-      <c r="W62" s="37"/>
-      <c r="X62" s="37"/>
-      <c r="Y62" s="37"/>
-      <c r="Z62" s="37"/>
+      <c r="J62" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K62" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L62" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M62" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N62" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O62" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P62" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q62" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R62" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S62" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T62" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U62" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V62" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W62" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X62" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y62" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z62" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA62" s="37"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -4393,21 +6312,21 @@
         <v>57</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C63" s="33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D63" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E63" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G63" s="35" t="s">
         <v>20</v>
@@ -4418,23 +6337,57 @@
       <c r="I63" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J63" s="37"/>
-      <c r="K63" s="37"/>
-      <c r="L63" s="37"/>
-      <c r="M63" s="37"/>
-      <c r="N63" s="37"/>
-      <c r="O63" s="37"/>
-      <c r="P63" s="37"/>
-      <c r="Q63" s="37"/>
-      <c r="R63" s="37"/>
-      <c r="S63" s="37"/>
-      <c r="T63" s="37"/>
-      <c r="U63" s="37"/>
-      <c r="V63" s="37"/>
-      <c r="W63" s="37"/>
-      <c r="X63" s="37"/>
-      <c r="Y63" s="37"/>
-      <c r="Z63" s="37"/>
+      <c r="J63" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K63" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L63" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M63" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N63" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O63" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P63" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q63" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R63" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S63" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T63" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U63" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V63" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W63" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X63" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y63" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z63" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA63" s="37"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -4443,21 +6396,21 @@
         <v>58</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C64" s="33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D64" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E64" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G64" s="35" t="s">
         <v>21</v>
@@ -4468,23 +6421,57 @@
       <c r="I64" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J64" s="37"/>
-      <c r="K64" s="37"/>
-      <c r="L64" s="37"/>
-      <c r="M64" s="37"/>
-      <c r="N64" s="37"/>
-      <c r="O64" s="37"/>
-      <c r="P64" s="37"/>
-      <c r="Q64" s="37"/>
-      <c r="R64" s="37"/>
-      <c r="S64" s="37"/>
-      <c r="T64" s="37"/>
-      <c r="U64" s="37"/>
-      <c r="V64" s="37"/>
-      <c r="W64" s="37"/>
-      <c r="X64" s="37"/>
-      <c r="Y64" s="37"/>
-      <c r="Z64" s="37"/>
+      <c r="J64" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K64" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L64" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M64" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N64" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O64" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q64" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R64" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S64" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T64" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W64" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X64" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y64" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z64" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA64" s="37"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -4493,21 +6480,21 @@
         <v>59</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C65" s="33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D65" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E65" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G65" s="35" t="s">
         <v>20</v>
@@ -4518,23 +6505,57 @@
       <c r="I65" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J65" s="37"/>
-      <c r="K65" s="37"/>
-      <c r="L65" s="37"/>
-      <c r="M65" s="37"/>
-      <c r="N65" s="37"/>
-      <c r="O65" s="37"/>
-      <c r="P65" s="37"/>
-      <c r="Q65" s="37"/>
-      <c r="R65" s="37"/>
-      <c r="S65" s="37"/>
-      <c r="T65" s="37"/>
-      <c r="U65" s="37"/>
-      <c r="V65" s="37"/>
-      <c r="W65" s="37"/>
-      <c r="X65" s="37"/>
-      <c r="Y65" s="37"/>
-      <c r="Z65" s="37"/>
+      <c r="J65" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K65" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L65" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M65" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N65" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O65" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P65" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q65" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R65" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S65" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T65" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U65" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V65" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W65" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X65" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y65" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z65" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA65" s="37"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -4543,21 +6564,21 @@
         <v>60</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C66" s="33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D66" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E66" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G66" s="35" t="s">
         <v>20</v>
@@ -4568,23 +6589,57 @@
       <c r="I66" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J66" s="37"/>
-      <c r="K66" s="37"/>
-      <c r="L66" s="37"/>
-      <c r="M66" s="37"/>
-      <c r="N66" s="37"/>
-      <c r="O66" s="37"/>
-      <c r="P66" s="37"/>
-      <c r="Q66" s="37"/>
-      <c r="R66" s="37"/>
-      <c r="S66" s="37"/>
-      <c r="T66" s="37"/>
-      <c r="U66" s="37"/>
-      <c r="V66" s="37"/>
-      <c r="W66" s="37"/>
-      <c r="X66" s="37"/>
-      <c r="Y66" s="37"/>
-      <c r="Z66" s="37"/>
+      <c r="J66" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K66" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L66" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M66" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N66" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O66" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P66" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q66" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R66" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S66" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T66" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U66" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V66" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W66" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X66" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y66" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z66" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA66" s="37"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
@@ -4593,21 +6648,21 @@
         <v>61</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C67" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D67" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E67" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G67" s="35" t="s">
         <v>20</v>
@@ -4618,23 +6673,57 @@
       <c r="I67" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J67" s="37"/>
-      <c r="K67" s="37"/>
-      <c r="L67" s="37"/>
-      <c r="M67" s="37"/>
-      <c r="N67" s="37"/>
-      <c r="O67" s="37"/>
-      <c r="P67" s="37"/>
-      <c r="Q67" s="37"/>
-      <c r="R67" s="37"/>
-      <c r="S67" s="37"/>
-      <c r="T67" s="37"/>
-      <c r="U67" s="37"/>
-      <c r="V67" s="37"/>
-      <c r="W67" s="37"/>
-      <c r="X67" s="37"/>
-      <c r="Y67" s="37"/>
-      <c r="Z67" s="37"/>
+      <c r="J67" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K67" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L67" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M67" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N67" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O67" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P67" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q67" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R67" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S67" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T67" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U67" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V67" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="W67" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X67" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y67" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z67" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA67" s="37"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -4643,21 +6732,21 @@
         <v>62</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C68" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D68" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E68" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G68" s="35" t="s">
         <v>20</v>
@@ -4668,23 +6757,57 @@
       <c r="I68" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
-      <c r="L68" s="37"/>
-      <c r="M68" s="37"/>
-      <c r="N68" s="37"/>
-      <c r="O68" s="37"/>
-      <c r="P68" s="37"/>
-      <c r="Q68" s="37"/>
-      <c r="R68" s="37"/>
-      <c r="S68" s="37"/>
-      <c r="T68" s="37"/>
-      <c r="U68" s="37"/>
-      <c r="V68" s="37"/>
-      <c r="W68" s="37"/>
-      <c r="X68" s="37"/>
-      <c r="Y68" s="37"/>
-      <c r="Z68" s="37"/>
+      <c r="J68" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K68" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L68" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M68" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N68" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O68" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P68" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q68" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R68" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S68" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T68" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="U68" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V68" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W68" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X68" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y68" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z68" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA68" s="37"/>
     </row>
     <row r="69" ht="16.5" customHeight="1">
@@ -4693,21 +6816,21 @@
         <v>63</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C69" s="33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D69" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E69" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G69" s="35" t="s">
         <v>20</v>
@@ -4718,23 +6841,57 @@
       <c r="I69" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J69" s="37"/>
-      <c r="K69" s="37"/>
-      <c r="L69" s="37"/>
-      <c r="M69" s="37"/>
-      <c r="N69" s="37"/>
-      <c r="O69" s="37"/>
-      <c r="P69" s="37"/>
-      <c r="Q69" s="37"/>
-      <c r="R69" s="37"/>
-      <c r="S69" s="37"/>
-      <c r="T69" s="37"/>
-      <c r="U69" s="37"/>
-      <c r="V69" s="37"/>
-      <c r="W69" s="37"/>
-      <c r="X69" s="37"/>
-      <c r="Y69" s="37"/>
-      <c r="Z69" s="37"/>
+      <c r="J69" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K69" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M69" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N69" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O69" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P69" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q69" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R69" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S69" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T69" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U69" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V69" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W69" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X69" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y69" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z69" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA69" s="37"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -4743,21 +6900,21 @@
         <v>64</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C70" s="33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D70" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E70" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G70" s="35" t="s">
         <v>20</v>
@@ -4768,23 +6925,57 @@
       <c r="I70" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J70" s="37"/>
-      <c r="K70" s="37"/>
-      <c r="L70" s="37"/>
-      <c r="M70" s="37"/>
-      <c r="N70" s="37"/>
-      <c r="O70" s="37"/>
-      <c r="P70" s="37"/>
-      <c r="Q70" s="37"/>
-      <c r="R70" s="37"/>
-      <c r="S70" s="37"/>
-      <c r="T70" s="37"/>
-      <c r="U70" s="37"/>
-      <c r="V70" s="37"/>
-      <c r="W70" s="37"/>
-      <c r="X70" s="37"/>
-      <c r="Y70" s="37"/>
-      <c r="Z70" s="37"/>
+      <c r="J70" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K70" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M70" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N70" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O70" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P70" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q70" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R70" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S70" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T70" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U70" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V70" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W70" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X70" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y70" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z70" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA70" s="37"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
@@ -4793,21 +6984,21 @@
         <v>65</v>
       </c>
       <c r="B71" s="32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D71" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E71" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G71" s="35" t="s">
         <v>20</v>
@@ -4818,23 +7009,57 @@
       <c r="I71" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J71" s="37"/>
-      <c r="K71" s="37"/>
-      <c r="L71" s="37"/>
-      <c r="M71" s="37"/>
-      <c r="N71" s="37"/>
-      <c r="O71" s="37"/>
-      <c r="P71" s="37"/>
-      <c r="Q71" s="37"/>
-      <c r="R71" s="37"/>
-      <c r="S71" s="37"/>
-      <c r="T71" s="37"/>
-      <c r="U71" s="37"/>
-      <c r="V71" s="37"/>
-      <c r="W71" s="37"/>
-      <c r="X71" s="37"/>
-      <c r="Y71" s="37"/>
-      <c r="Z71" s="37"/>
+      <c r="J71" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K71" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L71" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M71" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N71" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O71" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P71" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q71" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="R71" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S71" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T71" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U71" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V71" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W71" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X71" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y71" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z71" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA71" s="37"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -4843,21 +7068,21 @@
         <v>66</v>
       </c>
       <c r="B72" s="32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D72" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E72" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G72" s="35" t="s">
         <v>20</v>
@@ -4868,23 +7093,57 @@
       <c r="I72" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="J72" s="37"/>
-      <c r="K72" s="37"/>
-      <c r="L72" s="37"/>
-      <c r="M72" s="37"/>
-      <c r="N72" s="37"/>
-      <c r="O72" s="37"/>
-      <c r="P72" s="37"/>
-      <c r="Q72" s="37"/>
-      <c r="R72" s="37"/>
-      <c r="S72" s="37"/>
-      <c r="T72" s="37"/>
-      <c r="U72" s="37"/>
-      <c r="V72" s="37"/>
-      <c r="W72" s="37"/>
-      <c r="X72" s="37"/>
-      <c r="Y72" s="37"/>
-      <c r="Z72" s="37"/>
+      <c r="J72" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K72" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L72" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M72" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N72" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O72" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P72" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q72" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R72" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S72" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T72" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U72" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V72" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W72" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X72" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y72" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z72" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA72" s="37"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
@@ -4893,21 +7152,21 @@
         <v>67</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D73" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E73" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G73" s="35" t="s">
         <v>20</v>
@@ -4918,23 +7177,57 @@
       <c r="I73" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J73" s="37"/>
-      <c r="K73" s="37"/>
-      <c r="L73" s="37"/>
-      <c r="M73" s="37"/>
-      <c r="N73" s="37"/>
-      <c r="O73" s="37"/>
-      <c r="P73" s="37"/>
-      <c r="Q73" s="37"/>
-      <c r="R73" s="37"/>
-      <c r="S73" s="37"/>
-      <c r="T73" s="37"/>
-      <c r="U73" s="37"/>
-      <c r="V73" s="37"/>
-      <c r="W73" s="37"/>
-      <c r="X73" s="37"/>
-      <c r="Y73" s="37"/>
-      <c r="Z73" s="37"/>
+      <c r="J73" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K73" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L73" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="M73" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N73" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O73" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P73" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q73" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R73" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S73" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T73" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U73" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V73" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W73" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="X73" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y73" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z73" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA73" s="37"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
@@ -4943,21 +7236,21 @@
         <v>68</v>
       </c>
       <c r="B74" s="32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D74" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G74" s="35" t="s">
         <v>20</v>
@@ -4968,23 +7261,57 @@
       <c r="I74" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J74" s="37"/>
-      <c r="K74" s="37"/>
-      <c r="L74" s="37"/>
-      <c r="M74" s="37"/>
-      <c r="N74" s="37"/>
-      <c r="O74" s="37"/>
-      <c r="P74" s="37"/>
-      <c r="Q74" s="37"/>
-      <c r="R74" s="37"/>
-      <c r="S74" s="37"/>
-      <c r="T74" s="37"/>
-      <c r="U74" s="37"/>
-      <c r="V74" s="37"/>
-      <c r="W74" s="37"/>
-      <c r="X74" s="37"/>
-      <c r="Y74" s="37"/>
-      <c r="Z74" s="37"/>
+      <c r="J74" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K74" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L74" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M74" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N74" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O74" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P74" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q74" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R74" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S74" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T74" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U74" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V74" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W74" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X74" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y74" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z74" s="36" t="s">
+        <v>21</v>
+      </c>
       <c r="AA74" s="37"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
@@ -4993,21 +7320,21 @@
         <v>69</v>
       </c>
       <c r="B75" s="32" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D75" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E75" s="26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G75" s="35" t="s">
         <v>20</v>
@@ -5018,23 +7345,57 @@
       <c r="I75" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J75" s="37"/>
-      <c r="K75" s="37"/>
-      <c r="L75" s="37"/>
-      <c r="M75" s="37"/>
-      <c r="N75" s="37"/>
-      <c r="O75" s="37"/>
-      <c r="P75" s="37"/>
-      <c r="Q75" s="37"/>
-      <c r="R75" s="37"/>
-      <c r="S75" s="37"/>
-      <c r="T75" s="37"/>
-      <c r="U75" s="37"/>
-      <c r="V75" s="37"/>
-      <c r="W75" s="37"/>
-      <c r="X75" s="37"/>
-      <c r="Y75" s="37"/>
-      <c r="Z75" s="37"/>
+      <c r="J75" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K75" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L75" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M75" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N75" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O75" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P75" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q75" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="R75" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S75" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="T75" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="U75" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="V75" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="W75" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="X75" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y75" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z75" s="36" t="s">
+        <v>20</v>
+      </c>
       <c r="AA75" s="37"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
@@ -5043,7 +7404,7 @@
         <v/>
       </c>
       <c r="B76" s="32"/>
-      <c r="C76" s="38"/>
+      <c r="C76" s="39"/>
       <c r="D76" s="25"/>
       <c r="E76" s="26" t="str">
         <f t="shared" si="1"/>
@@ -5053,14 +7414,14 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G76" s="39"/>
+      <c r="G76" s="40"/>
       <c r="H76" s="36"/>
       <c r="I76" s="36"/>
       <c r="J76" s="37"/>
       <c r="K76" s="37"/>
       <c r="L76" s="37"/>
       <c r="M76" s="37"/>
-      <c r="N76" s="37"/>
+      <c r="N76" s="36"/>
       <c r="O76" s="37"/>
       <c r="P76" s="37"/>
       <c r="Q76" s="37"/>
@@ -5081,7 +7442,7 @@
         <v/>
       </c>
       <c r="B77" s="32"/>
-      <c r="C77" s="38"/>
+      <c r="C77" s="39"/>
       <c r="D77" s="25"/>
       <c r="E77" s="26" t="str">
         <f t="shared" si="1"/>
@@ -5091,7 +7452,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G77" s="39"/>
+      <c r="G77" s="40"/>
       <c r="H77" s="36"/>
       <c r="I77" s="36"/>
       <c r="J77" s="37"/>
@@ -5121,7 +7482,7 @@
       <c r="B78" s="32"/>
       <c r="C78" s="33"/>
       <c r="D78" s="25"/>
-      <c r="E78" s="40" t="str">
+      <c r="E78" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5129,7 +7490,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G78" s="39"/>
+      <c r="G78" s="40"/>
       <c r="H78" s="37"/>
       <c r="I78" s="37"/>
       <c r="J78" s="37"/>
@@ -5158,8 +7519,8 @@
       </c>
       <c r="B79" s="32"/>
       <c r="C79" s="33"/>
-      <c r="D79" s="41"/>
-      <c r="E79" s="40" t="str">
+      <c r="D79" s="42"/>
+      <c r="E79" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5167,7 +7528,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G79" s="39"/>
+      <c r="G79" s="40"/>
       <c r="H79" s="37"/>
       <c r="I79" s="37"/>
       <c r="J79" s="37"/>
@@ -5196,8 +7557,8 @@
       </c>
       <c r="B80" s="32"/>
       <c r="C80" s="33"/>
-      <c r="D80" s="41"/>
-      <c r="E80" s="40" t="str">
+      <c r="D80" s="42"/>
+      <c r="E80" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5205,7 +7566,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G80" s="39"/>
+      <c r="G80" s="40"/>
       <c r="H80" s="37"/>
       <c r="I80" s="37"/>
       <c r="J80" s="37"/>
@@ -5234,8 +7595,8 @@
       </c>
       <c r="B81" s="32"/>
       <c r="C81" s="33"/>
-      <c r="D81" s="41"/>
-      <c r="E81" s="40" t="str">
+      <c r="D81" s="42"/>
+      <c r="E81" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5243,7 +7604,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G81" s="39"/>
+      <c r="G81" s="40"/>
       <c r="H81" s="37"/>
       <c r="I81" s="37"/>
       <c r="J81" s="37"/>
@@ -5272,8 +7633,8 @@
       </c>
       <c r="B82" s="32"/>
       <c r="C82" s="33"/>
-      <c r="D82" s="41"/>
-      <c r="E82" s="40" t="str">
+      <c r="D82" s="42"/>
+      <c r="E82" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5281,7 +7642,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G82" s="39"/>
+      <c r="G82" s="40"/>
       <c r="H82" s="37"/>
       <c r="I82" s="37"/>
       <c r="J82" s="37"/>
@@ -5310,8 +7671,8 @@
       </c>
       <c r="B83" s="32"/>
       <c r="C83" s="33"/>
-      <c r="D83" s="41"/>
-      <c r="E83" s="40" t="str">
+      <c r="D83" s="42"/>
+      <c r="E83" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5319,7 +7680,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G83" s="39"/>
+      <c r="G83" s="40"/>
       <c r="H83" s="37"/>
       <c r="I83" s="37"/>
       <c r="J83" s="37"/>
@@ -5348,8 +7709,8 @@
       </c>
       <c r="B84" s="32"/>
       <c r="C84" s="33"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="40" t="str">
+      <c r="D84" s="42"/>
+      <c r="E84" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5357,7 +7718,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G84" s="39"/>
+      <c r="G84" s="40"/>
       <c r="H84" s="37"/>
       <c r="I84" s="37"/>
       <c r="J84" s="37"/>
@@ -5386,8 +7747,8 @@
       </c>
       <c r="B85" s="32"/>
       <c r="C85" s="33"/>
-      <c r="D85" s="41"/>
-      <c r="E85" s="40" t="str">
+      <c r="D85" s="42"/>
+      <c r="E85" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5395,7 +7756,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G85" s="39"/>
+      <c r="G85" s="40"/>
       <c r="H85" s="37"/>
       <c r="I85" s="37"/>
       <c r="J85" s="37"/>
@@ -5424,8 +7785,8 @@
       </c>
       <c r="B86" s="32"/>
       <c r="C86" s="33"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="40" t="str">
+      <c r="D86" s="42"/>
+      <c r="E86" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5433,7 +7794,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G86" s="39"/>
+      <c r="G86" s="40"/>
       <c r="H86" s="37"/>
       <c r="I86" s="37"/>
       <c r="J86" s="37"/>
@@ -5460,10 +7821,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B87" s="42"/>
-      <c r="C87" s="42"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="40" t="str">
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5471,7 +7832,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G87" s="39"/>
+      <c r="G87" s="40"/>
       <c r="H87" s="37"/>
       <c r="I87" s="37"/>
       <c r="J87" s="37"/>
@@ -5498,10 +7859,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B88" s="42"/>
-      <c r="C88" s="42"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="40" t="str">
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5509,7 +7870,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G88" s="39"/>
+      <c r="G88" s="40"/>
       <c r="H88" s="37"/>
       <c r="I88" s="37"/>
       <c r="J88" s="37"/>
@@ -5536,10 +7897,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B89" s="42"/>
-      <c r="C89" s="42"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="40" t="str">
+      <c r="B89" s="43"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5547,7 +7908,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G89" s="39"/>
+      <c r="G89" s="40"/>
       <c r="H89" s="37"/>
       <c r="I89" s="37"/>
       <c r="J89" s="37"/>
@@ -5574,10 +7935,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B90" s="42"/>
-      <c r="C90" s="42"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="40" t="str">
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="41"/>
+      <c r="E90" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5585,7 +7946,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G90" s="39"/>
+      <c r="G90" s="40"/>
       <c r="H90" s="37"/>
       <c r="I90" s="37"/>
       <c r="J90" s="37"/>
@@ -5612,10 +7973,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B91" s="42"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="40"/>
-      <c r="E91" s="40" t="str">
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5623,7 +7984,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G91" s="39"/>
+      <c r="G91" s="40"/>
       <c r="H91" s="37"/>
       <c r="I91" s="37"/>
       <c r="J91" s="37"/>
@@ -5650,10 +8011,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B92" s="42"/>
-      <c r="C92" s="42"/>
-      <c r="D92" s="40"/>
-      <c r="E92" s="40" t="str">
+      <c r="B92" s="43"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5661,7 +8022,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G92" s="39"/>
+      <c r="G92" s="40"/>
       <c r="H92" s="37"/>
       <c r="I92" s="37"/>
       <c r="J92" s="37"/>
@@ -5688,10 +8049,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B93" s="42"/>
-      <c r="C93" s="42"/>
-      <c r="D93" s="40"/>
-      <c r="E93" s="40" t="str">
+      <c r="B93" s="43"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5699,7 +8060,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G93" s="39"/>
+      <c r="G93" s="40"/>
       <c r="H93" s="37"/>
       <c r="I93" s="37"/>
       <c r="J93" s="37"/>
@@ -5726,10 +8087,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B94" s="42"/>
-      <c r="C94" s="42"/>
-      <c r="D94" s="40"/>
-      <c r="E94" s="40" t="str">
+      <c r="B94" s="43"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5737,7 +8098,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G94" s="39"/>
+      <c r="G94" s="40"/>
       <c r="H94" s="37"/>
       <c r="I94" s="37"/>
       <c r="J94" s="37"/>
@@ -5764,10 +8125,10 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B95" s="42"/>
-      <c r="C95" s="42"/>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40" t="str">
+      <c r="B95" s="43"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="41"/>
+      <c r="E95" s="41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5775,7 +8136,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G95" s="39"/>
+      <c r="G95" s="40"/>
       <c r="H95" s="37"/>
       <c r="I95" s="37"/>
       <c r="J95" s="37"/>
@@ -6712,6 +9073,11 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="D5:E5"/>
   </mergeCells>
+  <conditionalFormatting sqref="G1:Z1000">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/attendance-files/MR/MR-B (EFGH) Attendance Sheet.xlsx
+++ b/attendance-files/MR/MR-B (EFGH) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="159">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>20</v>
@@ -1680,12 +1680,8 @@
       <c r="X7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="Y7" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z7" s="29" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
       <c r="AA7" s="30"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -1708,7 +1704,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>20</v>
@@ -1764,12 +1760,8 @@
       <c r="X8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y8" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z8" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
       <c r="AA8" s="37"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -1788,11 +1780,11 @@
       </c>
       <c r="E9" s="26">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>20</v>
@@ -1848,12 +1840,8 @@
       <c r="X9" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y9" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z9" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
       <c r="AA9" s="37"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -1872,11 +1860,11 @@
       </c>
       <c r="E10" s="26">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>21</v>
@@ -1932,12 +1920,8 @@
       <c r="X10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y10" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z10" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
       <c r="AA10" s="37"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -1956,7 +1940,7 @@
       </c>
       <c r="E11" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11" s="34">
         <f t="shared" si="2"/>
@@ -2016,12 +2000,8 @@
       <c r="X11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y11" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z11" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
       <c r="AA11" s="37"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -2040,11 +2020,11 @@
       </c>
       <c r="E12" s="26">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>20</v>
@@ -2100,12 +2080,8 @@
       <c r="X12" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y12" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z12" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
       <c r="AA12" s="37"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -2128,7 +2104,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>20</v>
@@ -2184,12 +2160,8 @@
       <c r="X13" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y13" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z13" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
       <c r="AA13" s="37"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -2208,11 +2180,11 @@
       </c>
       <c r="E14" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="34">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>21</v>
@@ -2268,12 +2240,8 @@
       <c r="X14" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y14" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z14" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
       <c r="AA14" s="37"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -2296,7 +2264,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G15" s="35" t="s">
         <v>20</v>
@@ -2352,12 +2320,8 @@
       <c r="X15" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y15" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z15" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
       <c r="AA15" s="37"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -2380,7 +2344,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>20</v>
@@ -2436,12 +2400,8 @@
       <c r="X16" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y16" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z16" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
       <c r="AA16" s="37"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -2460,11 +2420,11 @@
       </c>
       <c r="E17" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>20</v>
@@ -2520,12 +2480,8 @@
       <c r="X17" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y17" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z17" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
       <c r="AA17" s="37"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
@@ -2548,7 +2504,7 @@
       </c>
       <c r="F18" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>20</v>
@@ -2604,12 +2560,8 @@
       <c r="X18" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y18" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z18" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
       <c r="AA18" s="37"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
@@ -2632,7 +2584,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G19" s="35" t="s">
         <v>21</v>
@@ -2688,12 +2640,8 @@
       <c r="X19" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y19" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z19" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
       <c r="AA19" s="37"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
@@ -2716,7 +2664,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>20</v>
@@ -2772,12 +2720,8 @@
       <c r="X20" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y20" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z20" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
       <c r="AA20" s="37"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -2796,11 +2740,11 @@
       </c>
       <c r="E21" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G21" s="35" t="s">
         <v>21</v>
@@ -2856,12 +2800,8 @@
       <c r="X21" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y21" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z21" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
       <c r="AA21" s="37"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -2884,7 +2824,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G22" s="35" t="s">
         <v>20</v>
@@ -2940,12 +2880,8 @@
       <c r="X22" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y22" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z22" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="37"/>
       <c r="AA22" s="37"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -2964,7 +2900,7 @@
       </c>
       <c r="E23" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F23" s="34">
         <f t="shared" si="2"/>
@@ -3024,12 +2960,8 @@
       <c r="X23" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y23" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z23" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="37"/>
       <c r="AA23" s="37"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -3052,7 +2984,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G24" s="35" t="s">
         <v>20</v>
@@ -3108,12 +3040,8 @@
       <c r="X24" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y24" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z24" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
       <c r="AA24" s="37"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -3136,7 +3064,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G25" s="35" t="s">
         <v>21</v>
@@ -3192,12 +3120,8 @@
       <c r="X25" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y25" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z25" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="37"/>
       <c r="AA25" s="37"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -3220,7 +3144,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G26" s="35" t="s">
         <v>20</v>
@@ -3276,12 +3200,8 @@
       <c r="X26" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y26" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z26" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
       <c r="AA26" s="37"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -3300,11 +3220,11 @@
       </c>
       <c r="E27" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F27" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G27" s="35" t="s">
         <v>20</v>
@@ -3360,12 +3280,8 @@
       <c r="X27" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y27" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z27" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
       <c r="AA27" s="37"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -3384,11 +3300,11 @@
       </c>
       <c r="E28" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F28" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G28" s="35" t="s">
         <v>20</v>
@@ -3444,12 +3360,8 @@
       <c r="X28" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y28" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z28" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
       <c r="AA28" s="37"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -3468,7 +3380,7 @@
       </c>
       <c r="E29" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F29" s="34">
         <f t="shared" si="2"/>
@@ -3528,12 +3440,8 @@
       <c r="X29" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y29" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z29" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
       <c r="AA29" s="37"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -3556,7 +3464,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G30" s="35" t="s">
         <v>21</v>
@@ -3612,12 +3520,8 @@
       <c r="X30" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y30" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z30" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="37"/>
       <c r="AA30" s="37"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -3640,7 +3544,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G31" s="35" t="s">
         <v>20</v>
@@ -3696,12 +3600,8 @@
       <c r="X31" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y31" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z31" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="37"/>
       <c r="AA31" s="37"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -3724,7 +3624,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>21</v>
@@ -3780,12 +3680,8 @@
       <c r="X32" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y32" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z32" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37"/>
       <c r="AA32" s="37"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -3808,7 +3704,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G33" s="35" t="s">
         <v>20</v>
@@ -3864,12 +3760,8 @@
       <c r="X33" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y33" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z33" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="37"/>
       <c r="AA33" s="37"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -3892,7 +3784,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G34" s="35" t="s">
         <v>20</v>
@@ -3948,12 +3840,8 @@
       <c r="X34" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y34" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z34" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="37"/>
       <c r="AA34" s="37"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -3972,11 +3860,11 @@
       </c>
       <c r="E35" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F35" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G35" s="35" t="s">
         <v>20</v>
@@ -4032,12 +3920,8 @@
       <c r="X35" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y35" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z35" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y35" s="37"/>
+      <c r="Z35" s="37"/>
       <c r="AA35" s="37"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -4060,7 +3944,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G36" s="35" t="s">
         <v>20</v>
@@ -4116,12 +4000,8 @@
       <c r="X36" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y36" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z36" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="37"/>
       <c r="AA36" s="37"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -4140,7 +4020,7 @@
       </c>
       <c r="E37" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F37" s="34">
         <f t="shared" si="2"/>
@@ -4200,12 +4080,8 @@
       <c r="X37" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y37" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z37" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="37"/>
       <c r="AA37" s="37"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -4228,7 +4104,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G38" s="35" t="s">
         <v>21</v>
@@ -4284,12 +4160,8 @@
       <c r="X38" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y38" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z38" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
       <c r="AA38" s="37"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -4308,11 +4180,11 @@
       </c>
       <c r="E39" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F39" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G39" s="35" t="s">
         <v>20</v>
@@ -4368,12 +4240,8 @@
       <c r="X39" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y39" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z39" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y39" s="37"/>
+      <c r="Z39" s="37"/>
       <c r="AA39" s="37"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -4392,11 +4260,11 @@
       </c>
       <c r="E40" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G40" s="35" t="s">
         <v>20</v>
@@ -4452,12 +4320,8 @@
       <c r="X40" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y40" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z40" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y40" s="37"/>
+      <c r="Z40" s="37"/>
       <c r="AA40" s="37"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -4476,11 +4340,11 @@
       </c>
       <c r="E41" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G41" s="35" t="s">
         <v>20</v>
@@ -4536,12 +4400,8 @@
       <c r="X41" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y41" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z41" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y41" s="37"/>
+      <c r="Z41" s="37"/>
       <c r="AA41" s="37"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -4560,7 +4420,7 @@
       </c>
       <c r="E42" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F42" s="34">
         <f t="shared" si="2"/>
@@ -4620,12 +4480,8 @@
       <c r="X42" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y42" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z42" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y42" s="37"/>
+      <c r="Z42" s="37"/>
       <c r="AA42" s="37"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -4648,7 +4504,7 @@
       </c>
       <c r="F43" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G43" s="35" t="s">
         <v>20</v>
@@ -4704,12 +4560,8 @@
       <c r="X43" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y43" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z43" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y43" s="37"/>
+      <c r="Z43" s="37"/>
       <c r="AA43" s="37"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -4732,7 +4584,7 @@
       </c>
       <c r="F44" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G44" s="35" t="s">
         <v>20</v>
@@ -4788,12 +4640,8 @@
       <c r="X44" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y44" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z44" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y44" s="37"/>
+      <c r="Z44" s="37"/>
       <c r="AA44" s="37"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -4816,7 +4664,7 @@
       </c>
       <c r="F45" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G45" s="35" t="s">
         <v>20</v>
@@ -4872,12 +4720,8 @@
       <c r="X45" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y45" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z45" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y45" s="37"/>
+      <c r="Z45" s="37"/>
       <c r="AA45" s="37"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -4900,7 +4744,7 @@
       </c>
       <c r="F46" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G46" s="35" t="s">
         <v>20</v>
@@ -4956,10 +4800,8 @@
       <c r="X46" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y46" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z46" s="36"/>
+      <c r="Y46" s="37"/>
+      <c r="Z46" s="37"/>
       <c r="AA46" s="37"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -4982,7 +4824,7 @@
       </c>
       <c r="F47" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G47" s="35" t="s">
         <v>20</v>
@@ -5038,12 +4880,8 @@
       <c r="X47" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y47" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z47" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y47" s="37"/>
+      <c r="Z47" s="37"/>
       <c r="AA47" s="37"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -5066,7 +4904,7 @@
       </c>
       <c r="F48" s="34">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G48" s="35" t="s">
         <v>20</v>
@@ -5122,12 +4960,8 @@
       <c r="X48" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y48" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z48" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y48" s="37"/>
+      <c r="Z48" s="37"/>
       <c r="AA48" s="37"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -5150,7 +4984,7 @@
       </c>
       <c r="F49" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G49" s="35" t="s">
         <v>20</v>
@@ -5206,12 +5040,8 @@
       <c r="X49" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y49" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z49" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y49" s="37"/>
+      <c r="Z49" s="37"/>
       <c r="AA49" s="37"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -5234,7 +5064,7 @@
       </c>
       <c r="F50" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G50" s="35" t="s">
         <v>20</v>
@@ -5290,12 +5120,8 @@
       <c r="X50" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y50" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z50" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y50" s="37"/>
+      <c r="Z50" s="37"/>
       <c r="AA50" s="37"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -5314,11 +5140,11 @@
       </c>
       <c r="E51" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F51" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G51" s="35" t="s">
         <v>20</v>
@@ -5374,12 +5200,8 @@
       <c r="X51" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y51" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z51" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y51" s="37"/>
+      <c r="Z51" s="37"/>
       <c r="AA51" s="37"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -5402,7 +5224,7 @@
       </c>
       <c r="F52" s="34">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G52" s="35" t="s">
         <v>20</v>
@@ -5458,12 +5280,8 @@
       <c r="X52" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y52" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z52" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y52" s="37"/>
+      <c r="Z52" s="37"/>
       <c r="AA52" s="37"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -5482,11 +5300,11 @@
       </c>
       <c r="E53" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F53" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G53" s="35" t="s">
         <v>20</v>
@@ -5542,12 +5360,8 @@
       <c r="X53" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y53" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z53" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y53" s="37"/>
+      <c r="Z53" s="37"/>
       <c r="AA53" s="37"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -5570,7 +5384,7 @@
       </c>
       <c r="F54" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G54" s="35" t="s">
         <v>20</v>
@@ -5626,12 +5440,8 @@
       <c r="X54" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y54" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z54" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y54" s="37"/>
+      <c r="Z54" s="37"/>
       <c r="AA54" s="37"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -5654,7 +5464,7 @@
       </c>
       <c r="F55" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G55" s="35" t="s">
         <v>20</v>
@@ -5710,12 +5520,8 @@
       <c r="X55" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y55" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z55" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y55" s="37"/>
+      <c r="Z55" s="37"/>
       <c r="AA55" s="37"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -5738,7 +5544,7 @@
       </c>
       <c r="F56" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G56" s="35" t="s">
         <v>20</v>
@@ -5794,12 +5600,8 @@
       <c r="X56" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y56" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z56" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y56" s="37"/>
+      <c r="Z56" s="37"/>
       <c r="AA56" s="37"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -5818,7 +5620,7 @@
       </c>
       <c r="E57" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F57" s="34">
         <f t="shared" si="2"/>
@@ -5878,12 +5680,8 @@
       <c r="X57" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y57" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z57" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y57" s="37"/>
+      <c r="Z57" s="37"/>
       <c r="AA57" s="37"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -5902,11 +5700,11 @@
       </c>
       <c r="E58" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F58" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G58" s="35" t="s">
         <v>20</v>
@@ -5962,12 +5760,8 @@
       <c r="X58" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y58" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z58" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y58" s="37"/>
+      <c r="Z58" s="37"/>
       <c r="AA58" s="37"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -5986,11 +5780,11 @@
       </c>
       <c r="E59" s="26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" s="34">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G59" s="35" t="s">
         <v>21</v>
@@ -6046,12 +5840,8 @@
       <c r="X59" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y59" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z59" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y59" s="37"/>
+      <c r="Z59" s="37"/>
       <c r="AA59" s="37"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -6070,11 +5860,11 @@
       </c>
       <c r="E60" s="26">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F60" s="34">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G60" s="35" t="s">
         <v>20</v>
@@ -6130,12 +5920,8 @@
       <c r="X60" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y60" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z60" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y60" s="37"/>
+      <c r="Z60" s="37"/>
       <c r="AA60" s="37"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -6158,7 +5944,7 @@
       </c>
       <c r="F61" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G61" s="35" t="s">
         <v>20</v>
@@ -6214,12 +6000,8 @@
       <c r="X61" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y61" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z61" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y61" s="37"/>
+      <c r="Z61" s="37"/>
       <c r="AA61" s="37"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -6238,11 +6020,11 @@
       </c>
       <c r="E62" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F62" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G62" s="35" t="s">
         <v>20</v>
@@ -6298,12 +6080,8 @@
       <c r="X62" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y62" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z62" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y62" s="37"/>
+      <c r="Z62" s="37"/>
       <c r="AA62" s="37"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -6322,11 +6100,11 @@
       </c>
       <c r="E63" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F63" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G63" s="35" t="s">
         <v>20</v>
@@ -6382,12 +6160,8 @@
       <c r="X63" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y63" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z63" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y63" s="37"/>
+      <c r="Z63" s="37"/>
       <c r="AA63" s="37"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -6410,7 +6184,7 @@
       </c>
       <c r="F64" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G64" s="35" t="s">
         <v>21</v>
@@ -6466,12 +6240,8 @@
       <c r="X64" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y64" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z64" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y64" s="37"/>
+      <c r="Z64" s="37"/>
       <c r="AA64" s="37"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -6490,11 +6260,11 @@
       </c>
       <c r="E65" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F65" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G65" s="35" t="s">
         <v>20</v>
@@ -6550,12 +6320,8 @@
       <c r="X65" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y65" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z65" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y65" s="37"/>
+      <c r="Z65" s="37"/>
       <c r="AA65" s="37"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -6574,11 +6340,11 @@
       </c>
       <c r="E66" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66" s="34">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G66" s="35" t="s">
         <v>20</v>
@@ -6634,12 +6400,8 @@
       <c r="X66" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y66" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z66" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y66" s="37"/>
+      <c r="Z66" s="37"/>
       <c r="AA66" s="37"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
@@ -6658,11 +6420,11 @@
       </c>
       <c r="E67" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F67" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G67" s="35" t="s">
         <v>20</v>
@@ -6718,12 +6480,8 @@
       <c r="X67" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y67" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z67" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y67" s="37"/>
+      <c r="Z67" s="37"/>
       <c r="AA67" s="37"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -6742,11 +6500,11 @@
       </c>
       <c r="E68" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F68" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G68" s="35" t="s">
         <v>20</v>
@@ -6802,12 +6560,8 @@
       <c r="X68" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y68" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z68" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y68" s="37"/>
+      <c r="Z68" s="37"/>
       <c r="AA68" s="37"/>
     </row>
     <row r="69" ht="16.5" customHeight="1">
@@ -6826,11 +6580,11 @@
       </c>
       <c r="E69" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F69" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G69" s="35" t="s">
         <v>20</v>
@@ -6886,12 +6640,8 @@
       <c r="X69" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y69" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z69" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y69" s="37"/>
+      <c r="Z69" s="37"/>
       <c r="AA69" s="37"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -6910,11 +6660,11 @@
       </c>
       <c r="E70" s="26">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F70" s="34">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G70" s="35" t="s">
         <v>20</v>
@@ -6970,12 +6720,8 @@
       <c r="X70" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Y70" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z70" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y70" s="37"/>
+      <c r="Z70" s="37"/>
       <c r="AA70" s="37"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
@@ -6998,7 +6744,7 @@
       </c>
       <c r="F71" s="34">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G71" s="35" t="s">
         <v>20</v>
@@ -7054,12 +6800,8 @@
       <c r="X71" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y71" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z71" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y71" s="37"/>
+      <c r="Z71" s="37"/>
       <c r="AA71" s="37"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -7082,7 +6824,7 @@
       </c>
       <c r="F72" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G72" s="35" t="s">
         <v>20</v>
@@ -7138,12 +6880,8 @@
       <c r="X72" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y72" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z72" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y72" s="37"/>
+      <c r="Z72" s="37"/>
       <c r="AA72" s="37"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
@@ -7166,7 +6904,7 @@
       </c>
       <c r="F73" s="34">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G73" s="35" t="s">
         <v>20</v>
@@ -7222,12 +6960,8 @@
       <c r="X73" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y73" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z73" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y73" s="37"/>
+      <c r="Z73" s="37"/>
       <c r="AA73" s="37"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
@@ -7250,7 +6984,7 @@
       </c>
       <c r="F74" s="34">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G74" s="35" t="s">
         <v>20</v>
@@ -7306,12 +7040,8 @@
       <c r="X74" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y74" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z74" s="36" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y74" s="37"/>
+      <c r="Z74" s="37"/>
       <c r="AA74" s="37"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
@@ -7330,7 +7060,7 @@
       </c>
       <c r="E75" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F75" s="34">
         <f t="shared" si="2"/>
@@ -7390,12 +7120,8 @@
       <c r="X75" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="Y75" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z75" s="36" t="s">
-        <v>20</v>
-      </c>
+      <c r="Y75" s="37"/>
+      <c r="Z75" s="37"/>
       <c r="AA75" s="37"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
